--- a/results/US_ICD_113_SELECTED_CAUSES_ALL/_all_model_results.xlsx
+++ b/results/US_ICD_113_SELECTED_CAUSES_ALL/_all_model_results.xlsx
@@ -46,409 +46,409 @@
     <t>Model</t>
   </si>
   <si>
+    <t>Pneumonitis due to solids and liquids</t>
+  </si>
+  <si>
+    <t>Hypertensive heart disease</t>
+  </si>
+  <si>
+    <t>Congenital malformations, deformations and chromosomal abnormalities</t>
+  </si>
+  <si>
+    <t>Assault (homicide)</t>
+  </si>
+  <si>
+    <t>Pregnancy with abortive outcome</t>
+  </si>
+  <si>
+    <t>Acute bronchitis and bronchiolitis</t>
+  </si>
+  <si>
+    <t>Renal failure</t>
+  </si>
+  <si>
+    <t>Other acute ischemic heart diseases</t>
+  </si>
+  <si>
+    <t>Infections of kidney</t>
+  </si>
+  <si>
+    <t>Other land transport accidents</t>
+  </si>
+  <si>
+    <t>Other and unspecified acute lower respiratory infection</t>
+  </si>
+  <si>
+    <t>Accidental poisoning and exposure to noxious substances</t>
+  </si>
+  <si>
+    <t>Scarlet fever and erysipelas</t>
+  </si>
+  <si>
+    <t>Nephritis, nephrotic syndrome and nephrosis</t>
+  </si>
+  <si>
+    <t>In situ neoplasms, benign neoplasms and neoplasms of uncertain or unknown behavior</t>
+  </si>
+  <si>
+    <t>Assault (homicide) by discharge of firearms</t>
+  </si>
+  <si>
+    <t>Alcoholic liver disease</t>
+  </si>
+  <si>
+    <t>Viral hepatitis</t>
+  </si>
+  <si>
+    <t>Shigellosis and amebiasis</t>
+  </si>
+  <si>
+    <t>Nontransport accidents</t>
+  </si>
+  <si>
+    <t>Meningitis</t>
+  </si>
+  <si>
+    <t>Diseases of heart</t>
+  </si>
+  <si>
+    <t>Assault (homicide) by other and unspecified means and their sequelae</t>
+  </si>
+  <si>
+    <t>Syphilis</t>
+  </si>
+  <si>
+    <t>Influenza and pneumonia</t>
+  </si>
+  <si>
+    <t>Pneumonia</t>
+  </si>
+  <si>
+    <t>Other and unspecified events of undetermined intent and their sequelae</t>
+  </si>
+  <si>
+    <t>Malignant neoplasms</t>
+  </si>
+  <si>
+    <t>Cerebrovascular diseases</t>
+  </si>
+  <si>
+    <t>Measles</t>
+  </si>
+  <si>
+    <t>Malignant neoplasm of prostate</t>
+  </si>
+  <si>
+    <t>Other diseases of circulatory system</t>
+  </si>
+  <si>
+    <t>Acute myocardial infarction</t>
+  </si>
+  <si>
+    <t>Peptic ulcer</t>
+  </si>
+  <si>
+    <t>Other chronic liver disease and cirrhosis</t>
+  </si>
+  <si>
+    <t>Other and unspecified infectious and parasitic diseases and their sequelae</t>
+  </si>
+  <si>
+    <t>Malignant neoplasm of cervix uteri</t>
+  </si>
+  <si>
+    <t>Pneumoconioses and chemical effects</t>
+  </si>
+  <si>
+    <t>Malignant neoplasms of lip, oral cavity and pharynx</t>
+  </si>
+  <si>
+    <t>Transport accidents</t>
+  </si>
+  <si>
+    <t>Salmonella infections</t>
+  </si>
+  <si>
+    <t>Symptoms, signs and abnormal clinical and laboratory findings, not elsewhere classified</t>
+  </si>
+  <si>
+    <t>Non-Hodgkin's lymphoma</t>
+  </si>
+  <si>
+    <t>Accidental exposure to smoke, fire and flames</t>
+  </si>
+  <si>
+    <t>Malignant neoplasm of pancreas</t>
+  </si>
+  <si>
+    <t>Multiple myeloma and immunoproliferative neoplasms</t>
+  </si>
+  <si>
+    <t>Meningococcal infection</t>
+  </si>
+  <si>
+    <t>All other forms of chronic ischemic heart disease</t>
+  </si>
+  <si>
+    <t>Certain conditions originating in the perinatal period</t>
+  </si>
+  <si>
+    <t>Other acute lower respiratory infections</t>
+  </si>
+  <si>
+    <t>Hodgkin's disease</t>
+  </si>
+  <si>
+    <t>Other disorders of kidney</t>
+  </si>
+  <si>
+    <t>Malignant neoplasms of corpus uteri and uterus, part unspecified</t>
+  </si>
+  <si>
+    <t>Malignant melanoma of skin</t>
+  </si>
+  <si>
+    <t>Malignant neoplasms of liver and intrahepatic bile ducts</t>
+  </si>
+  <si>
+    <t>Accidental drowning and submersion</t>
+  </si>
+  <si>
+    <t>All other and unspecified malignant neoplasms</t>
+  </si>
+  <si>
+    <t>Leukemia</t>
+  </si>
+  <si>
+    <t>Malignant neoplasm of stomach</t>
+  </si>
+  <si>
+    <t>Malignant neoplasms of trachea, bronchus and lung</t>
+  </si>
+  <si>
+    <t>Other nutritional deficiencies</t>
+  </si>
+  <si>
+    <t>Malignant neoplasm of larynx</t>
+  </si>
+  <si>
+    <t>Diseases of pericardium and acute myocarditis</t>
+  </si>
+  <si>
+    <t>Complications of medical and surgical care</t>
+  </si>
+  <si>
+    <t>Heart failure</t>
+  </si>
+  <si>
+    <t>Malignant neoplasms of lymphoid, hematopoietic and related tissue</t>
+  </si>
+  <si>
+    <t>Other tuberculosis</t>
+  </si>
+  <si>
+    <t>Other disorders of circulatory system</t>
+  </si>
+  <si>
+    <t>Malnutrition</t>
+  </si>
+  <si>
+    <t>Malaria</t>
+  </si>
+  <si>
+    <t>Tuberculosis</t>
+  </si>
+  <si>
+    <t>Falls</t>
+  </si>
+  <si>
+    <t>Other forms of chronic ischemic heart disease</t>
+  </si>
+  <si>
+    <t>Chronic liver disease and cirrhosis</t>
+  </si>
+  <si>
+    <t>Other and unspecified malignant neoplasms of lymphoid, hematopoietic and related tissue</t>
+  </si>
+  <si>
+    <t>Diseases of appendix</t>
+  </si>
+  <si>
+    <t>Water, air and space, and other and unspecified transport accidents and their sequelae</t>
+  </si>
+  <si>
+    <t>Acute poliomyelitis</t>
+  </si>
+  <si>
+    <t>Whooping cough</t>
+  </si>
+  <si>
+    <t>Malignant neoplasm of breast</t>
+  </si>
+  <si>
+    <t>Inflammatory diseases of female pelvic organs</t>
+  </si>
+  <si>
+    <t>Respiratory tuberculosis</t>
+  </si>
+  <si>
+    <t>Legal intervention</t>
+  </si>
+  <si>
+    <t>Other diseases of respiratory system</t>
+  </si>
+  <si>
+    <t>Anemias</t>
+  </si>
+  <si>
+    <t>Diabetes mellitus</t>
+  </si>
+  <si>
+    <t>Essential (primary) hypertension and hypertensive renal disease</t>
+  </si>
+  <si>
+    <t>Other heart diseases</t>
+  </si>
+  <si>
+    <t>Bronchitis, chronic and unspecified</t>
+  </si>
+  <si>
+    <t>Other diseases of arteries, arterioles and capillaries</t>
+  </si>
+  <si>
+    <t>Cholelithiasis and other disorders of gallbladder</t>
+  </si>
+  <si>
+    <t>Ischemic heart diseases</t>
+  </si>
+  <si>
+    <t>All other diseases (Residual)</t>
+  </si>
+  <si>
+    <t>Accidents (unintentional injuries)</t>
+  </si>
+  <si>
+    <t>Other chronic lower respiratory diseases</t>
+  </si>
+  <si>
+    <t>Chronic glomerulonephritis, nephritis and nephropathy not specified as acute or chronic, and renal sclerosis unspecified</t>
+  </si>
+  <si>
+    <t>Accidental discharge of firearms</t>
+  </si>
+  <si>
+    <t>Malignant neoplasm of bladder</t>
+  </si>
+  <si>
+    <t>Acute and rapidly progressive nephritic and nephrotic syndrome</t>
+  </si>
+  <si>
     <t>Hernia</t>
   </si>
   <si>
-    <t>Shigellosis and amebiasis</t>
+    <t>Atherosclerotic cardiovascular disease, so described</t>
+  </si>
+  <si>
+    <t>Intentional self-harm (suicide) by other and unspecified means and their sequelae</t>
+  </si>
+  <si>
+    <t>Motor vehicle accidents</t>
+  </si>
+  <si>
+    <t>Aortic aneurysm and dissection</t>
+  </si>
+  <si>
+    <t>Influenza</t>
+  </si>
+  <si>
+    <t>Emphysema</t>
+  </si>
+  <si>
+    <t>Malignant neoplasm of ovary</t>
+  </si>
+  <si>
+    <t>Arthropod-borne viral encephalitis</t>
+  </si>
+  <si>
+    <t>Atherosclerosis</t>
+  </si>
+  <si>
+    <t>Malignant neoplasm of esophagus</t>
+  </si>
+  <si>
+    <t>Intentional self-harm (suicide) by discharge of firearms</t>
+  </si>
+  <si>
+    <t>Malignant neoplasms of kidney and renal pelvis</t>
+  </si>
+  <si>
+    <t>Certain other intestinal infections</t>
+  </si>
+  <si>
+    <t>Acute and subacute endocarditis</t>
+  </si>
+  <si>
+    <t>Hyperplasia of prostate</t>
+  </si>
+  <si>
+    <t>Malignant neoplasms of meninges, brain and other parts of central nervous system</t>
+  </si>
+  <si>
+    <t>Hypertensive heart and renal disease</t>
+  </si>
+  <si>
+    <t>Pregnancy, childbirth and the puerperium</t>
+  </si>
+  <si>
+    <t>Other and unspecified nontransport accidents and their sequelae</t>
+  </si>
+  <si>
+    <t>Malignant neoplasms of colon, rectum and anus</t>
+  </si>
+  <si>
+    <t>Parkinson's disease</t>
+  </si>
+  <si>
+    <t>Operations of war and their sequelae</t>
+  </si>
+  <si>
+    <t>Intentional self-harm (suicide)</t>
+  </si>
+  <si>
+    <t>Other complications of pregnancy, childbirth and the puerperium</t>
   </si>
   <si>
     <t>Chronic lower respiratory diseases</t>
   </si>
   <si>
-    <t>All other forms of chronic ischemic heart disease</t>
-  </si>
-  <si>
-    <t>Motor vehicle accidents</t>
-  </si>
-  <si>
-    <t>Other and unspecified nontransport accidents and their sequelae</t>
-  </si>
-  <si>
-    <t>Tuberculosis</t>
+    <t>Alzheimer's disease</t>
+  </si>
+  <si>
+    <t>Events of undetermined intent</t>
+  </si>
+  <si>
+    <t>All other forms of heart disease</t>
+  </si>
+  <si>
+    <t>Discharge of firearms, undetermined intent</t>
+  </si>
+  <si>
+    <t>Asthma</t>
+  </si>
+  <si>
+    <t>Major cardiovascular diseases</t>
+  </si>
+  <si>
+    <t>Human immunodeficiency virus (HIV) disease</t>
+  </si>
+  <si>
+    <t>Acute rheumatic fever and chronic rheumatic heart diseases</t>
   </si>
   <si>
     <t>Septicemia</t>
   </si>
   <si>
-    <t>Emphysema</t>
-  </si>
-  <si>
-    <t>Major cardiovascular diseases</t>
-  </si>
-  <si>
-    <t>Pneumoconioses and chemical effects</t>
-  </si>
-  <si>
-    <t>Ischemic heart diseases</t>
-  </si>
-  <si>
-    <t>Malignant neoplasms of lymphoid, hematopoietic and related tissue</t>
-  </si>
-  <si>
-    <t>Diseases of appendix</t>
-  </si>
-  <si>
-    <t>Acute myocardial infarction</t>
-  </si>
-  <si>
-    <t>Congenital malformations, deformations and chromosomal abnormalities</t>
-  </si>
-  <si>
-    <t>Other complications of pregnancy, childbirth and the puerperium</t>
-  </si>
-  <si>
-    <t>Nephritis, nephrotic syndrome and nephrosis</t>
-  </si>
-  <si>
-    <t>Malignant neoplasm of pancreas</t>
-  </si>
-  <si>
-    <t>Anemias</t>
-  </si>
-  <si>
-    <t>Malignant neoplasm of prostate</t>
-  </si>
-  <si>
-    <t>Hyperplasia of prostate</t>
-  </si>
-  <si>
-    <t>All other diseases (Residual)</t>
-  </si>
-  <si>
-    <t>Malignant neoplasm of larynx</t>
-  </si>
-  <si>
-    <t>Infections of kidney</t>
-  </si>
-  <si>
-    <t>Symptoms, signs and abnormal clinical and laboratory findings, not elsewhere classified</t>
-  </si>
-  <si>
-    <t>Operations of war and their sequelae</t>
-  </si>
-  <si>
-    <t>Heart failure</t>
-  </si>
-  <si>
-    <t>Other acute lower respiratory infections</t>
-  </si>
-  <si>
-    <t>Acute and subacute endocarditis</t>
-  </si>
-  <si>
-    <t>Influenza and pneumonia</t>
-  </si>
-  <si>
-    <t>Non-Hodgkin's lymphoma</t>
-  </si>
-  <si>
-    <t>Other disorders of circulatory system</t>
-  </si>
-  <si>
-    <t>Events of undetermined intent</t>
-  </si>
-  <si>
-    <t>Transport accidents</t>
-  </si>
-  <si>
-    <t>Other land transport accidents</t>
-  </si>
-  <si>
-    <t>Other diseases of respiratory system</t>
-  </si>
-  <si>
-    <t>Malignant neoplasm of breast</t>
-  </si>
-  <si>
-    <t>Malignant neoplasms of meninges, brain and other parts of central nervous system</t>
-  </si>
-  <si>
-    <t>Parkinson's disease</t>
-  </si>
-  <si>
-    <t>Other and unspecified malignant neoplasms of lymphoid, hematopoietic and related tissue</t>
-  </si>
-  <si>
-    <t>Malignant neoplasm of bladder</t>
-  </si>
-  <si>
-    <t>Inflammatory diseases of female pelvic organs</t>
-  </si>
-  <si>
-    <t>Renal failure</t>
-  </si>
-  <si>
-    <t>Asthma</t>
-  </si>
-  <si>
-    <t>Bronchitis, chronic and unspecified</t>
-  </si>
-  <si>
-    <t>All other forms of heart disease</t>
-  </si>
-  <si>
-    <t>Other disorders of kidney</t>
-  </si>
-  <si>
-    <t>Accidental drowning and submersion</t>
-  </si>
-  <si>
-    <t>Hypertensive heart and renal disease</t>
-  </si>
-  <si>
-    <t>Peptic ulcer</t>
-  </si>
-  <si>
-    <t>Other acute ischemic heart diseases</t>
-  </si>
-  <si>
-    <t>Other nutritional deficiencies</t>
-  </si>
-  <si>
-    <t>Chronic glomerulonephritis, nephritis and nephropathy not specified as acute or chronic, and renal sclerosis unspecified</t>
-  </si>
-  <si>
-    <t>Other and unspecified infectious and parasitic diseases and their sequelae</t>
-  </si>
-  <si>
-    <t>Arthropod-borne viral encephalitis</t>
-  </si>
-  <si>
-    <t>Other and unspecified acute lower respiratory infection</t>
-  </si>
-  <si>
-    <t>Chronic liver disease and cirrhosis</t>
-  </si>
-  <si>
-    <t>Pneumonia</t>
-  </si>
-  <si>
-    <t>Discharge of firearms, undetermined intent</t>
-  </si>
-  <si>
-    <t>Other and unspecified events of undetermined intent and their sequelae</t>
-  </si>
-  <si>
-    <t>Scarlet fever and erysipelas</t>
-  </si>
-  <si>
-    <t>Legal intervention</t>
-  </si>
-  <si>
-    <t>Intentional self-harm (suicide) by other and unspecified means and their sequelae</t>
-  </si>
-  <si>
-    <t>Intentional self-harm (suicide) by discharge of firearms</t>
-  </si>
-  <si>
-    <t>Measles</t>
-  </si>
-  <si>
-    <t>Acute bronchitis and bronchiolitis</t>
-  </si>
-  <si>
-    <t>Multiple myeloma and immunoproliferative neoplasms</t>
-  </si>
-  <si>
-    <t>Certain other intestinal infections</t>
-  </si>
-  <si>
-    <t>Malignant neoplasms</t>
-  </si>
-  <si>
-    <t>Other heart diseases</t>
-  </si>
-  <si>
-    <t>Atherosclerotic cardiovascular disease, so described</t>
-  </si>
-  <si>
-    <t>Complications of medical and surgical care</t>
-  </si>
-  <si>
-    <t>Essential (primary) hypertension and hypertensive renal disease</t>
-  </si>
-  <si>
-    <t>Pregnancy with abortive outcome</t>
-  </si>
-  <si>
-    <t>Assault (homicide) by other and unspecified means and their sequelae</t>
-  </si>
-  <si>
-    <t>In situ neoplasms, benign neoplasms and neoplasms of uncertain or unknown behavior</t>
-  </si>
-  <si>
-    <t>Other chronic lower respiratory diseases</t>
-  </si>
-  <si>
-    <t>Hodgkin's disease</t>
-  </si>
-  <si>
-    <t>Intentional self-harm (suicide)</t>
-  </si>
-  <si>
-    <t>Accidental poisoning and exposure to noxious substances</t>
-  </si>
-  <si>
-    <t>Respiratory tuberculosis</t>
-  </si>
-  <si>
-    <t>Other diseases of arteries, arterioles and capillaries</t>
-  </si>
-  <si>
-    <t>Cholelithiasis and other disorders of gallbladder</t>
-  </si>
-  <si>
-    <t>Other diseases of circulatory system</t>
-  </si>
-  <si>
-    <t>Acute poliomyelitis</t>
-  </si>
-  <si>
-    <t>Pneumonitis due to solids and liquids</t>
-  </si>
-  <si>
-    <t>Whooping cough</t>
-  </si>
-  <si>
-    <t>Nontransport accidents</t>
-  </si>
-  <si>
-    <t>Other chronic liver disease and cirrhosis</t>
-  </si>
-  <si>
-    <t>Influenza</t>
-  </si>
-  <si>
-    <t>Atherosclerosis</t>
-  </si>
-  <si>
-    <t>Syphilis</t>
-  </si>
-  <si>
-    <t>Accidental exposure to smoke, fire and flames</t>
-  </si>
-  <si>
-    <t>Falls</t>
-  </si>
-  <si>
-    <t>Malnutrition</t>
-  </si>
-  <si>
-    <t>Diabetes mellitus</t>
-  </si>
-  <si>
-    <t>Malignant neoplasms of colon, rectum and anus</t>
-  </si>
-  <si>
-    <t>Malignant neoplasms of liver and intrahepatic bile ducts</t>
-  </si>
-  <si>
-    <t>Meningitis</t>
-  </si>
-  <si>
-    <t>Malignant neoplasm of cervix uteri</t>
-  </si>
-  <si>
     <t>Nutritional deficiencies</t>
-  </si>
-  <si>
-    <t>Other tuberculosis</t>
-  </si>
-  <si>
-    <t>Malignant neoplasm of esophagus</t>
-  </si>
-  <si>
-    <t>Malignant neoplasm of stomach</t>
-  </si>
-  <si>
-    <t>Diseases of heart</t>
-  </si>
-  <si>
-    <t>Malignant neoplasms of trachea, bronchus and lung</t>
-  </si>
-  <si>
-    <t>Salmonella infections</t>
-  </si>
-  <si>
-    <t>Human immunodeficiency virus (HIV) disease</t>
-  </si>
-  <si>
-    <t>Cerebrovascular diseases</t>
-  </si>
-  <si>
-    <t>Malignant neoplasms of corpus uteri and uterus, part unspecified</t>
-  </si>
-  <si>
-    <t>Viral hepatitis</t>
-  </si>
-  <si>
-    <t>Other forms of chronic ischemic heart disease</t>
-  </si>
-  <si>
-    <t>Pregnancy, childbirth and the puerperium</t>
-  </si>
-  <si>
-    <t>Diseases of pericardium and acute myocarditis</t>
-  </si>
-  <si>
-    <t>Hypertensive heart disease</t>
-  </si>
-  <si>
-    <t>Malignant neoplasms of kidney and renal pelvis</t>
-  </si>
-  <si>
-    <t>Malignant melanoma of skin</t>
-  </si>
-  <si>
-    <t>Meningococcal infection</t>
-  </si>
-  <si>
-    <t>Assault (homicide) by discharge of firearms</t>
-  </si>
-  <si>
-    <t>Water, air and space, and other and unspecified transport accidents and their sequelae</t>
-  </si>
-  <si>
-    <t>Accidental discharge of firearms</t>
-  </si>
-  <si>
-    <t>Malignant neoplasms of lip, oral cavity and pharynx</t>
-  </si>
-  <si>
-    <t>Acute and rapidly progressive nephritic and nephrotic syndrome</t>
-  </si>
-  <si>
-    <t>Alzheimer's disease</t>
-  </si>
-  <si>
-    <t>Malignant neoplasm of ovary</t>
-  </si>
-  <si>
-    <t>All other and unspecified malignant neoplasms</t>
-  </si>
-  <si>
-    <t>Alcoholic liver disease</t>
-  </si>
-  <si>
-    <t>Leukemia</t>
-  </si>
-  <si>
-    <t>Aortic aneurysm and dissection</t>
-  </si>
-  <si>
-    <t>Certain conditions originating in the perinatal period</t>
-  </si>
-  <si>
-    <t>Accidents (unintentional injuries)</t>
-  </si>
-  <si>
-    <t>Malaria</t>
-  </si>
-  <si>
-    <t>Assault (homicide)</t>
-  </si>
-  <si>
-    <t>Acute rheumatic fever and chronic rheumatic heart diseases</t>
   </si>
   <si>
     <t>ETS(A,A,N)</t>
@@ -876,25 +876,25 @@
         <v>147</v>
       </c>
       <c r="D2">
-        <v>-291.6659107185492</v>
+        <v>-125.4532996527388</v>
       </c>
       <c r="E2">
-        <v>-289.0409107185492</v>
+        <v>-122.8282996527388</v>
       </c>
       <c r="F2">
-        <v>-285.0116641340306</v>
+        <v>-118.7990530682203</v>
       </c>
       <c r="G2">
-        <v>0.01794973990103309</v>
+        <v>1.273389404405493</v>
       </c>
       <c r="H2">
         <v>2027</v>
       </c>
       <c r="I2">
-        <v>0.7623009593867732</v>
+        <v>6.816681571550008</v>
       </c>
       <c r="J2">
-        <v>0.009904655662763551</v>
+        <v>0.06365112408978746</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -906,25 +906,25 @@
         <v>147</v>
       </c>
       <c r="D3">
-        <v>-290.2439743781624</v>
+        <v>-124.268943587659</v>
       </c>
       <c r="E3">
-        <v>-286.631071152356</v>
+        <v>-120.6560403618525</v>
       </c>
       <c r="F3">
-        <v>-281.9261661475142</v>
+        <v>-115.9511353570107</v>
       </c>
       <c r="G3">
-        <v>0.01768564828845878</v>
+        <v>1.247034360445009</v>
       </c>
       <c r="H3">
         <v>2027</v>
       </c>
       <c r="I3">
-        <v>0.7474696726480602</v>
+        <v>6.739219893680922</v>
       </c>
       <c r="J3">
-        <v>0.007692335264811612</v>
+        <v>0.05096085652050153</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -938,25 +938,25 @@
         <v>147</v>
       </c>
       <c r="D4">
-        <v>-469.3043373747654</v>
+        <v>-113.7680393429361</v>
       </c>
       <c r="E4">
-        <v>-466.6793373747654</v>
+        <v>-111.1430393429361</v>
       </c>
       <c r="F4">
-        <v>-462.6500907902468</v>
+        <v>-107.1137927584175</v>
       </c>
       <c r="G4">
-        <v>0.0001887643573930453</v>
+        <v>1.71824638490963</v>
       </c>
       <c r="H4">
         <v>2027</v>
       </c>
       <c r="I4">
-        <v>0.0008356588198688739</v>
+        <v>23.17662150140979</v>
       </c>
       <c r="J4">
-        <v>-7.391179862729967e-05</v>
+        <v>0.8546561913915447</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -968,25 +968,25 @@
         <v>147</v>
       </c>
       <c r="D5">
-        <v>-467.9752810558227</v>
+        <v>-111.3693992065123</v>
       </c>
       <c r="E5">
-        <v>-464.3623778300163</v>
+        <v>-107.7564959807058</v>
       </c>
       <c r="F5">
-        <v>-459.6574728251745</v>
+        <v>-103.0515909758641</v>
       </c>
       <c r="G5">
-        <v>0.0001855446894974151</v>
+        <v>1.735899580167812</v>
       </c>
       <c r="H5">
         <v>2027</v>
       </c>
       <c r="I5">
-        <v>0.0008353009649868482</v>
+        <v>22.4348368472234</v>
       </c>
       <c r="J5">
-        <v>-6.356697261604221e-05</v>
+        <v>0.7122934846907114</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -1000,25 +1000,25 @@
         <v>147</v>
       </c>
       <c r="D6">
-        <v>20.991649574355</v>
+        <v>-173.8979579080068</v>
       </c>
       <c r="E6">
-        <v>23.616649574355</v>
+        <v>-171.2729579080068</v>
       </c>
       <c r="F6">
-        <v>27.64589615887359</v>
+        <v>-167.2437113234882</v>
       </c>
       <c r="G6">
-        <v>54.41723186811825</v>
+        <v>0.3676997551248073</v>
       </c>
       <c r="H6">
         <v>2027</v>
       </c>
       <c r="I6">
-        <v>54.93271874769841</v>
+        <v>2.734544309138853</v>
       </c>
       <c r="J6">
-        <v>0.6058847712069451</v>
+        <v>-0.03246602423235823</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -1030,25 +1030,25 @@
         <v>147</v>
       </c>
       <c r="D7">
-        <v>21.33289379910041</v>
+        <v>-172.2318751623301</v>
       </c>
       <c r="E7">
-        <v>24.94579702490687</v>
+        <v>-168.6189719365237</v>
       </c>
       <c r="F7">
-        <v>29.65070202974865</v>
+        <v>-163.9140669316819</v>
       </c>
       <c r="G7">
-        <v>52.1512769173848</v>
+        <v>0.3645649560470374</v>
       </c>
       <c r="H7">
         <v>2027</v>
       </c>
       <c r="I7">
-        <v>53.77077281741617</v>
+        <v>2.833640089688909</v>
       </c>
       <c r="J7">
-        <v>0.4525537828376969</v>
+        <v>-0.02073414515004179</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -1062,25 +1062,25 @@
         <v>147</v>
       </c>
       <c r="D8">
-        <v>66.47983503861946</v>
+        <v>-44.53425247245763</v>
       </c>
       <c r="E8">
-        <v>69.10483503861946</v>
+        <v>-41.90925247245763</v>
       </c>
       <c r="F8">
-        <v>73.13408162313803</v>
+        <v>-37.88000588793905</v>
       </c>
       <c r="G8">
-        <v>174.6955240158508</v>
+        <v>10.14042115628838</v>
       </c>
       <c r="H8">
         <v>2027</v>
       </c>
       <c r="I8">
-        <v>55.46761560485793</v>
+        <v>5.712874593831511</v>
       </c>
       <c r="J8">
-        <v>-0.2032963402590724</v>
+        <v>-0.03091840765977771</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -1092,25 +1092,25 @@
         <v>147</v>
       </c>
       <c r="D9">
-        <v>59.51596551966202</v>
+        <v>-42.56279810750596</v>
       </c>
       <c r="E9">
-        <v>63.12886874546847</v>
+        <v>-38.94989488169951</v>
       </c>
       <c r="F9">
-        <v>67.83377375031026</v>
+        <v>-34.24498987685773</v>
       </c>
       <c r="G9">
-        <v>138.8232842074263</v>
+        <v>10.13300169854276</v>
       </c>
       <c r="H9">
         <v>2027</v>
       </c>
       <c r="I9">
-        <v>54.58364209740898</v>
+        <v>5.794279078211016</v>
       </c>
       <c r="J9">
-        <v>-0.2573218124558778</v>
+        <v>-0.02076353133064845</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -1124,25 +1124,25 @@
         <v>147</v>
       </c>
       <c r="D10">
-        <v>172.1120274770746</v>
+        <v>-444.1301881100222</v>
       </c>
       <c r="E10">
-        <v>174.7370274770746</v>
+        <v>-441.5051881100222</v>
       </c>
       <c r="F10">
-        <v>178.7662740615932</v>
+        <v>-437.4759415255036</v>
       </c>
       <c r="G10">
-        <v>2621.658339862175</v>
+        <v>0.00035995911576559</v>
       </c>
       <c r="H10">
         <v>2027</v>
       </c>
       <c r="I10">
-        <v>23.47724753057124</v>
+        <v>0.001468394382555467</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>-0.0004587560092818794</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -1154,25 +1154,25 @@
         <v>147</v>
       </c>
       <c r="D11">
-        <v>173.9954680701173</v>
+        <v>-441.8860825714672</v>
       </c>
       <c r="E11">
-        <v>177.6083712959237</v>
+        <v>-438.2731793456607</v>
       </c>
       <c r="F11">
-        <v>182.3132763007655</v>
+        <v>-433.568274340819</v>
       </c>
       <c r="G11">
-        <v>2613.834679513143</v>
+        <v>0.0003622192074707194</v>
       </c>
       <c r="H11">
         <v>2027</v>
       </c>
       <c r="I11">
-        <v>23.46406092320964</v>
+        <v>0.002735987846793367</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>-0.0003163344218177653</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -1186,25 +1186,25 @@
         <v>147</v>
       </c>
       <c r="D12">
-        <v>-75.12847302142045</v>
+        <v>-322.3938807199058</v>
       </c>
       <c r="E12">
-        <v>-72.50347302142045</v>
+        <v>-319.7688807199058</v>
       </c>
       <c r="F12">
-        <v>-68.47422643690186</v>
+        <v>-315.7396341353872</v>
       </c>
       <c r="G12">
-        <v>4.627710891190867</v>
+        <v>0.008163548649303824</v>
       </c>
       <c r="H12">
         <v>2027</v>
       </c>
       <c r="I12">
-        <v>5.295023925988888</v>
+        <v>0.07956306702184537</v>
       </c>
       <c r="J12">
-        <v>-0.0475385950034628</v>
+        <v>0.0005448077304074095</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -1216,25 +1216,25 @@
         <v>147</v>
       </c>
       <c r="D13">
-        <v>-73.34928634665506</v>
+        <v>-321.0602981135594</v>
       </c>
       <c r="E13">
-        <v>-69.73638312084861</v>
+        <v>-317.4473948877529</v>
       </c>
       <c r="F13">
-        <v>-65.03147811600684</v>
+        <v>-312.7424898829112</v>
       </c>
       <c r="G13">
-        <v>4.601583382038809</v>
+        <v>0.008025238052639409</v>
       </c>
       <c r="H13">
         <v>2027</v>
       </c>
       <c r="I13">
-        <v>5.543633647269537</v>
+        <v>0.0797565928122079</v>
       </c>
       <c r="J13">
-        <v>-0.02091630474795103</v>
+        <v>0.0005070145460214642</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -1248,25 +1248,25 @@
         <v>147</v>
       </c>
       <c r="D14">
-        <v>-281.8085708824839</v>
+        <v>-88.33063000240176</v>
       </c>
       <c r="E14">
-        <v>-279.1835708824839</v>
+        <v>-85.70563000240176</v>
       </c>
       <c r="F14">
-        <v>-275.1543242979653</v>
+        <v>-81.67638341788317</v>
       </c>
       <c r="G14">
-        <v>0.0231114445088562</v>
+        <v>3.298756212827108</v>
       </c>
       <c r="H14">
         <v>2027</v>
       </c>
       <c r="I14">
-        <v>0.1340387257390481</v>
+        <v>16.08067886306005</v>
       </c>
       <c r="J14">
-        <v>-0.002622202501109644</v>
+        <v>0.08009522268838865</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -1278,25 +1278,25 @@
         <v>147</v>
       </c>
       <c r="D15">
-        <v>-280.4306604882694</v>
+        <v>-87.29840718542816</v>
       </c>
       <c r="E15">
-        <v>-276.817757262463</v>
+        <v>-83.68550395962171</v>
       </c>
       <c r="F15">
-        <v>-272.1128522576212</v>
+        <v>-78.98059895477994</v>
       </c>
       <c r="G15">
-        <v>0.02274571810669742</v>
+        <v>3.21790553405834</v>
       </c>
       <c r="H15">
         <v>2027</v>
       </c>
       <c r="I15">
-        <v>0.1400155115248007</v>
+        <v>15.9962293244751</v>
       </c>
       <c r="J15">
-        <v>-0.001845479899485858</v>
+        <v>0.06531369150372868</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -1310,25 +1310,25 @@
         <v>147</v>
       </c>
       <c r="D16">
-        <v>-73.90510963222189</v>
+        <v>-170.3436263052847</v>
       </c>
       <c r="E16">
-        <v>-71.28010963222189</v>
+        <v>-167.7186263052847</v>
       </c>
       <c r="F16">
-        <v>-67.25086304770331</v>
+        <v>-163.6893797207661</v>
       </c>
       <c r="G16">
-        <v>4.775175035541825</v>
+        <v>0.4027852051296733</v>
       </c>
       <c r="H16">
         <v>2027</v>
       </c>
       <c r="I16">
-        <v>13.3713883565504</v>
+        <v>1.413589697341784</v>
       </c>
       <c r="J16">
-        <v>0.07810950088249591</v>
+        <v>0.004615409611353982</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -1340,25 +1340,25 @@
         <v>147</v>
       </c>
       <c r="D17">
-        <v>-73.01095315082287</v>
+        <v>-168.9230879700486</v>
       </c>
       <c r="E17">
-        <v>-69.39804992501642</v>
+        <v>-165.3101847442421</v>
       </c>
       <c r="F17">
-        <v>-64.69314492017463</v>
+        <v>-160.6052797394003</v>
       </c>
       <c r="G17">
-        <v>4.641676742613493</v>
+        <v>0.3968448660496024</v>
       </c>
       <c r="H17">
         <v>2027</v>
       </c>
       <c r="I17">
-        <v>13.3283689574098</v>
+        <v>1.41642634231147</v>
       </c>
       <c r="J17">
-        <v>0.06728019791774464</v>
+        <v>0.004465811785361762</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -1372,25 +1372,25 @@
         <v>147</v>
       </c>
       <c r="D18">
-        <v>-115.5855618628595</v>
+        <v>-254.8850829366785</v>
       </c>
       <c r="E18">
-        <v>-112.9605618628595</v>
+        <v>-252.2600829366785</v>
       </c>
       <c r="F18">
-        <v>-108.9313152783409</v>
+        <v>-248.2308363521599</v>
       </c>
       <c r="G18">
-        <v>1.640007943699372</v>
+        <v>0.04609358438153884</v>
       </c>
       <c r="H18">
         <v>2027</v>
       </c>
       <c r="I18">
-        <v>1.238308578605818</v>
+        <v>0.3298735049527765</v>
       </c>
       <c r="J18">
-        <v>-0.08881286406252609</v>
+        <v>0.008057900378588501</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -1402,25 +1402,25 @@
         <v>147</v>
       </c>
       <c r="D19">
-        <v>-114.2131356946675</v>
+        <v>-253.5499014060938</v>
       </c>
       <c r="E19">
-        <v>-110.6002324688611</v>
+        <v>-249.9369981802873</v>
       </c>
       <c r="F19">
-        <v>-105.8953274640193</v>
+        <v>-245.2320931754456</v>
       </c>
       <c r="G19">
-        <v>1.613828729765961</v>
+        <v>0.04531450343921092</v>
       </c>
       <c r="H19">
         <v>2027</v>
       </c>
       <c r="I19">
-        <v>1.390512008997109</v>
+        <v>0.3196199172524562</v>
       </c>
       <c r="J19">
-        <v>-0.06722566697937427</v>
+        <v>0.00641060055474274</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -1434,25 +1434,25 @@
         <v>147</v>
       </c>
       <c r="D20">
-        <v>150.542355694689</v>
+        <v>-193.4284210919858</v>
       </c>
       <c r="E20">
-        <v>153.167355694689</v>
+        <v>-190.8034210919858</v>
       </c>
       <c r="F20">
-        <v>157.1966022792076</v>
+        <v>-186.7741745074672</v>
       </c>
       <c r="G20">
-        <v>1507.931078226136</v>
+        <v>0.2228470396063445</v>
       </c>
       <c r="H20">
         <v>2027</v>
       </c>
       <c r="I20">
-        <v>291.2050423524466</v>
+        <v>0.1494592919342874</v>
       </c>
       <c r="J20">
-        <v>2.82862265453997</v>
+        <v>-0.01870268820545221</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -1464,25 +1464,25 @@
         <v>147</v>
       </c>
       <c r="D21">
-        <v>151.728662385993</v>
+        <v>-191.8476748335503</v>
       </c>
       <c r="E21">
-        <v>155.3415656117994</v>
+        <v>-188.2347716077438</v>
       </c>
       <c r="F21">
-        <v>160.0464706166412</v>
+        <v>-183.529866602902</v>
       </c>
       <c r="G21">
-        <v>1476.795641509713</v>
+        <v>0.2204642431436554</v>
       </c>
       <c r="H21">
         <v>2027</v>
       </c>
       <c r="I21">
-        <v>288.0020987631889</v>
+        <v>0.2377442307805199</v>
       </c>
       <c r="J21">
-        <v>2.289537658437837</v>
+        <v>-0.009000944340482459</v>
       </c>
     </row>
     <row r="22" spans="1:10">
@@ -1496,25 +1496,25 @@
         <v>147</v>
       </c>
       <c r="D22">
-        <v>-287.4819723705674</v>
+        <v>-352.6517952103626</v>
       </c>
       <c r="E22">
-        <v>-284.8569723705674</v>
+        <v>-350.0267952103626</v>
       </c>
       <c r="F22">
-        <v>-280.8277257860488</v>
+        <v>-345.997548625844</v>
       </c>
       <c r="G22">
-        <v>0.01998248410551014</v>
+        <v>0.003757804948513525</v>
       </c>
       <c r="H22">
         <v>2027</v>
       </c>
       <c r="I22">
-        <v>0.1037286760043148</v>
+        <v>0.02402761104978444</v>
       </c>
       <c r="J22">
-        <v>-0.01053471310088049</v>
+        <v>0.0004479257752141794</v>
       </c>
     </row>
     <row r="23" spans="1:10">
@@ -1526,25 +1526,25 @@
         <v>147</v>
       </c>
       <c r="D23">
-        <v>-285.3338634897709</v>
+        <v>-350.6675467352089</v>
       </c>
       <c r="E23">
-        <v>-281.7209602639645</v>
+        <v>-347.0546435094024</v>
       </c>
       <c r="F23">
-        <v>-277.0160552591227</v>
+        <v>-342.3497385045607</v>
       </c>
       <c r="G23">
-        <v>0.02005851513700095</v>
+        <v>0.003756287532964684</v>
       </c>
       <c r="H23">
         <v>2027</v>
       </c>
       <c r="I23">
-        <v>0.1321459715205622</v>
+        <v>0.02222872514427589</v>
       </c>
       <c r="J23">
-        <v>-0.007012634599770085</v>
+        <v>0.000249060257429632</v>
       </c>
     </row>
     <row r="24" spans="1:10">
@@ -1558,25 +1558,25 @@
         <v>147</v>
       </c>
       <c r="D24">
-        <v>97.18708976052744</v>
+        <v>-46.9970180407237</v>
       </c>
       <c r="E24">
-        <v>99.81208976052744</v>
+        <v>-44.3720180407237</v>
       </c>
       <c r="F24">
-        <v>103.841336345046</v>
+        <v>-40.34277145620511</v>
       </c>
       <c r="G24">
-        <v>383.91074916661</v>
+        <v>9.519874789634846</v>
       </c>
       <c r="H24">
         <v>2027</v>
       </c>
       <c r="I24">
-        <v>105.3481830187858</v>
+        <v>41.22312786240572</v>
       </c>
       <c r="J24">
-        <v>-0.6970335174790137</v>
+        <v>2.11936041479624</v>
       </c>
     </row>
     <row r="25" spans="1:10">
@@ -1588,25 +1588,25 @@
         <v>147</v>
       </c>
       <c r="D25">
-        <v>99.00840995110811</v>
+        <v>-44.72171286367084</v>
       </c>
       <c r="E25">
-        <v>102.6213131769146</v>
+        <v>-41.10880963786439</v>
       </c>
       <c r="F25">
-        <v>107.3262181817563</v>
+        <v>-36.40390463302261</v>
       </c>
       <c r="G25">
-        <v>382.1558722629194</v>
+        <v>9.587314356906838</v>
       </c>
       <c r="H25">
         <v>2027</v>
       </c>
       <c r="I25">
-        <v>106.2225065628961</v>
+        <v>38.901077161152</v>
       </c>
       <c r="J25">
-        <v>-0.5578207863797502</v>
+        <v>1.720259868027426</v>
       </c>
     </row>
     <row r="26" spans="1:10">
@@ -1620,25 +1620,25 @@
         <v>147</v>
       </c>
       <c r="D26">
-        <v>-103.9071844375713</v>
+        <v>-516.6787954796297</v>
       </c>
       <c r="E26">
-        <v>-101.2821844375713</v>
+        <v>-513.9691180602748</v>
       </c>
       <c r="F26">
-        <v>-97.25293785305273</v>
+        <v>-510.1284508407242</v>
       </c>
       <c r="G26">
-        <v>2.212552132979413</v>
+        <v>3.831187860870462e-05</v>
       </c>
       <c r="H26">
-        <v>2027</v>
+        <v>2026</v>
       </c>
       <c r="I26">
-        <v>17.22021378784453</v>
+        <v>-0.0006298933807167012</v>
       </c>
       <c r="J26">
-        <v>-0.04953726253380708</v>
+        <v>-0.0001172191258699208</v>
       </c>
     </row>
     <row r="27" spans="1:10">
@@ -1650,25 +1650,25 @@
         <v>147</v>
       </c>
       <c r="D27">
-        <v>-102.7183860761171</v>
+        <v>-515.9414769991563</v>
       </c>
       <c r="E27">
-        <v>-99.10548285031065</v>
+        <v>-512.2081436658229</v>
       </c>
       <c r="F27">
-        <v>-94.40057784546886</v>
+        <v>-507.7535462005243</v>
       </c>
       <c r="G27">
-        <v>2.167006275603551</v>
+        <v>3.705975216745697e-05</v>
       </c>
       <c r="H27">
-        <v>2027</v>
+        <v>2026</v>
       </c>
       <c r="I27">
-        <v>17.28125249476778</v>
+        <v>-0.0001892199688633255</v>
       </c>
       <c r="J27">
-        <v>-0.0397419258605396</v>
+        <v>-7.375966647006908e-05</v>
       </c>
     </row>
     <row r="28" spans="1:10">
@@ -1682,25 +1682,25 @@
         <v>147</v>
       </c>
       <c r="D28">
-        <v>-326.9009602051559</v>
+        <v>-61.85930308769672</v>
       </c>
       <c r="E28">
-        <v>-324.2759602051559</v>
+        <v>-59.23430308769672</v>
       </c>
       <c r="F28">
-        <v>-320.2467136206373</v>
+        <v>-55.20505650317813</v>
       </c>
       <c r="G28">
-        <v>0.007272592404245184</v>
+        <v>6.503220166087736</v>
       </c>
       <c r="H28">
         <v>2027</v>
       </c>
       <c r="I28">
-        <v>0.1088657077263761</v>
+        <v>17.34100560981233</v>
       </c>
       <c r="J28">
-        <v>-0.001565359333262031</v>
+        <v>0.1777599024032455</v>
       </c>
     </row>
     <row r="29" spans="1:10">
@@ -1712,25 +1712,25 @@
         <v>147</v>
       </c>
       <c r="D29">
-        <v>-325.4674375527995</v>
+        <v>-60.5090198408687</v>
       </c>
       <c r="E29">
-        <v>-321.8545343269931</v>
+        <v>-56.89611661506225</v>
       </c>
       <c r="F29">
-        <v>-317.1496293221513</v>
+        <v>-52.19121161022047</v>
       </c>
       <c r="G29">
-        <v>0.007167721037037364</v>
+        <v>6.395777841962004</v>
       </c>
       <c r="H29">
         <v>2027</v>
       </c>
       <c r="I29">
-        <v>0.1156635079667263</v>
+        <v>16.6322527487837</v>
       </c>
       <c r="J29">
-        <v>-0.0008098134349127928</v>
+        <v>0.09743199808658787</v>
       </c>
     </row>
     <row r="30" spans="1:10">
@@ -1744,25 +1744,25 @@
         <v>147</v>
       </c>
       <c r="D30">
-        <v>27.78811834855679</v>
+        <v>-183.0626886060193</v>
       </c>
       <c r="E30">
-        <v>30.41311834855679</v>
+        <v>-180.4376886060193</v>
       </c>
       <c r="F30">
-        <v>34.44236493307537</v>
+        <v>-176.4084420215007</v>
       </c>
       <c r="G30">
-        <v>64.77691540203911</v>
+        <v>0.2906947151094571</v>
       </c>
       <c r="H30">
         <v>2027</v>
       </c>
       <c r="I30">
-        <v>26.78315854323677</v>
+        <v>5.049978666250968</v>
       </c>
       <c r="J30">
-        <v>-0.7192634859293783</v>
+        <v>0.01451760963314364</v>
       </c>
     </row>
     <row r="31" spans="1:10">
@@ -1774,25 +1774,25 @@
         <v>147</v>
       </c>
       <c r="D31">
-        <v>29.27695377071213</v>
+        <v>-181.3298063720131</v>
       </c>
       <c r="E31">
-        <v>32.88985699651857</v>
+        <v>-177.7169031462066</v>
       </c>
       <c r="F31">
-        <v>37.59476200136036</v>
+        <v>-173.0119981413648</v>
       </c>
       <c r="G31">
-        <v>63.9334380731048</v>
+        <v>0.2887104994493764</v>
       </c>
       <c r="H31">
         <v>2027</v>
       </c>
       <c r="I31">
-        <v>27.58112108534781</v>
+        <v>4.989734154822004</v>
       </c>
       <c r="J31">
-        <v>-0.5835342185671983</v>
+        <v>0.008032939435110187</v>
       </c>
     </row>
     <row r="32" spans="1:10">
@@ -1806,25 +1806,25 @@
         <v>147</v>
       </c>
       <c r="D32">
-        <v>-173.8979579080068</v>
+        <v>-73.36726678147234</v>
       </c>
       <c r="E32">
-        <v>-171.2729579080068</v>
+        <v>-70.74226678147234</v>
       </c>
       <c r="F32">
-        <v>-167.2437113234882</v>
+        <v>-66.71302019695375</v>
       </c>
       <c r="G32">
-        <v>0.3676997551248073</v>
+        <v>4.841484905080047</v>
       </c>
       <c r="H32">
         <v>2027</v>
       </c>
       <c r="I32">
-        <v>2.734544309138853</v>
+        <v>5.895030727536012</v>
       </c>
       <c r="J32">
-        <v>-0.03246602423235823</v>
+        <v>0.1414791003978806</v>
       </c>
     </row>
     <row r="33" spans="1:10">
@@ -1836,25 +1836,25 @@
         <v>147</v>
       </c>
       <c r="D33">
-        <v>-172.2318751623301</v>
+        <v>-72.12664423084458</v>
       </c>
       <c r="E33">
-        <v>-168.6189719365237</v>
+        <v>-68.51374100503813</v>
       </c>
       <c r="F33">
-        <v>-163.9140669316819</v>
+        <v>-63.80883600019634</v>
       </c>
       <c r="G33">
-        <v>0.3645649560470374</v>
+        <v>4.748127147671536</v>
       </c>
       <c r="H33">
         <v>2027</v>
       </c>
       <c r="I33">
-        <v>2.833640089688909</v>
+        <v>5.72601895657041</v>
       </c>
       <c r="J33">
-        <v>-0.02073414515004179</v>
+        <v>0.1135605516009264</v>
       </c>
     </row>
     <row r="34" spans="1:10">
@@ -1868,25 +1868,25 @@
         <v>147</v>
       </c>
       <c r="D34">
-        <v>-294.0435402235603</v>
+        <v>-132.6860002789392</v>
       </c>
       <c r="E34">
-        <v>-291.4185402235603</v>
+        <v>-130.0610002789392</v>
       </c>
       <c r="F34">
-        <v>-287.3892936390417</v>
+        <v>-126.0317536944206</v>
       </c>
       <c r="G34">
-        <v>0.01688812590029473</v>
+        <v>1.057839166821844</v>
       </c>
       <c r="H34">
         <v>2027</v>
       </c>
       <c r="I34">
-        <v>0.4827213654824625</v>
+        <v>8.991048468130606</v>
       </c>
       <c r="J34">
-        <v>0.01116840007514153</v>
+        <v>0.2134835660176133</v>
       </c>
     </row>
     <row r="35" spans="1:10">
@@ -1898,25 +1898,25 @@
         <v>147</v>
       </c>
       <c r="D35">
-        <v>-292.0808017184618</v>
+        <v>-130.8687585324573</v>
       </c>
       <c r="E35">
-        <v>-288.4678984926554</v>
+        <v>-127.2558553066508</v>
       </c>
       <c r="F35">
-        <v>-283.7629934878136</v>
+        <v>-122.550950301809</v>
       </c>
       <c r="G35">
-        <v>0.01687199830285653</v>
+        <v>1.052893613863821</v>
       </c>
       <c r="H35">
         <v>2027</v>
       </c>
       <c r="I35">
-        <v>0.4603743645482466</v>
+        <v>8.676235957940081</v>
       </c>
       <c r="J35">
-        <v>0.008165910837834134</v>
+        <v>0.1659064683065186</v>
       </c>
     </row>
     <row r="36" spans="1:10">
@@ -1930,25 +1930,25 @@
         <v>147</v>
       </c>
       <c r="D36">
-        <v>-61.85930308769672</v>
+        <v>-145.1545717471863</v>
       </c>
       <c r="E36">
-        <v>-59.23430308769672</v>
+        <v>-142.5295717471863</v>
       </c>
       <c r="F36">
-        <v>-55.20505650317813</v>
+        <v>-138.5003251626677</v>
       </c>
       <c r="G36">
-        <v>6.503220166087736</v>
+        <v>0.7683740231460482</v>
       </c>
       <c r="H36">
         <v>2027</v>
       </c>
       <c r="I36">
-        <v>17.34100560981233</v>
+        <v>-0.4439823836446388</v>
       </c>
       <c r="J36">
-        <v>0.1777599024032455</v>
+        <v>-0.2173693245189303</v>
       </c>
     </row>
     <row r="37" spans="1:10">
@@ -1960,25 +1960,25 @@
         <v>147</v>
       </c>
       <c r="D37">
-        <v>-60.5090198408687</v>
+        <v>-143.6017665396888</v>
       </c>
       <c r="E37">
-        <v>-56.89611661506225</v>
+        <v>-139.9888633138823</v>
       </c>
       <c r="F37">
-        <v>-52.19121161022047</v>
+        <v>-135.2839583090405</v>
       </c>
       <c r="G37">
-        <v>6.395777841962004</v>
+        <v>0.7596137578650816</v>
       </c>
       <c r="H37">
         <v>2027</v>
       </c>
       <c r="I37">
-        <v>16.6322527487837</v>
+        <v>-0.2091017890740361</v>
       </c>
       <c r="J37">
-        <v>0.09743199808658787</v>
+        <v>-0.1767348726166968</v>
       </c>
     </row>
     <row r="38" spans="1:10">
@@ -1992,25 +1992,25 @@
         <v>147</v>
       </c>
       <c r="D38">
-        <v>-166.8626231587245</v>
+        <v>-469.3043373747654</v>
       </c>
       <c r="E38">
-        <v>-164.2376231587245</v>
+        <v>-466.6793373747654</v>
       </c>
       <c r="F38">
-        <v>-160.2083765742059</v>
+        <v>-462.6500907902468</v>
       </c>
       <c r="G38">
-        <v>0.4403896578530102</v>
+        <v>0.0001887643573930453</v>
       </c>
       <c r="H38">
         <v>2027</v>
       </c>
       <c r="I38">
-        <v>16.12118241329041</v>
+        <v>0.0008356588198688739</v>
       </c>
       <c r="J38">
-        <v>0.2608862923158792</v>
+        <v>-7.391179862729967e-05</v>
       </c>
     </row>
     <row r="39" spans="1:10">
@@ -2022,25 +2022,25 @@
         <v>147</v>
       </c>
       <c r="D39">
-        <v>-163.6850035239368</v>
+        <v>-467.9752810558227</v>
       </c>
       <c r="E39">
-        <v>-160.0721002981304</v>
+        <v>-464.3623778300163</v>
       </c>
       <c r="F39">
-        <v>-155.3671952932886</v>
+        <v>-459.6574728251745</v>
       </c>
       <c r="G39">
-        <v>0.4538901898883649</v>
+        <v>0.0001855446894974151</v>
       </c>
       <c r="H39">
         <v>2027</v>
       </c>
       <c r="I39">
-        <v>15.87187848119579</v>
+        <v>0.0008353009649868482</v>
       </c>
       <c r="J39">
-        <v>0.2152234553963392</v>
+        <v>-6.356697261604221e-05</v>
       </c>
     </row>
     <row r="40" spans="1:10">
@@ -2054,25 +2054,25 @@
         <v>147</v>
       </c>
       <c r="D40">
-        <v>-213.3273252115241</v>
+        <v>-12.39874578025988</v>
       </c>
       <c r="E40">
-        <v>-210.7023252115241</v>
+        <v>-9.77374578025988</v>
       </c>
       <c r="F40">
-        <v>-206.6730786270056</v>
+        <v>-5.744499195741295</v>
       </c>
       <c r="G40">
-        <v>0.1337881132823662</v>
+        <v>23.11581193078535</v>
       </c>
       <c r="H40">
         <v>2027</v>
       </c>
       <c r="I40">
-        <v>1.739563803563303</v>
+        <v>63.13337068010216</v>
       </c>
       <c r="J40">
-        <v>0.008327797542279303</v>
+        <v>2.39140036215251</v>
       </c>
     </row>
     <row r="41" spans="1:10">
@@ -2084,25 +2084,25 @@
         <v>147</v>
       </c>
       <c r="D41">
-        <v>-212.4899762007102</v>
+        <v>-10.0174107268274</v>
       </c>
       <c r="E41">
-        <v>-208.8770729749038</v>
+        <v>-6.404507501020952</v>
       </c>
       <c r="F41">
-        <v>-204.172167970062</v>
+        <v>-1.699602496179171</v>
       </c>
       <c r="G41">
-        <v>0.1298585447187989</v>
+        <v>23.3429428357059</v>
       </c>
       <c r="H41">
         <v>2027</v>
       </c>
       <c r="I41">
-        <v>1.704446825274161</v>
+        <v>60.72057430735904</v>
       </c>
       <c r="J41">
-        <v>0.004818249285458043</v>
+        <v>1.959969222919014</v>
       </c>
     </row>
     <row r="42" spans="1:10">
@@ -2116,25 +2116,25 @@
         <v>147</v>
       </c>
       <c r="D42">
-        <v>-112.9606346910888</v>
+        <v>-288.042107697309</v>
       </c>
       <c r="E42">
-        <v>-110.3356346910888</v>
+        <v>-285.417107697309</v>
       </c>
       <c r="F42">
-        <v>-106.3063881065702</v>
+        <v>-281.3878611127904</v>
       </c>
       <c r="G42">
-        <v>1.754189471192614</v>
+        <v>0.01969753795089667</v>
       </c>
       <c r="H42">
         <v>2027</v>
       </c>
       <c r="I42">
-        <v>10.72168037935313</v>
+        <v>0.1889543313145955</v>
       </c>
       <c r="J42">
-        <v>0.129217802068073</v>
+        <v>0.0002462618213116552</v>
       </c>
     </row>
     <row r="43" spans="1:10">
@@ -2146,25 +2146,25 @@
         <v>147</v>
       </c>
       <c r="D43">
-        <v>-111.6743291766147</v>
+        <v>-286.6510759081715</v>
       </c>
       <c r="E43">
-        <v>-108.0614259508083</v>
+        <v>-283.038172682365</v>
       </c>
       <c r="F43">
-        <v>-103.3565209459665</v>
+        <v>-278.3332676775233</v>
       </c>
       <c r="G43">
-        <v>1.722379994077548</v>
+        <v>0.01939235820119369</v>
       </c>
       <c r="H43">
         <v>2027</v>
       </c>
       <c r="I43">
-        <v>10.58453855140792</v>
+        <v>0.1909109724439622</v>
       </c>
       <c r="J43">
-        <v>0.1053940177160744</v>
+        <v>0.0004058390534056044</v>
       </c>
     </row>
     <row r="44" spans="1:10">
@@ -2178,25 +2178,25 @@
         <v>147</v>
       </c>
       <c r="D44">
-        <v>-331.6252608682446</v>
+        <v>127.1981385876571</v>
       </c>
       <c r="E44">
-        <v>-329.0002608682446</v>
+        <v>129.8231385876571</v>
       </c>
       <c r="F44">
-        <v>-324.971014283726</v>
+        <v>133.8523851721757</v>
       </c>
       <c r="G44">
-        <v>0.006442888103410073</v>
+        <v>828.7546679626192</v>
       </c>
       <c r="H44">
         <v>2027</v>
       </c>
       <c r="I44">
-        <v>0.2337896737372797</v>
+        <v>216.2973027717823</v>
       </c>
       <c r="J44">
-        <v>0.004006081634179787</v>
+        <v>1.700243996296905</v>
       </c>
     </row>
     <row r="45" spans="1:10">
@@ -2208,25 +2208,25 @@
         <v>147</v>
       </c>
       <c r="D45">
-        <v>-330.3450328544968</v>
+        <v>128.5134791700149</v>
       </c>
       <c r="E45">
-        <v>-326.7321296286903</v>
+        <v>132.1263823958214</v>
       </c>
       <c r="F45">
-        <v>-322.0272246238486</v>
+        <v>136.8312874006632</v>
       </c>
       <c r="G45">
-        <v>0.006325070690368137</v>
+        <v>814.3325367084973</v>
       </c>
       <c r="H45">
         <v>2027</v>
       </c>
       <c r="I45">
-        <v>0.2290930020063885</v>
+        <v>214.3107371528675</v>
       </c>
       <c r="J45">
-        <v>0.003219190311743059</v>
+        <v>1.370756398878683</v>
       </c>
     </row>
     <row r="46" spans="1:10">
@@ -2240,25 +2240,25 @@
         <v>147</v>
       </c>
       <c r="D46">
-        <v>185.7012714668056</v>
+        <v>-103.9590274691778</v>
       </c>
       <c r="E46">
-        <v>188.3262714668056</v>
+        <v>-101.3340274691778</v>
       </c>
       <c r="F46">
-        <v>192.3555180513242</v>
+        <v>-97.30478088465922</v>
       </c>
       <c r="G46">
-        <v>3714.51911360698</v>
+        <v>2.209612922607792</v>
       </c>
       <c r="H46">
         <v>2027</v>
       </c>
       <c r="I46">
-        <v>129.2234612951965</v>
+        <v>1.023626108091857</v>
       </c>
       <c r="J46">
-        <v>2.63813423033875</v>
+        <v>-0.04396560218512557</v>
       </c>
     </row>
     <row r="47" spans="1:10">
@@ -2270,25 +2270,25 @@
         <v>147</v>
       </c>
       <c r="D47">
-        <v>188.3984897417094</v>
+        <v>-102.1570843067377</v>
       </c>
       <c r="E47">
-        <v>192.0113929675159</v>
+        <v>-98.54418108093121</v>
       </c>
       <c r="F47">
-        <v>196.7162979723576</v>
+        <v>-93.83927607608942</v>
       </c>
       <c r="G47">
-        <v>3781.522162003185</v>
+        <v>2.198420112268756</v>
       </c>
       <c r="H47">
         <v>2027</v>
       </c>
       <c r="I47">
-        <v>115.8965439138491</v>
+        <v>1.167644879302896</v>
       </c>
       <c r="J47">
-        <v>1.189586630294031</v>
+        <v>-0.02801215156014436</v>
       </c>
     </row>
     <row r="48" spans="1:10">
@@ -2302,25 +2302,25 @@
         <v>147</v>
       </c>
       <c r="D48">
-        <v>-256.538619464124</v>
+        <v>-425.2615125293565</v>
       </c>
       <c r="E48">
-        <v>-253.913619464124</v>
+        <v>-422.6365125293565</v>
       </c>
       <c r="F48">
-        <v>-249.8843728796054</v>
+        <v>-418.6072659448379</v>
       </c>
       <c r="G48">
-        <v>0.04418014148220044</v>
+        <v>0.0005839425776540904</v>
       </c>
       <c r="H48">
         <v>2027</v>
       </c>
       <c r="I48">
-        <v>1.049173630247728</v>
+        <v>0.02528360297549164</v>
       </c>
       <c r="J48">
-        <v>-0.01033093952118147</v>
+        <v>0.0005945277938016191</v>
       </c>
     </row>
     <row r="49" spans="1:10">
@@ -2332,25 +2332,25 @@
         <v>147</v>
       </c>
       <c r="D49">
-        <v>-254.9320829692666</v>
+        <v>-423.8427989193289</v>
       </c>
       <c r="E49">
-        <v>-251.3191797434601</v>
+        <v>-420.2298956935224</v>
       </c>
       <c r="F49">
-        <v>-246.6142747386183</v>
+        <v>-415.5249906886806</v>
       </c>
       <c r="G49">
-        <v>0.04373665739961029</v>
+        <v>0.0005753035835317507</v>
       </c>
       <c r="H49">
         <v>2027</v>
       </c>
       <c r="I49">
-        <v>1.082524818890904</v>
+        <v>0.02451981895493302</v>
       </c>
       <c r="J49">
-        <v>-0.00660163482613596</v>
+        <v>0.0004742265977667956</v>
       </c>
     </row>
     <row r="50" spans="1:10">
@@ -2364,25 +2364,25 @@
         <v>147</v>
       </c>
       <c r="D50">
-        <v>-254.8850829366785</v>
+        <v>23.0941100081112</v>
       </c>
       <c r="E50">
-        <v>-252.2600829366785</v>
+        <v>25.7191100081112</v>
       </c>
       <c r="F50">
-        <v>-248.2308363521599</v>
+        <v>29.74835659262978</v>
       </c>
       <c r="G50">
-        <v>0.04609358438153884</v>
+        <v>57.43133773256308</v>
       </c>
       <c r="H50">
         <v>2027</v>
       </c>
       <c r="I50">
-        <v>0.3298735049527765</v>
+        <v>15.54175581272972</v>
       </c>
       <c r="J50">
-        <v>0.008057900378588501</v>
+        <v>-0.1269398033019939</v>
       </c>
     </row>
     <row r="51" spans="1:10">
@@ -2394,25 +2394,25 @@
         <v>147</v>
       </c>
       <c r="D51">
-        <v>-253.5499014060938</v>
+        <v>24.05019733266903</v>
       </c>
       <c r="E51">
-        <v>-249.9369981802873</v>
+        <v>27.66310055847548</v>
       </c>
       <c r="F51">
-        <v>-245.2320931754456</v>
+        <v>32.36800556331727</v>
       </c>
       <c r="G51">
-        <v>0.04531450343921092</v>
+        <v>55.91446521572556</v>
       </c>
       <c r="H51">
         <v>2027</v>
       </c>
       <c r="I51">
-        <v>0.3196199172524562</v>
+        <v>15.66800011589105</v>
       </c>
       <c r="J51">
-        <v>0.00641060055474274</v>
+        <v>-0.1043488892277615</v>
       </c>
     </row>
     <row r="52" spans="1:10">
@@ -2426,25 +2426,25 @@
         <v>147</v>
       </c>
       <c r="D52">
-        <v>-15.37752950528301</v>
+        <v>6.874039861580744</v>
       </c>
       <c r="E52">
-        <v>-12.75252950528301</v>
+        <v>9.499039861580744</v>
       </c>
       <c r="F52">
-        <v>-8.723282920764426</v>
+        <v>13.52828644609933</v>
       </c>
       <c r="G52">
-        <v>21.41598942998161</v>
+        <v>37.89013823506499</v>
       </c>
       <c r="H52">
         <v>2027</v>
       </c>
       <c r="I52">
-        <v>10.14954053457669</v>
+        <v>12.18170367010146</v>
       </c>
       <c r="J52">
-        <v>0</v>
+        <v>-0.2907749901125936</v>
       </c>
     </row>
     <row r="53" spans="1:10">
@@ -2456,25 +2456,25 @@
         <v>147</v>
       </c>
       <c r="D53">
-        <v>-13.37752950528301</v>
+        <v>7.937926836268371</v>
       </c>
       <c r="E53">
-        <v>-9.764626279476559</v>
+        <v>11.55083006207482</v>
       </c>
       <c r="F53">
-        <v>-5.059721274634779</v>
+        <v>16.2557350669166</v>
       </c>
       <c r="G53">
-        <v>21.41598942998161</v>
+        <v>36.99149329500102</v>
       </c>
       <c r="H53">
         <v>2027</v>
       </c>
       <c r="I53">
-        <v>10.14954053457669</v>
+        <v>12.63565264616476</v>
       </c>
       <c r="J53">
-        <v>0</v>
+        <v>-0.2245217128023835</v>
       </c>
     </row>
     <row r="54" spans="1:10">
@@ -2488,25 +2488,25 @@
         <v>147</v>
       </c>
       <c r="D54">
-        <v>-459.8771940989059</v>
+        <v>-180.9834244273758</v>
       </c>
       <c r="E54">
-        <v>-457.2521940989059</v>
+        <v>-178.3584244273758</v>
       </c>
       <c r="F54">
-        <v>-453.2229475143873</v>
+        <v>-174.3291778428572</v>
       </c>
       <c r="G54">
-        <v>0.0002403800165448996</v>
+        <v>0.3066135296989191</v>
       </c>
       <c r="H54">
         <v>2027</v>
       </c>
       <c r="I54">
-        <v>-0.001241967541438773</v>
+        <v>1.769517292882476</v>
       </c>
       <c r="J54">
-        <v>-0.0004152467510212489</v>
+        <v>0.007296382804473867</v>
       </c>
     </row>
     <row r="55" spans="1:10">
@@ -2518,25 +2518,25 @@
         <v>147</v>
       </c>
       <c r="D55">
-        <v>-458.3932191739594</v>
+        <v>-178.7376925622271</v>
       </c>
       <c r="E55">
-        <v>-454.780315948153</v>
+        <v>-175.1247893364206</v>
       </c>
       <c r="F55">
-        <v>-450.0754109433112</v>
+        <v>-170.4198843315789</v>
       </c>
       <c r="G55">
-        <v>0.0002372203986653292</v>
+        <v>0.3085515445831442</v>
       </c>
       <c r="H55">
         <v>2027</v>
       </c>
       <c r="I55">
-        <v>-0.0005791968200650334</v>
+        <v>1.705169203568115</v>
       </c>
       <c r="J55">
-        <v>-0.0003214432612008481</v>
+        <v>0.0007853783533575687</v>
       </c>
     </row>
     <row r="56" spans="1:10">
@@ -2550,25 +2550,25 @@
         <v>147</v>
       </c>
       <c r="D56">
-        <v>-16.07611456144504</v>
+        <v>32.882130050154</v>
       </c>
       <c r="E56">
-        <v>-13.45111456144504</v>
+        <v>35.507130050154</v>
       </c>
       <c r="F56">
-        <v>-9.421867976926453</v>
+        <v>39.53637663467259</v>
       </c>
       <c r="G56">
-        <v>21.03579215685383</v>
+        <v>73.81522275650669</v>
       </c>
       <c r="H56">
         <v>2027</v>
       </c>
       <c r="I56">
-        <v>32.41063424866112</v>
+        <v>178.0715716901044</v>
       </c>
       <c r="J56">
-        <v>0.7681663576875835</v>
+        <v>-0.649696215559004</v>
       </c>
     </row>
     <row r="57" spans="1:10">
@@ -2580,25 +2580,25 @@
         <v>147</v>
       </c>
       <c r="D57">
-        <v>-14.73229962973388</v>
+        <v>33.76554806863953</v>
       </c>
       <c r="E57">
-        <v>-11.11939640392742</v>
+        <v>37.37845129444598</v>
       </c>
       <c r="F57">
-        <v>-6.414491399085644</v>
+        <v>42.08335629928777</v>
       </c>
       <c r="G57">
-        <v>20.68482039806983</v>
+        <v>71.73183655484182</v>
       </c>
       <c r="H57">
         <v>2027</v>
       </c>
       <c r="I57">
-        <v>31.27677293667153</v>
+        <v>178.7568327374399</v>
       </c>
       <c r="J57">
-        <v>0.5968730391947403</v>
+        <v>-0.5297879937673144</v>
       </c>
     </row>
     <row r="58" spans="1:10">
@@ -2612,25 +2612,25 @@
         <v>147</v>
       </c>
       <c r="D58">
-        <v>-297.0457318876101</v>
+        <v>22.90367377229853</v>
       </c>
       <c r="E58">
-        <v>-294.4207318876101</v>
+        <v>25.52867377229853</v>
       </c>
       <c r="F58">
-        <v>-290.3914853030915</v>
+        <v>29.55792035681711</v>
       </c>
       <c r="G58">
-        <v>0.01563686851269086</v>
+        <v>57.1515852046684</v>
       </c>
       <c r="H58">
         <v>2027</v>
       </c>
       <c r="I58">
-        <v>0.06045730824375774</v>
+        <v>53.73584965096184</v>
       </c>
       <c r="J58">
-        <v>-0.002927863483027933</v>
+        <v>0.8702578690171165</v>
       </c>
     </row>
     <row r="59" spans="1:10">
@@ -2642,25 +2642,25 @@
         <v>147</v>
       </c>
       <c r="D59">
-        <v>-295.6124048677482</v>
+        <v>24.20581044651083</v>
       </c>
       <c r="E59">
-        <v>-291.9995016419418</v>
+        <v>27.81871367231728</v>
       </c>
       <c r="F59">
-        <v>-287.2945966371</v>
+        <v>32.52361867715906</v>
       </c>
       <c r="G59">
-        <v>0.01541130630482295</v>
+        <v>56.13801408860168</v>
       </c>
       <c r="H59">
         <v>2027</v>
       </c>
       <c r="I59">
-        <v>0.08785036810637245</v>
+        <v>52.73574664580636</v>
       </c>
       <c r="J59">
-        <v>-0.000235349598189466</v>
+        <v>0.7021287273889243</v>
       </c>
     </row>
     <row r="60" spans="1:10">
@@ -2674,25 +2674,25 @@
         <v>147</v>
       </c>
       <c r="D60">
-        <v>-288.1104802833643</v>
+        <v>-360.0825828652657</v>
       </c>
       <c r="E60">
-        <v>-285.4854802833643</v>
+        <v>-356.9714717541547</v>
       </c>
       <c r="F60">
-        <v>-281.4562336988457</v>
+        <v>-353.9771407668011</v>
       </c>
       <c r="G60">
-        <v>0.01966303559816734</v>
+        <v>0.0006758105349482839</v>
       </c>
       <c r="H60">
-        <v>2027</v>
+        <v>2022</v>
       </c>
       <c r="I60">
-        <v>0.6945157573150801</v>
+        <v>0.0006371170910354949</v>
       </c>
       <c r="J60">
-        <v>0.02247366876170842</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:10">
@@ -2704,25 +2704,25 @@
         <v>147</v>
       </c>
       <c r="D61">
-        <v>-286.6282067393085</v>
+        <v>-358.0825828652657</v>
       </c>
       <c r="E61">
-        <v>-283.015303513502</v>
+        <v>-353.7748905575734</v>
       </c>
       <c r="F61">
-        <v>-278.3103985086603</v>
+        <v>-350.4507802421849</v>
       </c>
       <c r="G61">
-        <v>0.01940373300036662</v>
+        <v>0.0006758105349482838</v>
       </c>
       <c r="H61">
-        <v>2027</v>
+        <v>2022</v>
       </c>
       <c r="I61">
-        <v>0.6673381317225821</v>
+        <v>0.0006371170910354949</v>
       </c>
       <c r="J61">
-        <v>0.01804886795549132</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:10">
@@ -2736,25 +2736,25 @@
         <v>147</v>
       </c>
       <c r="D62">
-        <v>23.0941100081112</v>
+        <v>-112.9606346910888</v>
       </c>
       <c r="E62">
-        <v>25.7191100081112</v>
+        <v>-110.3356346910888</v>
       </c>
       <c r="F62">
-        <v>29.74835659262978</v>
+        <v>-106.3063881065702</v>
       </c>
       <c r="G62">
-        <v>57.43133773256308</v>
+        <v>1.754189471192614</v>
       </c>
       <c r="H62">
         <v>2027</v>
       </c>
       <c r="I62">
-        <v>15.54175581272972</v>
+        <v>10.72168037935313</v>
       </c>
       <c r="J62">
-        <v>-0.1269398033019939</v>
+        <v>0.129217802068073</v>
       </c>
     </row>
     <row r="63" spans="1:10">
@@ -2766,25 +2766,25 @@
         <v>147</v>
       </c>
       <c r="D63">
-        <v>24.05019733266903</v>
+        <v>-111.6743291766147</v>
       </c>
       <c r="E63">
-        <v>27.66310055847548</v>
+        <v>-108.0614259508083</v>
       </c>
       <c r="F63">
-        <v>32.36800556331727</v>
+        <v>-103.3565209459665</v>
       </c>
       <c r="G63">
-        <v>55.91446521572556</v>
+        <v>1.722379994077548</v>
       </c>
       <c r="H63">
         <v>2027</v>
       </c>
       <c r="I63">
-        <v>15.66800011589105</v>
+        <v>10.58453855140792</v>
       </c>
       <c r="J63">
-        <v>-0.1043488892277615</v>
+        <v>0.1053940177160744</v>
       </c>
     </row>
     <row r="64" spans="1:10">
@@ -2798,25 +2798,25 @@
         <v>147</v>
       </c>
       <c r="D64">
-        <v>-147.3576079976926</v>
+        <v>-129.0121264767932</v>
       </c>
       <c r="E64">
-        <v>-144.7326079976926</v>
+        <v>-126.3871264767932</v>
       </c>
       <c r="F64">
-        <v>-140.7033614131741</v>
+        <v>-122.3578798922746</v>
       </c>
       <c r="G64">
-        <v>0.726173171715065</v>
+        <v>1.162334169029612</v>
       </c>
       <c r="H64">
         <v>2027</v>
       </c>
       <c r="I64">
-        <v>6.173359690332432</v>
+        <v>6.055916798002455</v>
       </c>
       <c r="J64">
-        <v>-0.0099590322825307</v>
+        <v>-0.00120068156950115</v>
       </c>
     </row>
     <row r="65" spans="1:10">
@@ -2828,25 +2828,25 @@
         <v>147</v>
       </c>
       <c r="D65">
-        <v>-146.1537557062976</v>
+        <v>-127.7194039252719</v>
       </c>
       <c r="E65">
-        <v>-142.5408524804911</v>
+        <v>-124.1065006994655</v>
       </c>
       <c r="F65">
-        <v>-137.8359474756493</v>
+        <v>-119.4015956946237</v>
       </c>
       <c r="G65">
-        <v>0.7114993266183947</v>
+        <v>1.141444857552753</v>
       </c>
       <c r="H65">
         <v>2027</v>
       </c>
       <c r="I65">
-        <v>6.186928109910034</v>
+        <v>6.05714443142821</v>
       </c>
       <c r="J65">
-        <v>-0.007894647154979673</v>
+        <v>-0.0009877829803439653</v>
       </c>
     </row>
     <row r="66" spans="1:10">
@@ -2860,25 +2860,25 @@
         <v>147</v>
       </c>
       <c r="D66">
-        <v>-189.8709265935688</v>
+        <v>27.78811834855679</v>
       </c>
       <c r="E66">
-        <v>-187.2459265935688</v>
+        <v>30.41311834855679</v>
       </c>
       <c r="F66">
-        <v>-183.2166800090502</v>
+        <v>34.44236493307537</v>
       </c>
       <c r="G66">
-        <v>0.2441306231217902</v>
+        <v>64.77691540203911</v>
       </c>
       <c r="H66">
         <v>2027</v>
       </c>
       <c r="I66">
-        <v>1.390923192346585</v>
+        <v>26.78315854323677</v>
       </c>
       <c r="J66">
-        <v>-0.007140115808502934</v>
+        <v>-0.7192634859293783</v>
       </c>
     </row>
     <row r="67" spans="1:10">
@@ -2890,25 +2890,25 @@
         <v>147</v>
       </c>
       <c r="D67">
-        <v>-187.9799381855143</v>
+        <v>29.27695377071213</v>
       </c>
       <c r="E67">
-        <v>-184.3670349597078</v>
+        <v>32.88985699651857</v>
       </c>
       <c r="F67">
-        <v>-179.6621299548661</v>
+        <v>37.59476200136036</v>
       </c>
       <c r="G67">
-        <v>0.2434491895708159</v>
+        <v>63.9334380731048</v>
       </c>
       <c r="H67">
         <v>2027</v>
       </c>
       <c r="I67">
-        <v>1.420138862642554</v>
+        <v>27.58112108534781</v>
       </c>
       <c r="J67">
-        <v>-0.003879062138805622</v>
+        <v>-0.5835342185671983</v>
       </c>
     </row>
     <row r="68" spans="1:10">
@@ -2922,25 +2922,25 @@
         <v>147</v>
       </c>
       <c r="D68">
-        <v>-173.1883665242121</v>
+        <v>-198.3454621783987</v>
       </c>
       <c r="E68">
-        <v>-170.5633665242121</v>
+        <v>-195.7204621783987</v>
       </c>
       <c r="F68">
-        <v>-166.5341199396935</v>
+        <v>-191.6912155938801</v>
       </c>
       <c r="G68">
-        <v>0.3744511572445807</v>
+        <v>0.1964499395880406</v>
       </c>
       <c r="H68">
         <v>2027</v>
       </c>
       <c r="I68">
-        <v>1.826314452880044</v>
+        <v>1.292814567117756</v>
       </c>
       <c r="J68">
-        <v>0.002568360393445213</v>
+        <v>0.02752988279848645</v>
       </c>
     </row>
     <row r="69" spans="1:10">
@@ -2952,25 +2952,25 @@
         <v>147</v>
       </c>
       <c r="D69">
-        <v>-171.1622676770859</v>
+        <v>-197.1156491144976</v>
       </c>
       <c r="E69">
-        <v>-167.5493644512795</v>
+        <v>-193.5027458886911</v>
       </c>
       <c r="F69">
-        <v>-162.8444594464377</v>
+        <v>-188.7978408838493</v>
       </c>
       <c r="G69">
-        <v>0.3747018242754668</v>
+        <v>0.192608427617955</v>
       </c>
       <c r="H69">
         <v>2027</v>
       </c>
       <c r="I69">
-        <v>1.800630848945591</v>
+        <v>1.262226384091027</v>
       </c>
       <c r="J69">
-        <v>0</v>
+        <v>0.02237720884728067</v>
       </c>
     </row>
     <row r="70" spans="1:10">
@@ -2984,25 +2984,25 @@
         <v>147</v>
       </c>
       <c r="D70">
-        <v>-23.91755648516816</v>
+        <v>-145.1535132326792</v>
       </c>
       <c r="E70">
-        <v>-21.29255648516816</v>
+        <v>-142.5285132326792</v>
       </c>
       <c r="F70">
-        <v>-17.26330990064957</v>
+        <v>-138.4992666481606</v>
       </c>
       <c r="G70">
-        <v>17.20435865506322</v>
+        <v>0.768394878173944</v>
       </c>
       <c r="H70">
         <v>2027</v>
       </c>
       <c r="I70">
-        <v>12.97703095058994</v>
+        <v>6.753985699687219</v>
       </c>
       <c r="J70">
-        <v>-0.03356638272410351</v>
+        <v>0.0754338973328359</v>
       </c>
     </row>
     <row r="71" spans="1:10">
@@ -3014,25 +3014,25 @@
         <v>147</v>
       </c>
       <c r="D71">
-        <v>-22.52472286924937</v>
+        <v>-143.7810914827782</v>
       </c>
       <c r="E71">
-        <v>-18.91181964344292</v>
+        <v>-140.1681882569717</v>
       </c>
       <c r="F71">
-        <v>-14.20691463860114</v>
+        <v>-135.4632832521299</v>
       </c>
       <c r="G71">
-        <v>16.93858902195151</v>
+        <v>0.7561290141798934</v>
       </c>
       <c r="H71">
         <v>2027</v>
       </c>
       <c r="I71">
-        <v>12.22524518096486</v>
+        <v>6.648092428394738</v>
       </c>
       <c r="J71">
-        <v>-0.09912781718124286</v>
+        <v>0.05910987248385435</v>
       </c>
     </row>
     <row r="72" spans="1:10">
@@ -3046,25 +3046,25 @@
         <v>147</v>
       </c>
       <c r="D72">
-        <v>-193.4284210919858</v>
+        <v>-82.50262263452552</v>
       </c>
       <c r="E72">
-        <v>-190.8034210919858</v>
+        <v>-79.87762263452552</v>
       </c>
       <c r="F72">
-        <v>-186.7741745074672</v>
+        <v>-75.84837605000693</v>
       </c>
       <c r="G72">
-        <v>0.2228470396063445</v>
+        <v>3.83044727584004</v>
       </c>
       <c r="H72">
         <v>2027</v>
       </c>
       <c r="I72">
-        <v>0.1494592919342874</v>
+        <v>2.58916389285674</v>
       </c>
       <c r="J72">
-        <v>-0.01870268820545221</v>
+        <v>0.02904464037229726</v>
       </c>
     </row>
     <row r="73" spans="1:10">
@@ -3076,25 +3076,25 @@
         <v>147</v>
       </c>
       <c r="D73">
-        <v>-191.8476748335503</v>
+        <v>-80.85998997668659</v>
       </c>
       <c r="E73">
-        <v>-188.2347716077438</v>
+        <v>-77.24708675088014</v>
       </c>
       <c r="F73">
-        <v>-183.529866602902</v>
+        <v>-72.54218174603835</v>
       </c>
       <c r="G73">
-        <v>0.2204642431436554</v>
+        <v>3.795508194187455</v>
       </c>
       <c r="H73">
         <v>2027</v>
       </c>
       <c r="I73">
-        <v>0.2377442307805199</v>
+        <v>2.499887439974308</v>
       </c>
       <c r="J73">
-        <v>-0.009000944340482459</v>
+        <v>0.01889530201461653</v>
       </c>
     </row>
     <row r="74" spans="1:10">
@@ -3108,25 +3108,25 @@
         <v>147</v>
       </c>
       <c r="D74">
-        <v>-100.7494578373271</v>
+        <v>-251.3935520688026</v>
       </c>
       <c r="E74">
-        <v>-98.12445783732706</v>
+        <v>-248.7685520688026</v>
       </c>
       <c r="F74">
-        <v>-94.09521125280847</v>
+        <v>-244.739305484284</v>
       </c>
       <c r="G74">
-        <v>2.399148803591455</v>
+        <v>0.05041053622936467</v>
       </c>
       <c r="H74">
         <v>2027</v>
       </c>
       <c r="I74">
-        <v>16.31799306393592</v>
+        <v>1.25498224778209</v>
       </c>
       <c r="J74">
-        <v>0.3560247579961242</v>
+        <v>-0.00398362038635991</v>
       </c>
     </row>
     <row r="75" spans="1:10">
@@ -3138,25 +3138,25 @@
         <v>147</v>
       </c>
       <c r="D75">
-        <v>-98.51539601728982</v>
+        <v>-250.092794535302</v>
       </c>
       <c r="E75">
-        <v>-94.90249279148337</v>
+        <v>-246.4798913094955</v>
       </c>
       <c r="F75">
-        <v>-90.19758778664158</v>
+        <v>-241.7749863046538</v>
       </c>
       <c r="G75">
-        <v>2.41359079344065</v>
+        <v>0.0495147651713529</v>
       </c>
       <c r="H75">
         <v>2027</v>
       </c>
       <c r="I75">
-        <v>16.16255696523632</v>
+        <v>1.259554099998114</v>
       </c>
       <c r="J75">
-        <v>0.3113485540906158</v>
+        <v>-0.003217969794820474</v>
       </c>
     </row>
     <row r="76" spans="1:10">
@@ -3170,25 +3170,25 @@
         <v>147</v>
       </c>
       <c r="D76">
-        <v>-114.7543659590591</v>
+        <v>-287.4819723705674</v>
       </c>
       <c r="E76">
-        <v>-112.1293659590591</v>
+        <v>-284.8569723705674</v>
       </c>
       <c r="F76">
-        <v>-108.1001193745405</v>
+        <v>-280.8277257860488</v>
       </c>
       <c r="G76">
-        <v>1.675336098594371</v>
+        <v>0.01998248410551014</v>
       </c>
       <c r="H76">
         <v>2027</v>
       </c>
       <c r="I76">
-        <v>12.98587227759576</v>
+        <v>0.1037286760043148</v>
       </c>
       <c r="J76">
-        <v>-0.006051584746186833</v>
+        <v>-0.01053471310088049</v>
       </c>
     </row>
     <row r="77" spans="1:10">
@@ -3200,25 +3200,25 @@
         <v>147</v>
       </c>
       <c r="D77">
-        <v>-113.739960441591</v>
+        <v>-285.3338634897709</v>
       </c>
       <c r="E77">
-        <v>-110.1270572157846</v>
+        <v>-281.7209602639645</v>
       </c>
       <c r="F77">
-        <v>-105.4221522109428</v>
+        <v>-277.0160552591227</v>
       </c>
       <c r="G77">
-        <v>1.633528089202362</v>
+        <v>0.02005851513700095</v>
       </c>
       <c r="H77">
         <v>2027</v>
       </c>
       <c r="I77">
-        <v>12.98851227537823</v>
+        <v>0.1321459715205622</v>
       </c>
       <c r="J77">
-        <v>-0.005284296896348906</v>
+        <v>-0.007012634599770085</v>
       </c>
     </row>
     <row r="78" spans="1:10">
@@ -3232,25 +3232,25 @@
         <v>147</v>
       </c>
       <c r="D78">
-        <v>-189.6189595389816</v>
+        <v>-200.240166536423</v>
       </c>
       <c r="E78">
-        <v>-186.9939595389816</v>
+        <v>-197.615166536423</v>
       </c>
       <c r="F78">
-        <v>-182.964712954463</v>
+        <v>-193.5859199519044</v>
       </c>
       <c r="G78">
-        <v>0.2457129823675354</v>
+        <v>0.1871341006190446</v>
       </c>
       <c r="H78">
         <v>2027</v>
       </c>
       <c r="I78">
-        <v>5.918380471781903</v>
+        <v>3.817623214219951</v>
       </c>
       <c r="J78">
-        <v>0.06852344809081146</v>
+        <v>0.066246744320277</v>
       </c>
     </row>
     <row r="79" spans="1:10">
@@ -3262,25 +3262,25 @@
         <v>147</v>
       </c>
       <c r="D79">
-        <v>-188.1739086883367</v>
+        <v>-198.5634799238366</v>
       </c>
       <c r="E79">
-        <v>-184.5610054625303</v>
+        <v>-194.9505766980301</v>
       </c>
       <c r="F79">
-        <v>-179.8561004576885</v>
+        <v>-190.2456716931883</v>
       </c>
       <c r="G79">
-        <v>0.242241376121575</v>
+        <v>0.1855891553842335</v>
       </c>
       <c r="H79">
         <v>2027</v>
       </c>
       <c r="I79">
-        <v>5.826929267927079</v>
+        <v>3.730493334934882</v>
       </c>
       <c r="J79">
-        <v>0.05445496929963056</v>
+        <v>0.05259350079558534</v>
       </c>
     </row>
     <row r="80" spans="1:10">
@@ -3294,25 +3294,25 @@
         <v>147</v>
       </c>
       <c r="D80">
-        <v>-138.3606199292285</v>
+        <v>-23.91755648516816</v>
       </c>
       <c r="E80">
-        <v>-135.7356199292285</v>
+        <v>-21.29255648516816</v>
       </c>
       <c r="F80">
-        <v>-131.70637334471</v>
+        <v>-17.26330990064957</v>
       </c>
       <c r="G80">
-        <v>0.9145942430190953</v>
+        <v>17.20435865506322</v>
       </c>
       <c r="H80">
         <v>2027</v>
       </c>
       <c r="I80">
-        <v>15.13179317727526</v>
+        <v>12.97703095058994</v>
       </c>
       <c r="J80">
-        <v>0.5370321627523875</v>
+        <v>-0.03356638272410351</v>
       </c>
     </row>
     <row r="81" spans="1:10">
@@ -3324,25 +3324,25 @@
         <v>147</v>
       </c>
       <c r="D81">
-        <v>-135.6910555999905</v>
+        <v>-22.52472286924937</v>
       </c>
       <c r="E81">
-        <v>-132.078152374184</v>
+        <v>-18.91181964344292</v>
       </c>
       <c r="F81">
-        <v>-127.3732473693422</v>
+        <v>-14.20691463860114</v>
       </c>
       <c r="G81">
-        <v>0.9304318496256579</v>
+        <v>16.93858902195151</v>
       </c>
       <c r="H81">
         <v>2027</v>
       </c>
       <c r="I81">
-        <v>14.63266001139257</v>
+        <v>12.22524518096486</v>
       </c>
       <c r="J81">
-        <v>0.4444031381862121</v>
+        <v>-0.09912781718124286</v>
       </c>
     </row>
     <row r="82" spans="1:10">
@@ -3356,25 +3356,25 @@
         <v>147</v>
       </c>
       <c r="D82">
-        <v>-404.2407465013778</v>
+        <v>-405.5837913524658</v>
       </c>
       <c r="E82">
-        <v>-401.6157465013778</v>
+        <v>-402.9587913524658</v>
       </c>
       <c r="F82">
-        <v>-397.5864999168592</v>
+        <v>-398.9295447679472</v>
       </c>
       <c r="G82">
-        <v>0.001001041916212363</v>
+        <v>0.0009671558057846758</v>
       </c>
       <c r="H82">
         <v>2027</v>
       </c>
       <c r="I82">
-        <v>0.0384652293244853</v>
+        <v>0.01410017330652021</v>
       </c>
       <c r="J82">
-        <v>0.0007456923144859642</v>
+        <v>-2.89595558013063e-05</v>
       </c>
     </row>
     <row r="83" spans="1:10">
@@ -3386,25 +3386,25 @@
         <v>147</v>
       </c>
       <c r="D83">
-        <v>-402.0624165137851</v>
+        <v>-402.1064099547721</v>
       </c>
       <c r="E83">
-        <v>-398.4495132879786</v>
+        <v>-398.4935067289657</v>
       </c>
       <c r="F83">
-        <v>-393.7446082831369</v>
+        <v>-393.7886017241239</v>
       </c>
       <c r="G83">
-        <v>0.001005629725256253</v>
+        <v>0.001004495977344759</v>
       </c>
       <c r="H83">
         <v>2027</v>
       </c>
       <c r="I83">
-        <v>0.03480915008652204</v>
+        <v>0.01801406485950467</v>
       </c>
       <c r="J83">
-        <v>0.0003464706419709571</v>
+        <v>0.0002876971129835218</v>
       </c>
     </row>
     <row r="84" spans="1:10">
@@ -3418,25 +3418,25 @@
         <v>147</v>
       </c>
       <c r="D84">
-        <v>-205.5345709264122</v>
+        <v>-15.37752950528301</v>
       </c>
       <c r="E84">
-        <v>-202.9095709264122</v>
+        <v>-12.75252950528301</v>
       </c>
       <c r="F84">
-        <v>-198.8803243418936</v>
+        <v>-8.723282920764426</v>
       </c>
       <c r="G84">
-        <v>0.1633788140008679</v>
+        <v>21.41598942998161</v>
       </c>
       <c r="H84">
         <v>2027</v>
       </c>
       <c r="I84">
-        <v>5.638844024490888</v>
+        <v>10.14954053457669</v>
       </c>
       <c r="J84">
-        <v>0.04988080641592774</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:10">
@@ -3448,25 +3448,25 @@
         <v>147</v>
       </c>
       <c r="D85">
-        <v>-203.9002467462525</v>
+        <v>-13.37752950528301</v>
       </c>
       <c r="E85">
-        <v>-200.2873435204461</v>
+        <v>-9.764626279476559</v>
       </c>
       <c r="F85">
-        <v>-195.5824385156043</v>
+        <v>-5.059721274634779</v>
       </c>
       <c r="G85">
-        <v>0.161854084060672</v>
+        <v>21.41598942998161</v>
       </c>
       <c r="H85">
         <v>2027</v>
       </c>
       <c r="I85">
-        <v>5.550934174902508</v>
+        <v>10.14954053457669</v>
       </c>
       <c r="J85">
-        <v>0.03693183124881738</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:10">
@@ -3480,25 +3480,25 @@
         <v>147</v>
       </c>
       <c r="D86">
-        <v>-424.8851329116515</v>
+        <v>-147.3576079976926</v>
       </c>
       <c r="E86">
-        <v>-422.2601329116515</v>
+        <v>-144.7326079976926</v>
       </c>
       <c r="F86">
-        <v>-418.2308863271329</v>
+        <v>-140.7033614131741</v>
       </c>
       <c r="G86">
-        <v>0.0005896053480572948</v>
+        <v>0.726173171715065</v>
       </c>
       <c r="H86">
         <v>2027</v>
       </c>
       <c r="I86">
-        <v>0.04171886416969361</v>
+        <v>6.173359690332432</v>
       </c>
       <c r="J86">
-        <v>1.386708619861843e-05</v>
+        <v>-0.0099590322825307</v>
       </c>
     </row>
     <row r="87" spans="1:10">
@@ -3510,25 +3510,25 @@
         <v>147</v>
       </c>
       <c r="D87">
-        <v>-423.831305490387</v>
+        <v>-146.1537557062976</v>
       </c>
       <c r="E87">
-        <v>-420.2184022645806</v>
+        <v>-142.5408524804911</v>
       </c>
       <c r="F87">
-        <v>-415.5134972597388</v>
+        <v>-137.8359474756493</v>
       </c>
       <c r="G87">
-        <v>0.0005754731523849103</v>
+        <v>0.7114993266183947</v>
       </c>
       <c r="H87">
         <v>2027</v>
       </c>
       <c r="I87">
-        <v>0.04235669171979685</v>
+        <v>6.186928109910034</v>
       </c>
       <c r="J87">
-        <v>5.439050933406242e-05</v>
+        <v>-0.007894647154979673</v>
       </c>
     </row>
     <row r="88" spans="1:10">
@@ -3542,25 +3542,25 @@
         <v>147</v>
       </c>
       <c r="D88">
-        <v>-88.33063000240176</v>
+        <v>-198.8967793060388</v>
       </c>
       <c r="E88">
-        <v>-85.70563000240176</v>
+        <v>-196.2717793060388</v>
       </c>
       <c r="F88">
-        <v>-81.67638341788317</v>
+        <v>-192.2425327215202</v>
       </c>
       <c r="G88">
-        <v>3.298756212827108</v>
+        <v>0.193692393834514</v>
       </c>
       <c r="H88">
         <v>2027</v>
       </c>
       <c r="I88">
-        <v>16.08067886306005</v>
+        <v>0.7690223471242058</v>
       </c>
       <c r="J88">
-        <v>0.08009522268838865</v>
+        <v>-0.00973681483104849</v>
       </c>
     </row>
     <row r="89" spans="1:10">
@@ -3572,25 +3572,25 @@
         <v>147</v>
       </c>
       <c r="D89">
-        <v>-87.29840718542816</v>
+        <v>-197.397763704214</v>
       </c>
       <c r="E89">
-        <v>-83.68550395962171</v>
+        <v>-193.7848604784076</v>
       </c>
       <c r="F89">
-        <v>-78.98059895477994</v>
+        <v>-189.0799554735658</v>
       </c>
       <c r="G89">
-        <v>3.21790553405834</v>
+        <v>0.1912201817400404</v>
       </c>
       <c r="H89">
         <v>2027</v>
       </c>
       <c r="I89">
-        <v>15.9962293244751</v>
+        <v>0.7988982773216943</v>
       </c>
       <c r="J89">
-        <v>0.06531369150372868</v>
+        <v>-0.006152336878456066</v>
       </c>
     </row>
     <row r="90" spans="1:10">
@@ -3604,25 +3604,25 @@
         <v>147</v>
       </c>
       <c r="D90">
-        <v>-218.5584385277367</v>
+        <v>-166.8626231587245</v>
       </c>
       <c r="E90">
-        <v>-215.9334385277367</v>
+        <v>-164.2376231587245</v>
       </c>
       <c r="F90">
-        <v>-211.9041919432182</v>
+        <v>-160.2083765742059</v>
       </c>
       <c r="G90">
-        <v>0.1169944144168632</v>
+        <v>0.4403896578530102</v>
       </c>
       <c r="H90">
         <v>2027</v>
       </c>
       <c r="I90">
-        <v>0.9666037483398722</v>
+        <v>16.12118241329041</v>
       </c>
       <c r="J90">
-        <v>-0.01267817749560995</v>
+        <v>0.2608862923158792</v>
       </c>
     </row>
     <row r="91" spans="1:10">
@@ -3634,25 +3634,25 @@
         <v>147</v>
       </c>
       <c r="D91">
-        <v>-217.5039430711842</v>
+        <v>-163.6850035239368</v>
       </c>
       <c r="E91">
-        <v>-213.8910398453777</v>
+        <v>-160.0721002981304</v>
       </c>
       <c r="F91">
-        <v>-209.1861348405359</v>
+        <v>-155.3671952932886</v>
       </c>
       <c r="G91">
-        <v>0.114192142187445</v>
+        <v>0.4538901898883649</v>
       </c>
       <c r="H91">
         <v>2027</v>
       </c>
       <c r="I91">
-        <v>0.9851732512002278</v>
+        <v>15.87187848119579</v>
       </c>
       <c r="J91">
-        <v>-0.009888115215605064</v>
+        <v>0.2152234553963392</v>
       </c>
     </row>
     <row r="92" spans="1:10">
@@ -3666,25 +3666,25 @@
         <v>147</v>
       </c>
       <c r="D92">
-        <v>-287.7948031833167</v>
+        <v>-202.2161491069074</v>
       </c>
       <c r="E92">
-        <v>-285.1698031833167</v>
+        <v>-199.5911491069074</v>
       </c>
       <c r="F92">
-        <v>-281.1405565987981</v>
+        <v>-195.5619025223888</v>
       </c>
       <c r="G92">
-        <v>0.01982283968209917</v>
+        <v>0.1778889102432786</v>
       </c>
       <c r="H92">
         <v>2027</v>
       </c>
       <c r="I92">
-        <v>0.06317972624730678</v>
+        <v>4.067610266677417</v>
       </c>
       <c r="J92">
-        <v>-0.009309338518802557</v>
+        <v>0.01252347949637667</v>
       </c>
     </row>
     <row r="93" spans="1:10">
@@ -3696,25 +3696,25 @@
         <v>147</v>
       </c>
       <c r="D93">
-        <v>-286.2336774923064</v>
+        <v>-201.1827748169245</v>
       </c>
       <c r="E93">
-        <v>-282.6207742664999</v>
+        <v>-197.569871591118</v>
       </c>
       <c r="F93">
-        <v>-277.9158692616581</v>
+        <v>-192.8649665862762</v>
       </c>
       <c r="G93">
-        <v>0.01960101998231037</v>
+        <v>0.1735340755709521</v>
       </c>
       <c r="H93">
         <v>2027</v>
       </c>
       <c r="I93">
-        <v>0.07778803021056348</v>
+        <v>4.05341547096594</v>
       </c>
       <c r="J93">
-        <v>-0.007221640280070718</v>
+        <v>0.01019486379523382</v>
       </c>
     </row>
     <row r="94" spans="1:10">
@@ -3728,25 +3728,25 @@
         <v>147</v>
       </c>
       <c r="D94">
-        <v>37.31833912746674</v>
+        <v>-335.1433574308651</v>
       </c>
       <c r="E94">
-        <v>39.94333912746674</v>
+        <v>-332.5183574308651</v>
       </c>
       <c r="F94">
-        <v>43.97258571198532</v>
+        <v>-328.4891108463465</v>
       </c>
       <c r="G94">
-        <v>82.70780141095145</v>
+        <v>0.005887134040469722</v>
       </c>
       <c r="H94">
         <v>2027</v>
       </c>
       <c r="I94">
-        <v>48.2394531049619</v>
+        <v>-0.02143838715459477</v>
       </c>
       <c r="J94">
-        <v>0.5016330394023498</v>
+        <v>-0.003087415037987096</v>
       </c>
     </row>
     <row r="95" spans="1:10">
@@ -3758,25 +3758,25 @@
         <v>147</v>
       </c>
       <c r="D95">
-        <v>37.94939514258284</v>
+        <v>-332.9952621382188</v>
       </c>
       <c r="E95">
-        <v>41.56229836838929</v>
+        <v>-329.3823589124123</v>
       </c>
       <c r="F95">
-        <v>46.26720337323107</v>
+        <v>-324.6774539075706</v>
       </c>
       <c r="G95">
-        <v>79.85502503642284</v>
+        <v>0.005909531842866597</v>
       </c>
       <c r="H95">
         <v>2027</v>
       </c>
       <c r="I95">
-        <v>47.00957252960937</v>
+        <v>-0.01221384330228332</v>
       </c>
       <c r="J95">
-        <v>0.3451585310002869</v>
+        <v>-0.001977492046632737</v>
       </c>
     </row>
     <row r="96" spans="1:10">
@@ -3790,25 +3790,25 @@
         <v>147</v>
       </c>
       <c r="D96">
-        <v>-472.0294080434895</v>
+        <v>66.47983503861946</v>
       </c>
       <c r="E96">
-        <v>-469.4044080434895</v>
+        <v>69.10483503861946</v>
       </c>
       <c r="F96">
-        <v>-465.3751614589709</v>
+        <v>73.13408162313803</v>
       </c>
       <c r="G96">
-        <v>0.0001760249671888112</v>
+        <v>174.6955240158508</v>
       </c>
       <c r="H96">
         <v>2027</v>
       </c>
       <c r="I96">
-        <v>0.005636805363054808</v>
+        <v>55.46761560485793</v>
       </c>
       <c r="J96">
-        <v>-0.0001305238467793693</v>
+        <v>-0.2032963402590724</v>
       </c>
     </row>
     <row r="97" spans="1:10">
@@ -3820,25 +3820,25 @@
         <v>147</v>
       </c>
       <c r="D97">
-        <v>-466.5829605272921</v>
+        <v>59.51596551966202</v>
       </c>
       <c r="E97">
-        <v>-462.9700573014857</v>
+        <v>63.12886874546847</v>
       </c>
       <c r="F97">
-        <v>-458.2651522966439</v>
+        <v>67.83377375031026</v>
       </c>
       <c r="G97">
-        <v>0.0001922883932267076</v>
+        <v>138.8232842074263</v>
       </c>
       <c r="H97">
         <v>2027</v>
       </c>
       <c r="I97">
-        <v>0.005825081237449701</v>
+        <v>54.58364209740898</v>
       </c>
       <c r="J97">
-        <v>-0.0001075691309095229</v>
+        <v>-0.2573218124558778</v>
       </c>
     </row>
     <row r="98" spans="1:10">
@@ -3852,25 +3852,25 @@
         <v>147</v>
       </c>
       <c r="D98">
-        <v>-156.2272864273068</v>
+        <v>-109.4280723564588</v>
       </c>
       <c r="E98">
-        <v>-153.6022864273068</v>
+        <v>-106.8030723564588</v>
       </c>
       <c r="F98">
-        <v>-149.5730398427882</v>
+        <v>-102.7738257719402</v>
       </c>
       <c r="G98">
-        <v>0.5784550616900137</v>
+        <v>1.920499737002233</v>
       </c>
       <c r="H98">
         <v>2027</v>
       </c>
       <c r="I98">
-        <v>1.379045636184574</v>
+        <v>2.226735570323438</v>
       </c>
       <c r="J98">
-        <v>0.01987656407036087</v>
+        <v>-0.1197072652599194</v>
       </c>
     </row>
     <row r="99" spans="1:10">
@@ -3882,25 +3882,25 @@
         <v>147</v>
       </c>
       <c r="D99">
-        <v>-156.9305799498698</v>
+        <v>143.2548241565362</v>
       </c>
       <c r="E99">
-        <v>-153.3176767240633</v>
+        <v>146.8677273823427</v>
       </c>
       <c r="F99">
-        <v>-148.6127717192215</v>
+        <v>151.5726323871844</v>
       </c>
       <c r="G99">
-        <v>0.5397173865651329</v>
+        <v>1188.386767868688</v>
       </c>
       <c r="H99">
         <v>2027</v>
       </c>
       <c r="I99">
-        <v>1.229175135644174</v>
+        <v>11.20339732419869</v>
       </c>
       <c r="J99">
-        <v>0.005265674633862405</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:10">
@@ -3914,25 +3914,25 @@
         <v>147</v>
       </c>
       <c r="D100">
-        <v>-171.663676250543</v>
+        <v>-297.0457318876101</v>
       </c>
       <c r="E100">
-        <v>-169.038676250543</v>
+        <v>-294.4207318876101</v>
       </c>
       <c r="F100">
-        <v>-165.0094296660245</v>
+        <v>-290.3914853030915</v>
       </c>
       <c r="G100">
-        <v>0.3893801032090438</v>
+        <v>0.01563686851269086</v>
       </c>
       <c r="H100">
         <v>2027</v>
       </c>
       <c r="I100">
-        <v>5.211875870290824</v>
+        <v>0.06045730824375774</v>
       </c>
       <c r="J100">
-        <v>0.3042614485920465</v>
+        <v>-0.002927863483027933</v>
       </c>
     </row>
     <row r="101" spans="1:10">
@@ -3944,25 +3944,25 @@
         <v>147</v>
       </c>
       <c r="D101">
-        <v>-169.4272239490542</v>
+        <v>-295.6124048677482</v>
       </c>
       <c r="E101">
-        <v>-165.8143207232478</v>
+        <v>-291.9995016419418</v>
       </c>
       <c r="F101">
-        <v>-161.109415718406</v>
+        <v>-287.2945966371</v>
       </c>
       <c r="G101">
-        <v>0.3917480388651964</v>
+        <v>0.01541130630482295</v>
       </c>
       <c r="H101">
         <v>2027</v>
       </c>
       <c r="I101">
-        <v>4.918115774110999</v>
+        <v>0.08785036810637245</v>
       </c>
       <c r="J101">
-        <v>0.2506651439468923</v>
+        <v>-0.000235349598189466</v>
       </c>
     </row>
     <row r="102" spans="1:10">
@@ -3976,25 +3976,25 @@
         <v>147</v>
       </c>
       <c r="D102">
-        <v>-198.3454621783987</v>
+        <v>-274.4399791068693</v>
       </c>
       <c r="E102">
-        <v>-195.7204621783987</v>
+        <v>-271.8149791068693</v>
       </c>
       <c r="F102">
-        <v>-191.6912155938801</v>
+        <v>-267.7857325223507</v>
       </c>
       <c r="G102">
-        <v>0.1964499395880406</v>
+        <v>0.02791784747576255</v>
       </c>
       <c r="H102">
         <v>2027</v>
       </c>
       <c r="I102">
-        <v>1.292814567117756</v>
+        <v>0.1989651453076803</v>
       </c>
       <c r="J102">
-        <v>0.02752988279848645</v>
+        <v>-0.01103583558905141</v>
       </c>
     </row>
     <row r="103" spans="1:10">
@@ -4006,25 +4006,25 @@
         <v>147</v>
       </c>
       <c r="D103">
-        <v>-197.1156491144976</v>
+        <v>-272.9762885716339</v>
       </c>
       <c r="E103">
-        <v>-193.5027458886911</v>
+        <v>-269.3633853458275</v>
       </c>
       <c r="F103">
-        <v>-188.7978408838493</v>
+        <v>-264.6584803409857</v>
       </c>
       <c r="G103">
-        <v>0.192608427617955</v>
+        <v>0.02753656214147686</v>
       </c>
       <c r="H103">
         <v>2027</v>
       </c>
       <c r="I103">
-        <v>1.262226384091027</v>
+        <v>0.213078072687386</v>
       </c>
       <c r="J103">
-        <v>0.02237720884728067</v>
+        <v>-0.00882293864787731</v>
       </c>
     </row>
     <row r="104" spans="1:10">
@@ -4038,25 +4038,25 @@
         <v>147</v>
       </c>
       <c r="D104">
-        <v>-170.3436263052847</v>
+        <v>-472.0294080434895</v>
       </c>
       <c r="E104">
-        <v>-167.7186263052847</v>
+        <v>-469.4044080434895</v>
       </c>
       <c r="F104">
-        <v>-163.6893797207661</v>
+        <v>-465.3751614589709</v>
       </c>
       <c r="G104">
-        <v>0.4027852051296733</v>
+        <v>0.0001760249671888112</v>
       </c>
       <c r="H104">
         <v>2027</v>
       </c>
       <c r="I104">
-        <v>1.413589697341784</v>
+        <v>0.005636805363054808</v>
       </c>
       <c r="J104">
-        <v>0.004615409611353982</v>
+        <v>-0.0001305238467793693</v>
       </c>
     </row>
     <row r="105" spans="1:10">
@@ -4068,25 +4068,25 @@
         <v>147</v>
       </c>
       <c r="D105">
-        <v>-168.9230879700486</v>
+        <v>-466.5829605272921</v>
       </c>
       <c r="E105">
-        <v>-165.3101847442421</v>
+        <v>-462.9700573014857</v>
       </c>
       <c r="F105">
-        <v>-160.6052797394003</v>
+        <v>-458.2651522966439</v>
       </c>
       <c r="G105">
-        <v>0.3968448660496024</v>
+        <v>0.0001922883932267076</v>
       </c>
       <c r="H105">
         <v>2027</v>
       </c>
       <c r="I105">
-        <v>1.41642634231147</v>
+        <v>0.005825081237449701</v>
       </c>
       <c r="J105">
-        <v>0.004465811785361762</v>
+        <v>-0.0001075691309095229</v>
       </c>
     </row>
     <row r="106" spans="1:10">
@@ -4100,25 +4100,25 @@
         <v>147</v>
       </c>
       <c r="D106">
-        <v>-329.7919899711303</v>
+        <v>-218.5986751133437</v>
       </c>
       <c r="E106">
-        <v>-327.1669899711303</v>
+        <v>-215.9736751133437</v>
       </c>
       <c r="F106">
-        <v>-323.1377433866117</v>
+        <v>-211.9444285288251</v>
       </c>
       <c r="G106">
-        <v>0.006752979729795128</v>
+        <v>0.1168737726669189</v>
       </c>
       <c r="H106">
         <v>2027</v>
       </c>
       <c r="I106">
-        <v>0.07373662357967931</v>
+        <v>4.522147503338784</v>
       </c>
       <c r="J106">
-        <v>0</v>
+        <v>0.1123838568974005</v>
       </c>
     </row>
     <row r="107" spans="1:10">
@@ -4130,25 +4130,25 @@
         <v>147</v>
       </c>
       <c r="D107">
-        <v>-327.7919981995943</v>
+        <v>-216.9001172481607</v>
       </c>
       <c r="E107">
-        <v>-324.1790949737879</v>
+        <v>-213.2872140223542</v>
       </c>
       <c r="F107">
-        <v>-319.4741899689461</v>
+        <v>-208.5823090175125</v>
       </c>
       <c r="G107">
-        <v>0.006752978305009352</v>
+        <v>0.1159739040602351</v>
       </c>
       <c r="H107">
         <v>2027</v>
       </c>
       <c r="I107">
-        <v>0.07372923775264487</v>
+        <v>4.390142564894566</v>
       </c>
       <c r="J107">
-        <v>0</v>
+        <v>0.09059818962693544</v>
       </c>
     </row>
     <row r="108" spans="1:10">
@@ -4162,25 +4162,25 @@
         <v>147</v>
       </c>
       <c r="D108">
-        <v>-82.78332075874729</v>
+        <v>-203.0499542633734</v>
       </c>
       <c r="E108">
-        <v>-80.15832075874729</v>
+        <v>-200.4249542633734</v>
       </c>
       <c r="F108">
-        <v>-76.12907417422871</v>
+        <v>-196.3957076788548</v>
       </c>
       <c r="G108">
-        <v>3.802977036912733</v>
+        <v>0.1741260803109589</v>
       </c>
       <c r="H108">
         <v>2027</v>
       </c>
       <c r="I108">
-        <v>0.08203443186767372</v>
+        <v>1.630113616175875</v>
       </c>
       <c r="J108">
-        <v>0</v>
+        <v>-0.08449568166402832</v>
       </c>
     </row>
     <row r="109" spans="1:10">
@@ -4192,25 +4192,25 @@
         <v>147</v>
       </c>
       <c r="D109">
-        <v>-80.78332075922751</v>
+        <v>-201.381248950442</v>
       </c>
       <c r="E109">
-        <v>-77.17041753342106</v>
+        <v>-197.7683457246356</v>
       </c>
       <c r="F109">
-        <v>-72.46551252857927</v>
+        <v>-193.0634407197938</v>
       </c>
       <c r="G109">
-        <v>3.802977036865905</v>
+        <v>0.1726531900672012</v>
       </c>
       <c r="H109">
         <v>2027</v>
       </c>
       <c r="I109">
-        <v>0.08203443655632216</v>
+        <v>1.752903975164403</v>
       </c>
       <c r="J109">
-        <v>0</v>
+        <v>-0.06583616244164836</v>
       </c>
     </row>
     <row r="110" spans="1:10">
@@ -4224,25 +4224,25 @@
         <v>147</v>
       </c>
       <c r="D110">
-        <v>-82.50262263452552</v>
+        <v>-196.6685963582157</v>
       </c>
       <c r="E110">
-        <v>-79.87762263452552</v>
+        <v>-194.0435963582157</v>
       </c>
       <c r="F110">
-        <v>-75.84837605000693</v>
+        <v>-190.0143497736971</v>
       </c>
       <c r="G110">
-        <v>3.83044727584004</v>
+        <v>0.2050808307935903</v>
       </c>
       <c r="H110">
         <v>2027</v>
       </c>
       <c r="I110">
-        <v>2.58916389285674</v>
+        <v>9.924404030050681</v>
       </c>
       <c r="J110">
-        <v>0.02904464037229726</v>
+        <v>0.156246611223942</v>
       </c>
     </row>
     <row r="111" spans="1:10">
@@ -4254,25 +4254,25 @@
         <v>147</v>
       </c>
       <c r="D111">
-        <v>-80.85998997668659</v>
+        <v>-194.5389503469851</v>
       </c>
       <c r="E111">
-        <v>-77.24708675088014</v>
+        <v>-190.9260471211786</v>
       </c>
       <c r="F111">
-        <v>-72.54218174603835</v>
+        <v>-186.2211421163369</v>
       </c>
       <c r="G111">
-        <v>3.795508194187455</v>
+        <v>0.205763706517278</v>
       </c>
       <c r="H111">
         <v>2027</v>
       </c>
       <c r="I111">
-        <v>2.499887439974308</v>
+        <v>9.670553860135481</v>
       </c>
       <c r="J111">
-        <v>0.01889530201461653</v>
+        <v>0.1189505800772359</v>
       </c>
     </row>
     <row r="112" spans="1:10">
@@ -4286,25 +4286,25 @@
         <v>147</v>
       </c>
       <c r="D112">
-        <v>-516.8605858316959</v>
+        <v>-156.2272864273068</v>
       </c>
       <c r="E112">
-        <v>-514.2355858316959</v>
+        <v>-153.6022864273068</v>
       </c>
       <c r="F112">
-        <v>-510.2063392471773</v>
+        <v>-149.5730398427882</v>
       </c>
       <c r="G112">
-        <v>5.576288277548297e-05</v>
+        <v>0.5784550616900137</v>
       </c>
       <c r="H112">
         <v>2027</v>
       </c>
       <c r="I112">
-        <v>0.001752236074471707</v>
+        <v>1.379045636184574</v>
       </c>
       <c r="J112">
-        <v>-3.465386795337318e-08</v>
+        <v>0.01987656407036087</v>
       </c>
     </row>
     <row r="113" spans="1:10">
@@ -4316,25 +4316,25 @@
         <v>147</v>
       </c>
       <c r="D113">
-        <v>-514.5152475683547</v>
+        <v>-156.9305799498698</v>
       </c>
       <c r="E113">
-        <v>-510.9023443425482</v>
+        <v>-153.3176767240633</v>
       </c>
       <c r="F113">
-        <v>-506.1974393377064</v>
+        <v>-148.6127717192215</v>
       </c>
       <c r="G113">
-        <v>5.62588460642748e-05</v>
+        <v>0.5397173865651329</v>
       </c>
       <c r="H113">
         <v>2027</v>
       </c>
       <c r="I113">
-        <v>0.001748220495152877</v>
+        <v>1.229175135644174</v>
       </c>
       <c r="J113">
-        <v>-6.654310914593585e-07</v>
+        <v>0.005265674633862405</v>
       </c>
     </row>
     <row r="114" spans="1:10">
@@ -4348,25 +4348,25 @@
         <v>147</v>
       </c>
       <c r="D114">
-        <v>-352.6517952103626</v>
+        <v>-63.37888109965539</v>
       </c>
       <c r="E114">
-        <v>-350.0267952103626</v>
+        <v>-60.75388109965539</v>
       </c>
       <c r="F114">
-        <v>-345.997548625844</v>
+        <v>-56.7246345151368</v>
       </c>
       <c r="G114">
-        <v>0.003757804948513525</v>
+        <v>6.254704656548817</v>
       </c>
       <c r="H114">
         <v>2027</v>
       </c>
       <c r="I114">
-        <v>0.02402761104978444</v>
+        <v>24.65799565571785</v>
       </c>
       <c r="J114">
-        <v>0.0004479257752141794</v>
+        <v>0.2297375216333748</v>
       </c>
     </row>
     <row r="115" spans="1:10">
@@ -4378,25 +4378,25 @@
         <v>147</v>
       </c>
       <c r="D115">
-        <v>-350.6675467352089</v>
+        <v>-62.19169347650902</v>
       </c>
       <c r="E115">
-        <v>-347.0546435094024</v>
+        <v>-58.57879025070257</v>
       </c>
       <c r="F115">
-        <v>-342.3497385045607</v>
+        <v>-53.87388524586078</v>
       </c>
       <c r="G115">
-        <v>0.003756287532964684</v>
+        <v>6.125697225147068</v>
       </c>
       <c r="H115">
         <v>2027</v>
       </c>
       <c r="I115">
-        <v>0.02222872514427589</v>
+        <v>24.3264030947379</v>
       </c>
       <c r="J115">
-        <v>0.000249060257429632</v>
+        <v>0.1793824187840052</v>
       </c>
     </row>
     <row r="116" spans="1:10">
@@ -4410,25 +4410,25 @@
         <v>147</v>
       </c>
       <c r="D116">
-        <v>-99.40203554273869</v>
+        <v>-176.590563692964</v>
       </c>
       <c r="E116">
-        <v>-96.77703554273869</v>
+        <v>-173.965563692964</v>
       </c>
       <c r="F116">
-        <v>-92.7477889582201</v>
+        <v>-169.9363171084455</v>
       </c>
       <c r="G116">
-        <v>2.483486200010321</v>
+        <v>0.3431698617586003</v>
       </c>
       <c r="H116">
         <v>2027</v>
       </c>
       <c r="I116">
-        <v>15.76411149256888</v>
+        <v>7.184656203271588</v>
       </c>
       <c r="J116">
-        <v>0.2908251958255548</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117" spans="1:10">
@@ -4440,25 +4440,25 @@
         <v>147</v>
       </c>
       <c r="D117">
-        <v>-97.8071102230607</v>
+        <v>-174.6413829207823</v>
       </c>
       <c r="E117">
-        <v>-94.19420699725426</v>
+        <v>-171.0284796949759</v>
       </c>
       <c r="F117">
-        <v>-89.48930199241246</v>
+        <v>-166.3235746901341</v>
       </c>
       <c r="G117">
-        <v>2.457824892102404</v>
+        <v>0.3427229830431279</v>
       </c>
       <c r="H117">
         <v>2027</v>
       </c>
       <c r="I117">
-        <v>15.33848665515385</v>
+        <v>7.201699075891063</v>
       </c>
       <c r="J117">
-        <v>0.2263069553504771</v>
+        <v>0.001519146829511264</v>
       </c>
     </row>
     <row r="118" spans="1:10">
@@ -4472,25 +4472,25 @@
         <v>147</v>
       </c>
       <c r="D118">
-        <v>6.874039861580744</v>
+        <v>-182.6230589503971</v>
       </c>
       <c r="E118">
-        <v>9.499039861580744</v>
+        <v>-179.9980589503971</v>
       </c>
       <c r="F118">
-        <v>13.52828644609933</v>
+        <v>-175.9688123658786</v>
       </c>
       <c r="G118">
-        <v>37.89013823506499</v>
+        <v>0.2939901263096393</v>
       </c>
       <c r="H118">
         <v>2027</v>
       </c>
       <c r="I118">
-        <v>12.18170367010146</v>
+        <v>3.127528147219756</v>
       </c>
       <c r="J118">
-        <v>-0.2907749901125936</v>
+        <v>-0.03342867261193661</v>
       </c>
     </row>
     <row r="119" spans="1:10">
@@ -4502,25 +4502,25 @@
         <v>147</v>
       </c>
       <c r="D119">
-        <v>7.937926836268371</v>
+        <v>-181.1404900781677</v>
       </c>
       <c r="E119">
-        <v>11.55083006207482</v>
+        <v>-177.5275868523612</v>
       </c>
       <c r="F119">
-        <v>16.2557350669166</v>
+        <v>-172.8226818475194</v>
       </c>
       <c r="G119">
-        <v>36.99149329500102</v>
+        <v>0.2901153834976077</v>
       </c>
       <c r="H119">
         <v>2027</v>
       </c>
       <c r="I119">
-        <v>12.63565264616476</v>
+        <v>3.17089340544981</v>
       </c>
       <c r="J119">
-        <v>-0.2245217128023835</v>
+        <v>-0.02665876490268593</v>
       </c>
     </row>
     <row r="120" spans="1:10">
@@ -4534,25 +4534,25 @@
         <v>147</v>
       </c>
       <c r="D120">
-        <v>-297.5888505396713</v>
+        <v>-34.49846174723722</v>
       </c>
       <c r="E120">
-        <v>-294.9638505396713</v>
+        <v>-31.87346174723722</v>
       </c>
       <c r="F120">
-        <v>-290.9346039551527</v>
+        <v>-27.84421516271864</v>
       </c>
       <c r="G120">
-        <v>0.01542061688446357</v>
+        <v>13.11632317936469</v>
       </c>
       <c r="H120">
         <v>2027</v>
       </c>
       <c r="I120">
-        <v>0.08616715344620654</v>
+        <v>30.40679253999536</v>
       </c>
       <c r="J120">
-        <v>-0.00178088380214797</v>
+        <v>-1.454593629647711</v>
       </c>
     </row>
     <row r="121" spans="1:10">
@@ -4564,25 +4564,25 @@
         <v>147</v>
       </c>
       <c r="D121">
-        <v>-295.7022065551022</v>
+        <v>-37.20281359701251</v>
       </c>
       <c r="E121">
-        <v>-292.0893033292958</v>
+        <v>-33.58991037120607</v>
       </c>
       <c r="F121">
-        <v>-287.384398324454</v>
+        <v>-28.88500536636428</v>
       </c>
       <c r="G121">
-        <v>0.01537586094141259</v>
+        <v>11.62587354562668</v>
       </c>
       <c r="H121">
         <v>2027</v>
       </c>
       <c r="I121">
-        <v>0.09430049542491656</v>
+        <v>32.17315547919556</v>
       </c>
       <c r="J121">
-        <v>-0.0008678941505800009</v>
+        <v>-1.16820091798094</v>
       </c>
     </row>
     <row r="122" spans="1:10">
@@ -4596,25 +4596,25 @@
         <v>147</v>
       </c>
       <c r="D122">
-        <v>-180.9834244273758</v>
+        <v>-329.7919899711303</v>
       </c>
       <c r="E122">
-        <v>-178.3584244273758</v>
+        <v>-327.1669899711303</v>
       </c>
       <c r="F122">
-        <v>-174.3291778428572</v>
+        <v>-323.1377433866117</v>
       </c>
       <c r="G122">
-        <v>0.3066135296989191</v>
+        <v>0.006752979729795128</v>
       </c>
       <c r="H122">
         <v>2027</v>
       </c>
       <c r="I122">
-        <v>1.769517292882476</v>
+        <v>0.07373662357967931</v>
       </c>
       <c r="J122">
-        <v>0.007296382804473867</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123" spans="1:10">
@@ -4626,25 +4626,25 @@
         <v>147</v>
       </c>
       <c r="D123">
-        <v>-178.7376925622271</v>
+        <v>-327.7919981995943</v>
       </c>
       <c r="E123">
-        <v>-175.1247893364206</v>
+        <v>-324.1790949737879</v>
       </c>
       <c r="F123">
-        <v>-170.4198843315789</v>
+        <v>-319.4741899689461</v>
       </c>
       <c r="G123">
-        <v>0.3085515445831442</v>
+        <v>0.006752978305009352</v>
       </c>
       <c r="H123">
         <v>2027</v>
       </c>
       <c r="I123">
-        <v>1.705169203568115</v>
+        <v>0.07372923775264487</v>
       </c>
       <c r="J123">
-        <v>0.0007853783533575687</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124" spans="1:10">
@@ -4658,25 +4658,25 @@
         <v>147</v>
       </c>
       <c r="D124">
-        <v>-516.6787954796297</v>
+        <v>-256.538619464124</v>
       </c>
       <c r="E124">
-        <v>-513.9691180602748</v>
+        <v>-253.913619464124</v>
       </c>
       <c r="F124">
-        <v>-510.1284508407242</v>
+        <v>-249.8843728796054</v>
       </c>
       <c r="G124">
-        <v>3.831187860870462e-05</v>
+        <v>0.04418014148220044</v>
       </c>
       <c r="H124">
-        <v>2026</v>
+        <v>2027</v>
       </c>
       <c r="I124">
-        <v>-0.0006298933807167012</v>
+        <v>1.049173630247728</v>
       </c>
       <c r="J124">
-        <v>-0.0001172191258699208</v>
+        <v>-0.01033093952118147</v>
       </c>
     </row>
     <row r="125" spans="1:10">
@@ -4688,25 +4688,25 @@
         <v>147</v>
       </c>
       <c r="D125">
-        <v>-515.9414769991563</v>
+        <v>-254.9320829692666</v>
       </c>
       <c r="E125">
-        <v>-512.2081436658229</v>
+        <v>-251.3191797434601</v>
       </c>
       <c r="F125">
-        <v>-507.7535462005243</v>
+        <v>-246.6142747386183</v>
       </c>
       <c r="G125">
-        <v>3.705975216745697e-05</v>
+        <v>0.04373665739961029</v>
       </c>
       <c r="H125">
-        <v>2026</v>
+        <v>2027</v>
       </c>
       <c r="I125">
-        <v>-0.0001892199688633255</v>
+        <v>1.082524818890904</v>
       </c>
       <c r="J125">
-        <v>-7.375966647006908e-05</v>
+        <v>-0.00660163482613596</v>
       </c>
     </row>
     <row r="126" spans="1:10">
@@ -4720,25 +4720,25 @@
         <v>147</v>
       </c>
       <c r="D126">
-        <v>-334.5963305137898</v>
+        <v>-290.0626893108088</v>
       </c>
       <c r="E126">
-        <v>-331.9713305137898</v>
+        <v>-287.4376893108088</v>
       </c>
       <c r="F126">
-        <v>-327.9420839292712</v>
+        <v>-283.4084427262902</v>
       </c>
       <c r="G126">
-        <v>0.005970290760897229</v>
+        <v>0.01870299863579224</v>
       </c>
       <c r="H126">
         <v>2027</v>
       </c>
       <c r="I126">
-        <v>0.1942939367131452</v>
+        <v>0.2800940546138853</v>
       </c>
       <c r="J126">
-        <v>0.001216459061092634</v>
+        <v>-0.0007391547917512953</v>
       </c>
     </row>
     <row r="127" spans="1:10">
@@ -4750,25 +4750,25 @@
         <v>147</v>
       </c>
       <c r="D127">
-        <v>-327.0121882115511</v>
+        <v>-288.1639375733822</v>
       </c>
       <c r="E127">
-        <v>-323.3992849857447</v>
+        <v>-284.5510343475757</v>
       </c>
       <c r="F127">
-        <v>-318.6943799809029</v>
+        <v>-279.8461293427339</v>
       </c>
       <c r="G127">
-        <v>0.006889363950180257</v>
+        <v>0.01865450657973099</v>
       </c>
       <c r="H127">
         <v>2027</v>
       </c>
       <c r="I127">
-        <v>0.2328573113941387</v>
+        <v>0.2802829947174547</v>
       </c>
       <c r="J127">
-        <v>0.004583371689932864</v>
+        <v>-0.0006086243972948657</v>
       </c>
     </row>
     <row r="128" spans="1:10">
@@ -4782,25 +4782,25 @@
         <v>147</v>
       </c>
       <c r="D128">
-        <v>-136.3800788685717</v>
+        <v>-195.272542839798</v>
       </c>
       <c r="E128">
-        <v>-133.7550788685717</v>
+        <v>-192.647542839798</v>
       </c>
       <c r="F128">
-        <v>-129.7258322840531</v>
+        <v>-188.6182962552795</v>
       </c>
       <c r="G128">
-        <v>0.9622397315247507</v>
+        <v>0.2125549285039893</v>
       </c>
       <c r="H128">
         <v>2027</v>
       </c>
       <c r="I128">
-        <v>8.658453615958839</v>
+        <v>5.084575297254177</v>
       </c>
       <c r="J128">
-        <v>0.149428553500579</v>
+        <v>0.3713148527903796</v>
       </c>
     </row>
     <row r="129" spans="1:10">
@@ -4812,25 +4812,25 @@
         <v>147</v>
       </c>
       <c r="D129">
-        <v>-134.2534539857723</v>
+        <v>-193.5108742131209</v>
       </c>
       <c r="E129">
-        <v>-130.6405507599658</v>
+        <v>-189.8979709873144</v>
       </c>
       <c r="F129">
-        <v>-125.935645755124</v>
+        <v>-185.1930659824727</v>
       </c>
       <c r="G129">
-        <v>0.9653690009531258</v>
+        <v>0.2112599532673053</v>
       </c>
       <c r="H129">
         <v>2027</v>
       </c>
       <c r="I129">
-        <v>8.431739505279982</v>
+        <v>4.724594459625598</v>
       </c>
       <c r="J129">
-        <v>0.1158959602184115</v>
+        <v>0.3056621610211288</v>
       </c>
     </row>
     <row r="130" spans="1:10">
@@ -4844,25 +4844,25 @@
         <v>147</v>
       </c>
       <c r="D130">
-        <v>-134.301458698212</v>
+        <v>-16.07611456144504</v>
       </c>
       <c r="E130">
-        <v>-131.676458698212</v>
+        <v>-13.45111456144504</v>
       </c>
       <c r="F130">
-        <v>-127.6472121136934</v>
+        <v>-9.421867976926453</v>
       </c>
       <c r="G130">
-        <v>1.014916451074507</v>
+        <v>21.03579215685383</v>
       </c>
       <c r="H130">
         <v>2027</v>
       </c>
       <c r="I130">
-        <v>9.176802021522509</v>
+        <v>32.41063424866112</v>
       </c>
       <c r="J130">
-        <v>0.1866537873021912</v>
+        <v>0.7681663576875835</v>
       </c>
     </row>
     <row r="131" spans="1:10">
@@ -4874,25 +4874,25 @@
         <v>147</v>
       </c>
       <c r="D131">
-        <v>-132.7814464913113</v>
+        <v>-14.73229962973388</v>
       </c>
       <c r="E131">
-        <v>-129.1685432655048</v>
+        <v>-11.11939640392742</v>
       </c>
       <c r="F131">
-        <v>-124.463638260663</v>
+        <v>-6.414491399085644</v>
       </c>
       <c r="G131">
-        <v>1.002502040475154</v>
+        <v>20.68482039806983</v>
       </c>
       <c r="H131">
         <v>2027</v>
       </c>
       <c r="I131">
-        <v>8.943072277851767</v>
+        <v>31.27677293667153</v>
       </c>
       <c r="J131">
-        <v>0.1490950696722262</v>
+        <v>0.5968730391947403</v>
       </c>
     </row>
     <row r="132" spans="1:10">
@@ -4906,25 +4906,25 @@
         <v>147</v>
       </c>
       <c r="D132">
-        <v>-360.0825828652657</v>
+        <v>-103.9071844375713</v>
       </c>
       <c r="E132">
-        <v>-356.9714717541547</v>
+        <v>-101.2821844375713</v>
       </c>
       <c r="F132">
-        <v>-353.9771407668011</v>
+        <v>-97.25293785305273</v>
       </c>
       <c r="G132">
-        <v>0.0006758105349482839</v>
+        <v>2.212552132979413</v>
       </c>
       <c r="H132">
-        <v>2022</v>
+        <v>2027</v>
       </c>
       <c r="I132">
-        <v>0.0006371170910354949</v>
+        <v>17.22021378784453</v>
       </c>
       <c r="J132">
-        <v>0</v>
+        <v>-0.04953726253380708</v>
       </c>
     </row>
     <row r="133" spans="1:10">
@@ -4936,25 +4936,25 @@
         <v>147</v>
       </c>
       <c r="D133">
-        <v>-358.0825828652657</v>
+        <v>-102.7183860761171</v>
       </c>
       <c r="E133">
-        <v>-353.7748905575734</v>
+        <v>-99.10548285031065</v>
       </c>
       <c r="F133">
-        <v>-350.4507802421849</v>
+        <v>-94.40057784546886</v>
       </c>
       <c r="G133">
-        <v>0.0006758105349482838</v>
+        <v>2.167006275603551</v>
       </c>
       <c r="H133">
-        <v>2022</v>
+        <v>2027</v>
       </c>
       <c r="I133">
-        <v>0.0006371170910354949</v>
+        <v>17.28125249476778</v>
       </c>
       <c r="J133">
-        <v>0</v>
+        <v>-0.0397419258605396</v>
       </c>
     </row>
     <row r="134" spans="1:10">
@@ -4968,25 +4968,25 @@
         <v>147</v>
       </c>
       <c r="D134">
-        <v>-322.3938807199058</v>
+        <v>-383.1456535863544</v>
       </c>
       <c r="E134">
-        <v>-319.7688807199058</v>
+        <v>-380.5206535863544</v>
       </c>
       <c r="F134">
-        <v>-315.7396341353872</v>
+        <v>-376.4914070018358</v>
       </c>
       <c r="G134">
-        <v>0.008163548649303824</v>
+        <v>0.001719341196442568</v>
       </c>
       <c r="H134">
         <v>2027</v>
       </c>
       <c r="I134">
-        <v>0.07956306702184537</v>
+        <v>0.04326729262355094</v>
       </c>
       <c r="J134">
-        <v>0.0005448077304074095</v>
+        <v>-0.0007941234130424274</v>
       </c>
     </row>
     <row r="135" spans="1:10">
@@ -4998,25 +4998,25 @@
         <v>147</v>
       </c>
       <c r="D135">
-        <v>-321.0602981135594</v>
+        <v>-381.3143892332599</v>
       </c>
       <c r="E135">
-        <v>-317.4473948877529</v>
+        <v>-377.7014860074535</v>
       </c>
       <c r="F135">
-        <v>-312.7424898829112</v>
+        <v>-372.9965810026117</v>
       </c>
       <c r="G135">
-        <v>0.008025238052639409</v>
+        <v>0.001711918441166968</v>
       </c>
       <c r="H135">
         <v>2027</v>
       </c>
       <c r="I135">
-        <v>0.0797565928122079</v>
+        <v>0.04594905828516959</v>
       </c>
       <c r="J135">
-        <v>0.0005070145460214642</v>
+        <v>-0.0004850827174488273</v>
       </c>
     </row>
     <row r="136" spans="1:10">
@@ -5030,25 +5030,25 @@
         <v>147</v>
       </c>
       <c r="D136">
-        <v>-202.2161491069074</v>
+        <v>-189.8709265935688</v>
       </c>
       <c r="E136">
-        <v>-199.5911491069074</v>
+        <v>-187.2459265935688</v>
       </c>
       <c r="F136">
-        <v>-195.5619025223888</v>
+        <v>-183.2166800090502</v>
       </c>
       <c r="G136">
-        <v>0.1778889102432786</v>
+        <v>0.2441306231217902</v>
       </c>
       <c r="H136">
         <v>2027</v>
       </c>
       <c r="I136">
-        <v>4.067610266677417</v>
+        <v>1.390923192346585</v>
       </c>
       <c r="J136">
-        <v>0.01252347949637667</v>
+        <v>-0.007140115808502934</v>
       </c>
     </row>
     <row r="137" spans="1:10">
@@ -5060,25 +5060,25 @@
         <v>147</v>
       </c>
       <c r="D137">
-        <v>-201.1827748169245</v>
+        <v>-187.9799381855143</v>
       </c>
       <c r="E137">
-        <v>-197.569871591118</v>
+        <v>-184.3670349597078</v>
       </c>
       <c r="F137">
-        <v>-192.8649665862762</v>
+        <v>-179.6621299548661</v>
       </c>
       <c r="G137">
-        <v>0.1735340755709521</v>
+        <v>0.2434491895708159</v>
       </c>
       <c r="H137">
         <v>2027</v>
       </c>
       <c r="I137">
-        <v>4.05341547096594</v>
+        <v>1.420138862642554</v>
       </c>
       <c r="J137">
-        <v>0.01019486379523382</v>
+        <v>-0.003879062138805622</v>
       </c>
     </row>
     <row r="138" spans="1:10">
@@ -5092,25 +5092,25 @@
         <v>147</v>
       </c>
       <c r="D138">
-        <v>-132.1634026493849</v>
+        <v>-181.4521393474482</v>
       </c>
       <c r="E138">
-        <v>-129.5384026493849</v>
+        <v>-178.8271393474482</v>
       </c>
       <c r="F138">
-        <v>-125.5091560648663</v>
+        <v>-174.7978927629296</v>
       </c>
       <c r="G138">
-        <v>1.072109544930895</v>
+        <v>0.3029506019518575</v>
       </c>
       <c r="H138">
         <v>2027</v>
       </c>
       <c r="I138">
-        <v>0.9816315130114979</v>
+        <v>6.452653569540107</v>
       </c>
       <c r="J138">
-        <v>-0.1734635714014543</v>
+        <v>0.4143059164843867</v>
       </c>
     </row>
     <row r="139" spans="1:10">
@@ -5122,25 +5122,25 @@
         <v>147</v>
       </c>
       <c r="D139">
-        <v>-130.7930004944513</v>
+        <v>-179.0570286223024</v>
       </c>
       <c r="E139">
-        <v>-127.1800972686448</v>
+        <v>-175.4441253964959</v>
       </c>
       <c r="F139">
-        <v>-122.4751922638031</v>
+        <v>-170.7392203916541</v>
       </c>
       <c r="G139">
-        <v>1.054940861993563</v>
+        <v>0.306035407667858</v>
       </c>
       <c r="H139">
         <v>2027</v>
       </c>
       <c r="I139">
-        <v>1.181384621961399</v>
+        <v>5.999586188700391</v>
       </c>
       <c r="J139">
-        <v>-0.1400211329717003</v>
+        <v>0.336567536458638</v>
       </c>
     </row>
     <row r="140" spans="1:10">
@@ -5154,25 +5154,25 @@
         <v>147</v>
       </c>
       <c r="D140">
-        <v>32.882130050154</v>
+        <v>-521.7485841581572</v>
       </c>
       <c r="E140">
-        <v>35.507130050154</v>
+        <v>-519.1235841581572</v>
       </c>
       <c r="F140">
-        <v>39.53637663467259</v>
+        <v>-515.0943375736387</v>
       </c>
       <c r="G140">
-        <v>73.81522275650669</v>
+        <v>4.919417264937551e-05</v>
       </c>
       <c r="H140">
         <v>2027</v>
       </c>
       <c r="I140">
-        <v>178.0715716901044</v>
+        <v>0.002504900861622398</v>
       </c>
       <c r="J140">
-        <v>-0.649696215559004</v>
+        <v>7.831434895300138e-07</v>
       </c>
     </row>
     <row r="141" spans="1:10">
@@ -5184,25 +5184,25 @@
         <v>147</v>
       </c>
       <c r="D141">
-        <v>33.76554806863953</v>
+        <v>-518.3087164504325</v>
       </c>
       <c r="E141">
-        <v>37.37845129444598</v>
+        <v>-514.695813224626</v>
       </c>
       <c r="F141">
-        <v>42.08335629928777</v>
+        <v>-509.9909082197843</v>
       </c>
       <c r="G141">
-        <v>71.73183655484182</v>
+        <v>5.104434982305036e-05</v>
       </c>
       <c r="H141">
         <v>2027</v>
       </c>
       <c r="I141">
-        <v>178.7568327374399</v>
+        <v>0.00254327404247276</v>
       </c>
       <c r="J141">
-        <v>-0.5297879937673144</v>
+        <v>4.181360482087993e-06</v>
       </c>
     </row>
     <row r="142" spans="1:10">
@@ -5216,25 +5216,25 @@
         <v>147</v>
       </c>
       <c r="D142">
-        <v>63.441475048767</v>
+        <v>-281.8085708824839</v>
       </c>
       <c r="E142">
-        <v>66.066475048767</v>
+        <v>-279.1835708824839</v>
       </c>
       <c r="F142">
-        <v>70.09572163328559</v>
+        <v>-275.1543242979653</v>
       </c>
       <c r="G142">
-        <v>161.6022274038006</v>
+        <v>0.0231114445088562</v>
       </c>
       <c r="H142">
         <v>2027</v>
       </c>
       <c r="I142">
-        <v>81.42374004593145</v>
+        <v>0.1340387257390481</v>
       </c>
       <c r="J142">
-        <v>1.271086861654325</v>
+        <v>-0.002622202501109644</v>
       </c>
     </row>
     <row r="143" spans="1:10">
@@ -5246,25 +5246,25 @@
         <v>147</v>
       </c>
       <c r="D143">
-        <v>64.30997070519317</v>
+        <v>-280.4306604882694</v>
       </c>
       <c r="E143">
-        <v>67.92287393099961</v>
+        <v>-276.817757262463</v>
       </c>
       <c r="F143">
-        <v>72.62777893584139</v>
+        <v>-272.1128522576212</v>
       </c>
       <c r="G143">
-        <v>156.9810343204821</v>
+        <v>0.02274571810669742</v>
       </c>
       <c r="H143">
         <v>2027</v>
       </c>
       <c r="I143">
-        <v>78.85064823815034</v>
+        <v>0.1400155115248007</v>
       </c>
       <c r="J143">
-        <v>0.9241216227577809</v>
+        <v>-0.001845479899485858</v>
       </c>
     </row>
     <row r="144" spans="1:10">
@@ -5278,25 +5278,25 @@
         <v>147</v>
       </c>
       <c r="D144">
-        <v>-25.6049942661639</v>
+        <v>-150.4986549193531</v>
       </c>
       <c r="E144">
-        <v>-22.9799942661639</v>
+        <v>-147.8736549193531</v>
       </c>
       <c r="F144">
-        <v>-18.95074768164531</v>
+        <v>-143.8444083348345</v>
       </c>
       <c r="G144">
-        <v>16.47584100589394</v>
+        <v>0.6699806626530074</v>
       </c>
       <c r="H144">
         <v>2027</v>
       </c>
       <c r="I144">
-        <v>20.90509464091665</v>
+        <v>15.11221946141592</v>
       </c>
       <c r="J144">
-        <v>0.1362858340721438</v>
+        <v>0.3927956190388535</v>
       </c>
     </row>
     <row r="145" spans="1:10">
@@ -5308,25 +5308,25 @@
         <v>147</v>
       </c>
       <c r="D145">
-        <v>-24.26378318750761</v>
+        <v>-147.6934393580076</v>
       </c>
       <c r="E145">
-        <v>-20.65087996170115</v>
+        <v>-144.0805361322012</v>
       </c>
       <c r="F145">
-        <v>-15.94597495685937</v>
+        <v>-139.3756311273594</v>
       </c>
       <c r="G145">
-        <v>16.19986814261111</v>
+        <v>0.6839572414110316</v>
       </c>
       <c r="H145">
         <v>2027</v>
       </c>
       <c r="I145">
-        <v>20.74369266976727</v>
+        <v>14.6182445289851</v>
       </c>
       <c r="J145">
-        <v>0.1096610270592002</v>
+        <v>0.3132043938889044</v>
       </c>
     </row>
     <row r="146" spans="1:10">
@@ -5340,25 +5340,25 @@
         <v>147</v>
       </c>
       <c r="D146">
-        <v>-195.272542839798</v>
+        <v>86.41175769024214</v>
       </c>
       <c r="E146">
-        <v>-192.647542839798</v>
+        <v>89.03675769024214</v>
       </c>
       <c r="F146">
-        <v>-188.6182962552795</v>
+        <v>93.06600427476073</v>
       </c>
       <c r="G146">
-        <v>0.2125549285039893</v>
+        <v>291.2318063972113</v>
       </c>
       <c r="H146">
         <v>2027</v>
       </c>
       <c r="I146">
-        <v>5.084575297254177</v>
+        <v>77.58889780583266</v>
       </c>
       <c r="J146">
-        <v>0.3713148527903796</v>
+        <v>0.0500082990752162</v>
       </c>
     </row>
     <row r="147" spans="1:10">
@@ -5370,25 +5370,25 @@
         <v>147</v>
       </c>
       <c r="D147">
-        <v>-193.5108742131209</v>
+        <v>78.76875363033651</v>
       </c>
       <c r="E147">
-        <v>-189.8979709873144</v>
+        <v>82.38165685614295</v>
       </c>
       <c r="F147">
-        <v>-185.1930659824727</v>
+        <v>87.08656186098474</v>
       </c>
       <c r="G147">
-        <v>0.2112599532673053</v>
+        <v>227.434667486928</v>
       </c>
       <c r="H147">
         <v>2027</v>
       </c>
       <c r="I147">
-        <v>4.724594459625598</v>
+        <v>75.53363976396678</v>
       </c>
       <c r="J147">
-        <v>0.3056621610211288</v>
+        <v>-0.1286916690712019</v>
       </c>
     </row>
     <row r="148" spans="1:10">
@@ -5402,25 +5402,25 @@
         <v>147</v>
       </c>
       <c r="D148">
-        <v>-110.9083775552907</v>
+        <v>-99.40203554273869</v>
       </c>
       <c r="E148">
-        <v>-108.2833775552907</v>
+        <v>-96.77703554273869</v>
       </c>
       <c r="F148">
-        <v>-104.2541309707721</v>
+        <v>-92.7477889582201</v>
       </c>
       <c r="G148">
-        <v>1.848970297711555</v>
+        <v>2.483486200010321</v>
       </c>
       <c r="H148">
         <v>2027</v>
       </c>
       <c r="I148">
-        <v>13.75205203106686</v>
+        <v>15.76411149256888</v>
       </c>
       <c r="J148">
-        <v>0.2949194126382384</v>
+        <v>0.2908251958255548</v>
       </c>
     </row>
     <row r="149" spans="1:10">
@@ -5432,25 +5432,25 @@
         <v>147</v>
       </c>
       <c r="D149">
-        <v>-108.1767660539836</v>
+        <v>-97.8071102230607</v>
       </c>
       <c r="E149">
-        <v>-104.5638628281772</v>
+        <v>-94.19420699725426</v>
       </c>
       <c r="F149">
-        <v>-99.85895782333537</v>
+        <v>-89.48930199241246</v>
       </c>
       <c r="G149">
-        <v>1.883983009056436</v>
+        <v>2.457824892102404</v>
       </c>
       <c r="H149">
         <v>2027</v>
       </c>
       <c r="I149">
-        <v>13.50733497815658</v>
+        <v>15.33848665515385</v>
       </c>
       <c r="J149">
-        <v>0.247712015894388</v>
+        <v>0.2263069553504771</v>
       </c>
     </row>
     <row r="150" spans="1:10">
@@ -5464,25 +5464,25 @@
         <v>147</v>
       </c>
       <c r="D150">
-        <v>-444.1301881100222</v>
+        <v>-404.2407465013778</v>
       </c>
       <c r="E150">
-        <v>-441.5051881100222</v>
+        <v>-401.6157465013778</v>
       </c>
       <c r="F150">
-        <v>-437.4759415255036</v>
+        <v>-397.5864999168592</v>
       </c>
       <c r="G150">
-        <v>0.00035995911576559</v>
+        <v>0.001001041916212363</v>
       </c>
       <c r="H150">
         <v>2027</v>
       </c>
       <c r="I150">
-        <v>0.001468394382555467</v>
+        <v>0.0384652293244853</v>
       </c>
       <c r="J150">
-        <v>-0.0004587560092818794</v>
+        <v>0.0007456923144859642</v>
       </c>
     </row>
     <row r="151" spans="1:10">
@@ -5494,25 +5494,25 @@
         <v>147</v>
       </c>
       <c r="D151">
-        <v>-441.8860825714672</v>
+        <v>-402.0624165137851</v>
       </c>
       <c r="E151">
-        <v>-438.2731793456607</v>
+        <v>-398.4495132879786</v>
       </c>
       <c r="F151">
-        <v>-433.568274340819</v>
+        <v>-393.7446082831369</v>
       </c>
       <c r="G151">
-        <v>0.0003622192074707194</v>
+        <v>0.001005629725256253</v>
       </c>
       <c r="H151">
         <v>2027</v>
       </c>
       <c r="I151">
-        <v>0.002735987846793367</v>
+        <v>0.03480915008652204</v>
       </c>
       <c r="J151">
-        <v>-0.0003163344218177653</v>
+        <v>0.0003464706419709571</v>
       </c>
     </row>
     <row r="152" spans="1:10">
@@ -5526,25 +5526,25 @@
         <v>147</v>
       </c>
       <c r="D152">
-        <v>-103.9590274691778</v>
+        <v>-326.9009602051559</v>
       </c>
       <c r="E152">
-        <v>-101.3340274691778</v>
+        <v>-324.2759602051559</v>
       </c>
       <c r="F152">
-        <v>-97.30478088465922</v>
+        <v>-320.2467136206373</v>
       </c>
       <c r="G152">
-        <v>2.209612922607792</v>
+        <v>0.007272592404245184</v>
       </c>
       <c r="H152">
         <v>2027</v>
       </c>
       <c r="I152">
-        <v>1.023626108091857</v>
+        <v>0.1088657077263761</v>
       </c>
       <c r="J152">
-        <v>-0.04396560218512557</v>
+        <v>-0.001565359333262031</v>
       </c>
     </row>
     <row r="153" spans="1:10">
@@ -5556,25 +5556,25 @@
         <v>147</v>
       </c>
       <c r="D153">
-        <v>-102.1570843067377</v>
+        <v>-325.4674375527995</v>
       </c>
       <c r="E153">
-        <v>-98.54418108093121</v>
+        <v>-321.8545343269931</v>
       </c>
       <c r="F153">
-        <v>-93.83927607608942</v>
+        <v>-317.1496293221513</v>
       </c>
       <c r="G153">
-        <v>2.198420112268756</v>
+        <v>0.007167721037037364</v>
       </c>
       <c r="H153">
         <v>2027</v>
       </c>
       <c r="I153">
-        <v>1.167644879302896</v>
+        <v>0.1156635079667263</v>
       </c>
       <c r="J153">
-        <v>-0.02801215156014436</v>
+        <v>-0.0008098134349127928</v>
       </c>
     </row>
     <row r="154" spans="1:10">
@@ -5588,25 +5588,25 @@
         <v>147</v>
       </c>
       <c r="D154">
-        <v>-183.0626886060193</v>
+        <v>-209.6132909088456</v>
       </c>
       <c r="E154">
-        <v>-180.4376886060193</v>
+        <v>-206.9882909088456</v>
       </c>
       <c r="F154">
-        <v>-176.4084420215007</v>
+        <v>-202.959044324327</v>
       </c>
       <c r="G154">
-        <v>0.2906947151094571</v>
+        <v>0.1471553678960284</v>
       </c>
       <c r="H154">
         <v>2027</v>
       </c>
       <c r="I154">
-        <v>5.049978666250968</v>
+        <v>0.5893670580692508</v>
       </c>
       <c r="J154">
-        <v>0.01451760963314364</v>
+        <v>0.006838110528406882</v>
       </c>
     </row>
     <row r="155" spans="1:10">
@@ -5618,25 +5618,25 @@
         <v>147</v>
       </c>
       <c r="D155">
-        <v>-181.3298063720131</v>
+        <v>-208.2928934857198</v>
       </c>
       <c r="E155">
-        <v>-177.7169031462066</v>
+        <v>-204.6799902599133</v>
       </c>
       <c r="F155">
-        <v>-173.0119981413648</v>
+        <v>-199.9750852550715</v>
       </c>
       <c r="G155">
-        <v>0.2887104994493764</v>
+        <v>0.1446132945951963</v>
       </c>
       <c r="H155">
         <v>2027</v>
       </c>
       <c r="I155">
-        <v>4.989734154822004</v>
+        <v>0.5825029051596698</v>
       </c>
       <c r="J155">
-        <v>0.008032939435110187</v>
+        <v>0.005563327769142812</v>
       </c>
     </row>
     <row r="156" spans="1:10">
@@ -5650,25 +5650,25 @@
         <v>147</v>
       </c>
       <c r="D156">
-        <v>11.52510971971044</v>
+        <v>-264.6361931449025</v>
       </c>
       <c r="E156">
-        <v>14.15010971971044</v>
+        <v>-256.2361931449025</v>
       </c>
       <c r="F156">
-        <v>18.17935630422902</v>
+        <v>-261.3033397686776</v>
       </c>
       <c r="G156">
-        <v>42.68933293427287</v>
+        <v>1.842826945194987e-06</v>
       </c>
       <c r="H156">
-        <v>2027</v>
+        <v>2005</v>
       </c>
       <c r="I156">
-        <v>52.85907198595964</v>
+        <v>0.0003294797757354632</v>
       </c>
       <c r="J156">
-        <v>0.7271686762356566</v>
+        <v>-5.121274599324854e-06</v>
       </c>
     </row>
     <row r="157" spans="1:10">
@@ -5680,25 +5680,25 @@
         <v>147</v>
       </c>
       <c r="D157">
-        <v>9.087498151004795</v>
+        <v>-263.1816489387323</v>
       </c>
       <c r="E157">
-        <v>12.70040137681125</v>
+        <v>-250.7372044942879</v>
       </c>
       <c r="F157">
-        <v>17.40530638165303</v>
+        <v>-259.0155822184512</v>
       </c>
       <c r="G157">
-        <v>38.09809050211873</v>
+        <v>1.784637192227274e-06</v>
       </c>
       <c r="H157">
-        <v>2027</v>
+        <v>2005</v>
       </c>
       <c r="I157">
-        <v>50.15188817002838</v>
+        <v>0.000335674706928316</v>
       </c>
       <c r="J157">
-        <v>0.4303643466082221</v>
+        <v>-4.104978347001774e-06</v>
       </c>
     </row>
     <row r="158" spans="1:10">
@@ -5712,25 +5712,25 @@
         <v>147</v>
       </c>
       <c r="D158">
-        <v>-274.4399791068693</v>
+        <v>-481.0382312579285</v>
       </c>
       <c r="E158">
-        <v>-271.8149791068693</v>
+        <v>-478.4132312579285</v>
       </c>
       <c r="F158">
-        <v>-267.7857325223507</v>
+        <v>-474.3839846734099</v>
       </c>
       <c r="G158">
-        <v>0.02791784747576255</v>
+        <v>0.0001397185968031266</v>
       </c>
       <c r="H158">
         <v>2027</v>
       </c>
       <c r="I158">
-        <v>0.1989651453076803</v>
+        <v>0.005425518106341755</v>
       </c>
       <c r="J158">
-        <v>-0.01103583558905141</v>
+        <v>6.353798109073102e-05</v>
       </c>
     </row>
     <row r="159" spans="1:10">
@@ -5742,25 +5742,25 @@
         <v>147</v>
       </c>
       <c r="D159">
-        <v>-272.9762885716339</v>
+        <v>-478.4232040379151</v>
       </c>
       <c r="E159">
-        <v>-269.3633853458275</v>
+        <v>-474.8103008121086</v>
       </c>
       <c r="F159">
-        <v>-264.6584803409857</v>
+        <v>-470.1053958072669</v>
       </c>
       <c r="G159">
-        <v>0.02753656214147686</v>
+        <v>0.0001419394141564925</v>
       </c>
       <c r="H159">
         <v>2027</v>
       </c>
       <c r="I159">
-        <v>0.213078072687386</v>
+        <v>0.004271586291007572</v>
       </c>
       <c r="J159">
-        <v>-0.00882293864787731</v>
+        <v>2.34149287452641e-05</v>
       </c>
     </row>
     <row r="160" spans="1:10">
@@ -5774,25 +5774,25 @@
         <v>147</v>
       </c>
       <c r="D160">
-        <v>-97.9349041130186</v>
+        <v>-114.7543659590591</v>
       </c>
       <c r="E160">
-        <v>-95.3099041130186</v>
+        <v>-112.1293659590591</v>
       </c>
       <c r="F160">
-        <v>-91.28065752850002</v>
+        <v>-108.1001193745405</v>
       </c>
       <c r="G160">
-        <v>2.578691380739994</v>
+        <v>1.675336098594371</v>
       </c>
       <c r="H160">
         <v>2027</v>
       </c>
       <c r="I160">
-        <v>17.85363582793767</v>
+        <v>12.98587227759576</v>
       </c>
       <c r="J160">
-        <v>0.3347613780857941</v>
+        <v>-0.006051584746186833</v>
       </c>
     </row>
     <row r="161" spans="1:10">
@@ -5804,25 +5804,25 @@
         <v>147</v>
       </c>
       <c r="D161">
-        <v>-96.13001672489389</v>
+        <v>-113.739960441591</v>
       </c>
       <c r="E161">
-        <v>-92.51711349908744</v>
+        <v>-110.1270572157846</v>
       </c>
       <c r="F161">
-        <v>-87.81220849424565</v>
+        <v>-105.4221522109428</v>
       </c>
       <c r="G161">
-        <v>2.565822695040275</v>
+        <v>1.633528089202362</v>
       </c>
       <c r="H161">
         <v>2027</v>
       </c>
       <c r="I161">
-        <v>17.41260954177899</v>
+        <v>12.98851227537823</v>
       </c>
       <c r="J161">
-        <v>0.2653715137887538</v>
+        <v>-0.005284296896348906</v>
       </c>
     </row>
     <row r="162" spans="1:10">
@@ -5836,25 +5836,25 @@
         <v>147</v>
       </c>
       <c r="D162">
-        <v>-46.9970180407237</v>
+        <v>-424.8851329116515</v>
       </c>
       <c r="E162">
-        <v>-44.3720180407237</v>
+        <v>-422.2601329116515</v>
       </c>
       <c r="F162">
-        <v>-40.34277145620511</v>
+        <v>-418.2308863271329</v>
       </c>
       <c r="G162">
-        <v>9.519874789634846</v>
+        <v>0.0005896053480572948</v>
       </c>
       <c r="H162">
         <v>2027</v>
       </c>
       <c r="I162">
-        <v>41.22312786240572</v>
+        <v>0.04171886416969361</v>
       </c>
       <c r="J162">
-        <v>2.11936041479624</v>
+        <v>1.386708619861843e-05</v>
       </c>
     </row>
     <row r="163" spans="1:10">
@@ -5866,25 +5866,25 @@
         <v>147</v>
       </c>
       <c r="D163">
-        <v>-44.72171286367084</v>
+        <v>-423.831305490387</v>
       </c>
       <c r="E163">
-        <v>-41.10880963786439</v>
+        <v>-420.2184022645806</v>
       </c>
       <c r="F163">
-        <v>-36.40390463302261</v>
+        <v>-415.5134972597388</v>
       </c>
       <c r="G163">
-        <v>9.587314356906838</v>
+        <v>0.0005754731523849103</v>
       </c>
       <c r="H163">
         <v>2027</v>
       </c>
       <c r="I163">
-        <v>38.901077161152</v>
+        <v>0.04235669171979685</v>
       </c>
       <c r="J163">
-        <v>1.720259868027426</v>
+        <v>5.439050933406242e-05</v>
       </c>
     </row>
     <row r="164" spans="1:10">
@@ -5960,25 +5960,25 @@
         <v>147</v>
       </c>
       <c r="D166">
-        <v>-202.2563456900945</v>
+        <v>-334.5963305137898</v>
       </c>
       <c r="E166">
-        <v>-199.6313456900945</v>
+        <v>-331.9713305137898</v>
       </c>
       <c r="F166">
-        <v>-195.6020991055759</v>
+        <v>-327.9420839292712</v>
       </c>
       <c r="G166">
-        <v>0.1777056578667073</v>
+        <v>0.005970290760897229</v>
       </c>
       <c r="H166">
         <v>2027</v>
       </c>
       <c r="I166">
-        <v>3.137924350598817</v>
+        <v>0.1942939367131452</v>
       </c>
       <c r="J166">
-        <v>0.01069680621891012</v>
+        <v>0.001216459061092634</v>
       </c>
     </row>
     <row r="167" spans="1:10">
@@ -5990,25 +5990,25 @@
         <v>147</v>
       </c>
       <c r="D167">
-        <v>-201.0302790317845</v>
+        <v>-327.0121882115511</v>
       </c>
       <c r="E167">
-        <v>-197.4173758059781</v>
+        <v>-323.3992849857447</v>
       </c>
       <c r="F167">
-        <v>-192.7124708011363</v>
+        <v>-318.6943799809029</v>
       </c>
       <c r="G167">
-        <v>0.1742139478825106</v>
+        <v>0.006889363950180257</v>
       </c>
       <c r="H167">
         <v>2027</v>
       </c>
       <c r="I167">
-        <v>3.126436080714297</v>
+        <v>0.2328573113941387</v>
       </c>
       <c r="J167">
-        <v>0.008739051678026577</v>
+        <v>0.004583371689932864</v>
       </c>
     </row>
     <row r="168" spans="1:10">
@@ -6022,25 +6022,25 @@
         <v>147</v>
       </c>
       <c r="D168">
-        <v>-246.4452838443788</v>
+        <v>-100.7494578373271</v>
       </c>
       <c r="E168">
-        <v>-243.8202838443788</v>
+        <v>-98.12445783732706</v>
       </c>
       <c r="F168">
-        <v>-239.7910372598602</v>
+        <v>-94.09521125280847</v>
       </c>
       <c r="G168">
-        <v>0.05723003670727699</v>
+        <v>2.399148803591455</v>
       </c>
       <c r="H168">
         <v>2027</v>
       </c>
       <c r="I168">
-        <v>1.253251035764107</v>
+        <v>16.31799306393592</v>
       </c>
       <c r="J168">
-        <v>0.008296515259357928</v>
+        <v>0.3560247579961242</v>
       </c>
     </row>
     <row r="169" spans="1:10">
@@ -6052,25 +6052,25 @@
         <v>147</v>
       </c>
       <c r="D169">
-        <v>-244.9878674999684</v>
+        <v>-98.51539601728982</v>
       </c>
       <c r="E169">
-        <v>-241.3749642741619</v>
+        <v>-94.90249279148337</v>
       </c>
       <c r="F169">
-        <v>-236.6700592693201</v>
+        <v>-90.19758778664158</v>
       </c>
       <c r="G169">
-        <v>0.05643934244453266</v>
+        <v>2.41359079344065</v>
       </c>
       <c r="H169">
         <v>2027</v>
       </c>
       <c r="I169">
-        <v>1.234403285440664</v>
+        <v>16.16255696523632</v>
       </c>
       <c r="J169">
-        <v>0.005869980224822768</v>
+        <v>0.3113485540906158</v>
       </c>
     </row>
     <row r="170" spans="1:10">
@@ -6084,25 +6084,25 @@
         <v>147</v>
       </c>
       <c r="D170">
-        <v>-129.0121264767932</v>
+        <v>-213.3273252115241</v>
       </c>
       <c r="E170">
-        <v>-126.3871264767932</v>
+        <v>-210.7023252115241</v>
       </c>
       <c r="F170">
-        <v>-122.3578798922746</v>
+        <v>-206.6730786270056</v>
       </c>
       <c r="G170">
-        <v>1.162334169029612</v>
+        <v>0.1337881132823662</v>
       </c>
       <c r="H170">
         <v>2027</v>
       </c>
       <c r="I170">
-        <v>6.055916798002455</v>
+        <v>1.739563803563303</v>
       </c>
       <c r="J170">
-        <v>-0.00120068156950115</v>
+        <v>0.008327797542279303</v>
       </c>
     </row>
     <row r="171" spans="1:10">
@@ -6114,25 +6114,25 @@
         <v>147</v>
       </c>
       <c r="D171">
-        <v>-127.7194039252719</v>
+        <v>-212.4899762007102</v>
       </c>
       <c r="E171">
-        <v>-124.1065006994655</v>
+        <v>-208.8770729749038</v>
       </c>
       <c r="F171">
-        <v>-119.4015956946237</v>
+        <v>-204.172167970062</v>
       </c>
       <c r="G171">
-        <v>1.141444857552753</v>
+        <v>0.1298585447187989</v>
       </c>
       <c r="H171">
         <v>2027</v>
       </c>
       <c r="I171">
-        <v>6.05714443142821</v>
+        <v>1.704446825274161</v>
       </c>
       <c r="J171">
-        <v>-0.0009877829803439653</v>
+        <v>0.004818249285458043</v>
       </c>
     </row>
     <row r="172" spans="1:10">
@@ -6146,25 +6146,25 @@
         <v>147</v>
       </c>
       <c r="D172">
-        <v>-264.6361931449025</v>
+        <v>-26.8384757061927</v>
       </c>
       <c r="E172">
-        <v>-256.2361931449025</v>
+        <v>-24.2134757061927</v>
       </c>
       <c r="F172">
-        <v>-261.3033397686776</v>
+        <v>-20.18422912167412</v>
       </c>
       <c r="G172">
-        <v>1.842826945194987e-06</v>
+        <v>15.96290187527077</v>
       </c>
       <c r="H172">
-        <v>2005</v>
+        <v>2027</v>
       </c>
       <c r="I172">
-        <v>0.0003294797757354632</v>
+        <v>29.73326574373446</v>
       </c>
       <c r="J172">
-        <v>-5.121274599324854e-06</v>
+        <v>0.4062851074753659</v>
       </c>
     </row>
     <row r="173" spans="1:10">
@@ -6176,25 +6176,25 @@
         <v>147</v>
       </c>
       <c r="D173">
-        <v>-263.1816489387323</v>
+        <v>-25.45644627540447</v>
       </c>
       <c r="E173">
-        <v>-250.7372044942879</v>
+        <v>-21.84354304959801</v>
       </c>
       <c r="F173">
-        <v>-259.0155822184512</v>
+        <v>-17.13863804475623</v>
       </c>
       <c r="G173">
-        <v>1.784637192227274e-06</v>
+        <v>15.71195673597153</v>
       </c>
       <c r="H173">
-        <v>2005</v>
+        <v>2027</v>
       </c>
       <c r="I173">
-        <v>0.000335674706928316</v>
+        <v>29.1529894507694</v>
       </c>
       <c r="J173">
-        <v>-4.104978347001774e-06</v>
+        <v>0.3175577596677144</v>
       </c>
     </row>
     <row r="174" spans="1:10">
@@ -6208,25 +6208,25 @@
         <v>147</v>
       </c>
       <c r="D174">
-        <v>-125.4532996527388</v>
+        <v>-110.9083775552907</v>
       </c>
       <c r="E174">
-        <v>-122.8282996527388</v>
+        <v>-108.2833775552907</v>
       </c>
       <c r="F174">
-        <v>-118.7990530682203</v>
+        <v>-104.2541309707721</v>
       </c>
       <c r="G174">
-        <v>1.273389404405493</v>
+        <v>1.848970297711555</v>
       </c>
       <c r="H174">
         <v>2027</v>
       </c>
       <c r="I174">
-        <v>6.816681571550008</v>
+        <v>13.75205203106686</v>
       </c>
       <c r="J174">
-        <v>0.06365112408978746</v>
+        <v>0.2949194126382384</v>
       </c>
     </row>
     <row r="175" spans="1:10">
@@ -6238,25 +6238,25 @@
         <v>147</v>
       </c>
       <c r="D175">
-        <v>-124.268943587659</v>
+        <v>-108.1767660539836</v>
       </c>
       <c r="E175">
-        <v>-120.6560403618525</v>
+        <v>-104.5638628281772</v>
       </c>
       <c r="F175">
-        <v>-115.9511353570107</v>
+        <v>-99.85895782333537</v>
       </c>
       <c r="G175">
-        <v>1.247034360445009</v>
+        <v>1.883983009056436</v>
       </c>
       <c r="H175">
         <v>2027</v>
       </c>
       <c r="I175">
-        <v>6.739219893680922</v>
+        <v>13.50733497815658</v>
       </c>
       <c r="J175">
-        <v>0.05096085652050153</v>
+        <v>0.247712015894388</v>
       </c>
     </row>
     <row r="176" spans="1:10">
@@ -6270,25 +6270,25 @@
         <v>147</v>
       </c>
       <c r="D176">
-        <v>-481.0382312579285</v>
+        <v>63.441475048767</v>
       </c>
       <c r="E176">
-        <v>-478.4132312579285</v>
+        <v>66.066475048767</v>
       </c>
       <c r="F176">
-        <v>-474.3839846734099</v>
+        <v>70.09572163328559</v>
       </c>
       <c r="G176">
-        <v>0.0001397185968031266</v>
+        <v>161.6022274038006</v>
       </c>
       <c r="H176">
         <v>2027</v>
       </c>
       <c r="I176">
-        <v>0.005425518106341755</v>
+        <v>81.42374004593145</v>
       </c>
       <c r="J176">
-        <v>6.353798109073102e-05</v>
+        <v>1.271086861654325</v>
       </c>
     </row>
     <row r="177" spans="1:10">
@@ -6300,25 +6300,25 @@
         <v>147</v>
       </c>
       <c r="D177">
-        <v>-478.4232040379151</v>
+        <v>64.30997070519317</v>
       </c>
       <c r="E177">
-        <v>-474.8103008121086</v>
+        <v>67.92287393099961</v>
       </c>
       <c r="F177">
-        <v>-470.1053958072669</v>
+        <v>72.62777893584139</v>
       </c>
       <c r="G177">
-        <v>0.0001419394141564925</v>
+        <v>156.9810343204821</v>
       </c>
       <c r="H177">
         <v>2027</v>
       </c>
       <c r="I177">
-        <v>0.004271586291007572</v>
+        <v>78.85064823815034</v>
       </c>
       <c r="J177">
-        <v>2.34149287452641e-05</v>
+        <v>0.9241216227577809</v>
       </c>
     </row>
     <row r="178" spans="1:10">
@@ -6332,25 +6332,25 @@
         <v>147</v>
       </c>
       <c r="D178">
-        <v>-12.39874578025988</v>
+        <v>-287.7948031833167</v>
       </c>
       <c r="E178">
-        <v>-9.77374578025988</v>
+        <v>-285.1698031833167</v>
       </c>
       <c r="F178">
-        <v>-5.744499195741295</v>
+        <v>-281.1405565987981</v>
       </c>
       <c r="G178">
-        <v>23.11581193078535</v>
+        <v>0.01982283968209917</v>
       </c>
       <c r="H178">
         <v>2027</v>
       </c>
       <c r="I178">
-        <v>63.13337068010216</v>
+        <v>0.06317972624730678</v>
       </c>
       <c r="J178">
-        <v>2.39140036215251</v>
+        <v>-0.009309338518802557</v>
       </c>
     </row>
     <row r="179" spans="1:10">
@@ -6362,25 +6362,25 @@
         <v>147</v>
       </c>
       <c r="D179">
-        <v>-10.0174107268274</v>
+        <v>-286.2336774923064</v>
       </c>
       <c r="E179">
-        <v>-6.404507501020952</v>
+        <v>-282.6207742664999</v>
       </c>
       <c r="F179">
-        <v>-1.699602496179171</v>
+        <v>-277.9158692616581</v>
       </c>
       <c r="G179">
-        <v>23.3429428357059</v>
+        <v>0.01960101998231037</v>
       </c>
       <c r="H179">
         <v>2027</v>
       </c>
       <c r="I179">
-        <v>60.72057430735904</v>
+        <v>0.07778803021056348</v>
       </c>
       <c r="J179">
-        <v>1.959969222919014</v>
+        <v>-0.007221640280070718</v>
       </c>
     </row>
     <row r="180" spans="1:10">
@@ -6394,25 +6394,25 @@
         <v>147</v>
       </c>
       <c r="D180">
-        <v>-145.1535132326792</v>
+        <v>-202.2563456900945</v>
       </c>
       <c r="E180">
-        <v>-142.5285132326792</v>
+        <v>-199.6313456900945</v>
       </c>
       <c r="F180">
-        <v>-138.4992666481606</v>
+        <v>-195.6020991055759</v>
       </c>
       <c r="G180">
-        <v>0.768394878173944</v>
+        <v>0.1777056578667073</v>
       </c>
       <c r="H180">
         <v>2027</v>
       </c>
       <c r="I180">
-        <v>6.753985699687219</v>
+        <v>3.137924350598817</v>
       </c>
       <c r="J180">
-        <v>0.0754338973328359</v>
+        <v>0.01069680621891012</v>
       </c>
     </row>
     <row r="181" spans="1:10">
@@ -6424,25 +6424,25 @@
         <v>147</v>
       </c>
       <c r="D181">
-        <v>-143.7810914827782</v>
+        <v>-201.0302790317845</v>
       </c>
       <c r="E181">
-        <v>-140.1681882569717</v>
+        <v>-197.4173758059781</v>
       </c>
       <c r="F181">
-        <v>-135.4632832521299</v>
+        <v>-192.7124708011363</v>
       </c>
       <c r="G181">
-        <v>0.7561290141798934</v>
+        <v>0.1742139478825106</v>
       </c>
       <c r="H181">
         <v>2027</v>
       </c>
       <c r="I181">
-        <v>6.648092428394738</v>
+        <v>3.126436080714297</v>
       </c>
       <c r="J181">
-        <v>0.05910987248385435</v>
+        <v>0.008739051678026577</v>
       </c>
     </row>
     <row r="182" spans="1:10">
@@ -6456,25 +6456,25 @@
         <v>147</v>
       </c>
       <c r="D182">
-        <v>-69.68113390057738</v>
+        <v>-246.4452838443788</v>
       </c>
       <c r="E182">
-        <v>-67.05613390057738</v>
+        <v>-243.8202838443788</v>
       </c>
       <c r="F182">
-        <v>-63.02688731605879</v>
+        <v>-239.7910372598602</v>
       </c>
       <c r="G182">
-        <v>5.32140677591679</v>
+        <v>0.05723003670727699</v>
       </c>
       <c r="H182">
         <v>2027</v>
       </c>
       <c r="I182">
-        <v>3.092531344111023</v>
+        <v>1.253251035764107</v>
       </c>
       <c r="J182">
-        <v>0.1607752668281353</v>
+        <v>0.008296515259357928</v>
       </c>
     </row>
     <row r="183" spans="1:10">
@@ -6486,25 +6486,25 @@
         <v>147</v>
       </c>
       <c r="D183">
-        <v>-65.47245778499095</v>
+        <v>-244.9878674999684</v>
       </c>
       <c r="E183">
-        <v>-61.8595545591845</v>
+        <v>-241.3749642741619</v>
       </c>
       <c r="F183">
-        <v>-57.15464955434272</v>
+        <v>-236.6700592693201</v>
       </c>
       <c r="G183">
-        <v>5.631469501950153</v>
+        <v>0.05643934244453266</v>
       </c>
       <c r="H183">
         <v>2027</v>
       </c>
       <c r="I183">
-        <v>1.534558834254129</v>
+        <v>1.234403285440664</v>
       </c>
       <c r="J183">
-        <v>0.006520957872289568</v>
+        <v>0.005869980224822768</v>
       </c>
     </row>
     <row r="184" spans="1:10">
@@ -6518,25 +6518,25 @@
         <v>147</v>
       </c>
       <c r="D184">
-        <v>-84.41573886274541</v>
+        <v>97.18708976052744</v>
       </c>
       <c r="E184">
-        <v>-81.79073886274541</v>
+        <v>99.81208976052744</v>
       </c>
       <c r="F184">
-        <v>-77.76149227822683</v>
+        <v>103.841336345046</v>
       </c>
       <c r="G184">
-        <v>3.647081710087147</v>
+        <v>383.91074916661</v>
       </c>
       <c r="H184">
         <v>2027</v>
       </c>
       <c r="I184">
-        <v>0.7239160032710112</v>
+        <v>105.3481830187858</v>
       </c>
       <c r="J184">
-        <v>-0.09756286794362246</v>
+        <v>-0.6970335174790137</v>
       </c>
     </row>
     <row r="185" spans="1:10">
@@ -6548,25 +6548,25 @@
         <v>147</v>
       </c>
       <c r="D185">
-        <v>-83.02486836818721</v>
+        <v>99.00840995110811</v>
       </c>
       <c r="E185">
-        <v>-79.41196514238077</v>
+        <v>102.6213131769146</v>
       </c>
       <c r="F185">
-        <v>-74.70706013753897</v>
+        <v>107.3262181817563</v>
       </c>
       <c r="G185">
-        <v>3.590561550600882</v>
+        <v>382.1558722629194</v>
       </c>
       <c r="H185">
         <v>2027</v>
       </c>
       <c r="I185">
-        <v>0.8596358469202547</v>
+        <v>106.2225065628961</v>
       </c>
       <c r="J185">
-        <v>-0.07662456593689149</v>
+        <v>-0.5578207863797502</v>
       </c>
     </row>
     <row r="186" spans="1:10">
@@ -6580,25 +6580,25 @@
         <v>147</v>
       </c>
       <c r="D186">
-        <v>-425.2615125293565</v>
+        <v>185.7012714668056</v>
       </c>
       <c r="E186">
-        <v>-422.6365125293565</v>
+        <v>188.3262714668056</v>
       </c>
       <c r="F186">
-        <v>-418.6072659448379</v>
+        <v>192.3555180513242</v>
       </c>
       <c r="G186">
-        <v>0.0005839425776540904</v>
+        <v>3714.51911360698</v>
       </c>
       <c r="H186">
         <v>2027</v>
       </c>
       <c r="I186">
-        <v>0.02528360297549164</v>
+        <v>129.2234612951965</v>
       </c>
       <c r="J186">
-        <v>0.0005945277938016191</v>
+        <v>2.63813423033875</v>
       </c>
     </row>
     <row r="187" spans="1:10">
@@ -6610,25 +6610,25 @@
         <v>147</v>
       </c>
       <c r="D187">
-        <v>-423.8427989193289</v>
+        <v>188.3984897417094</v>
       </c>
       <c r="E187">
-        <v>-420.2298956935224</v>
+        <v>192.0113929675159</v>
       </c>
       <c r="F187">
-        <v>-415.5249906886806</v>
+        <v>196.7162979723576</v>
       </c>
       <c r="G187">
-        <v>0.0005753035835317507</v>
+        <v>3781.522162003185</v>
       </c>
       <c r="H187">
         <v>2027</v>
       </c>
       <c r="I187">
-        <v>0.02451981895493302</v>
+        <v>115.8965439138491</v>
       </c>
       <c r="J187">
-        <v>0.0004742265977667956</v>
+        <v>1.189586630294031</v>
       </c>
     </row>
     <row r="188" spans="1:10">
@@ -6642,25 +6642,25 @@
         <v>147</v>
       </c>
       <c r="D188">
-        <v>-198.8967793060388</v>
+        <v>19.68054389054392</v>
       </c>
       <c r="E188">
-        <v>-196.2717793060388</v>
+        <v>22.30554389054392</v>
       </c>
       <c r="F188">
-        <v>-192.2425327215202</v>
+        <v>26.33479047506251</v>
       </c>
       <c r="G188">
-        <v>0.193692393834514</v>
+        <v>52.61823704463644</v>
       </c>
       <c r="H188">
         <v>2027</v>
       </c>
       <c r="I188">
-        <v>0.7690223471242058</v>
+        <v>78.49501225102382</v>
       </c>
       <c r="J188">
-        <v>-0.00973681483104849</v>
+        <v>2.596295041461573</v>
       </c>
     </row>
     <row r="189" spans="1:10">
@@ -6672,25 +6672,25 @@
         <v>147</v>
       </c>
       <c r="D189">
-        <v>-197.397763704214</v>
+        <v>21.06705207556324</v>
       </c>
       <c r="E189">
-        <v>-193.7848604784076</v>
+        <v>24.67995530136969</v>
       </c>
       <c r="F189">
-        <v>-189.0799554735658</v>
+        <v>29.38486030621147</v>
       </c>
       <c r="G189">
-        <v>0.1912201817400404</v>
+        <v>51.79699894537936</v>
       </c>
       <c r="H189">
         <v>2027</v>
       </c>
       <c r="I189">
-        <v>0.7988982773216943</v>
+        <v>75.38393657593832</v>
       </c>
       <c r="J189">
-        <v>-0.006152336878456066</v>
+        <v>2.08309099378674</v>
       </c>
     </row>
     <row r="190" spans="1:10">
@@ -6704,25 +6704,25 @@
         <v>147</v>
       </c>
       <c r="D190">
-        <v>-150.4986549193531</v>
+        <v>11.52510971971044</v>
       </c>
       <c r="E190">
-        <v>-147.8736549193531</v>
+        <v>14.15010971971044</v>
       </c>
       <c r="F190">
-        <v>-143.8444083348345</v>
+        <v>18.17935630422902</v>
       </c>
       <c r="G190">
-        <v>0.6699806626530074</v>
+        <v>42.68933293427287</v>
       </c>
       <c r="H190">
         <v>2027</v>
       </c>
       <c r="I190">
-        <v>15.11221946141592</v>
+        <v>52.85907198595964</v>
       </c>
       <c r="J190">
-        <v>0.3927956190388535</v>
+        <v>0.7271686762356566</v>
       </c>
     </row>
     <row r="191" spans="1:10">
@@ -6734,25 +6734,25 @@
         <v>147</v>
       </c>
       <c r="D191">
-        <v>-147.6934393580076</v>
+        <v>9.087498151004795</v>
       </c>
       <c r="E191">
-        <v>-144.0805361322012</v>
+        <v>12.70040137681125</v>
       </c>
       <c r="F191">
-        <v>-139.3756311273594</v>
+        <v>17.40530638165303</v>
       </c>
       <c r="G191">
-        <v>0.6839572414110316</v>
+        <v>38.09809050211873</v>
       </c>
       <c r="H191">
         <v>2027</v>
       </c>
       <c r="I191">
-        <v>14.6182445289851</v>
+        <v>50.15188817002838</v>
       </c>
       <c r="J191">
-        <v>0.3132043938889044</v>
+        <v>0.4303643466082221</v>
       </c>
     </row>
     <row r="192" spans="1:10">
@@ -6766,25 +6766,25 @@
         <v>147</v>
       </c>
       <c r="D192">
-        <v>-181.4521393474482</v>
+        <v>-82.78332075874729</v>
       </c>
       <c r="E192">
-        <v>-178.8271393474482</v>
+        <v>-80.15832075874729</v>
       </c>
       <c r="F192">
-        <v>-174.7978927629296</v>
+        <v>-76.12907417422871</v>
       </c>
       <c r="G192">
-        <v>0.3029506019518575</v>
+        <v>3.802977036912733</v>
       </c>
       <c r="H192">
         <v>2027</v>
       </c>
       <c r="I192">
-        <v>6.452653569540107</v>
+        <v>0.08203443186767372</v>
       </c>
       <c r="J192">
-        <v>0.4143059164843867</v>
+        <v>0</v>
       </c>
     </row>
     <row r="193" spans="1:10">
@@ -6796,25 +6796,25 @@
         <v>147</v>
       </c>
       <c r="D193">
-        <v>-179.0570286223024</v>
+        <v>-80.78332075922751</v>
       </c>
       <c r="E193">
-        <v>-175.4441253964959</v>
+        <v>-77.17041753342106</v>
       </c>
       <c r="F193">
-        <v>-170.7392203916541</v>
+        <v>-72.46551252857927</v>
       </c>
       <c r="G193">
-        <v>0.306035407667858</v>
+        <v>3.802977036865905</v>
       </c>
       <c r="H193">
         <v>2027</v>
       </c>
       <c r="I193">
-        <v>5.999586188700391</v>
+        <v>0.08203443655632216</v>
       </c>
       <c r="J193">
-        <v>0.336567536458638</v>
+        <v>0</v>
       </c>
     </row>
     <row r="194" spans="1:10">
@@ -6828,25 +6828,25 @@
         <v>147</v>
       </c>
       <c r="D194">
-        <v>-26.8384757061927</v>
+        <v>-262.1322019757918</v>
       </c>
       <c r="E194">
-        <v>-24.2134757061927</v>
+        <v>-259.5072019757918</v>
       </c>
       <c r="F194">
-        <v>-20.18422912167412</v>
+        <v>-255.4779553912732</v>
       </c>
       <c r="G194">
-        <v>15.96290187527077</v>
+        <v>0.03827703881963724</v>
       </c>
       <c r="H194">
         <v>2027</v>
       </c>
       <c r="I194">
-        <v>29.73326574373446</v>
+        <v>0.07601276546367954</v>
       </c>
       <c r="J194">
-        <v>0.4062851074753659</v>
+        <v>-0.007361001701008243</v>
       </c>
     </row>
     <row r="195" spans="1:10">
@@ -6858,25 +6858,25 @@
         <v>147</v>
       </c>
       <c r="D195">
-        <v>-25.45644627540447</v>
+        <v>-260.633344048906</v>
       </c>
       <c r="E195">
-        <v>-21.84354304959801</v>
+        <v>-257.0204408230995</v>
       </c>
       <c r="F195">
-        <v>-17.13863804475623</v>
+        <v>-252.3155358182578</v>
       </c>
       <c r="G195">
-        <v>15.71195673597153</v>
+        <v>0.03778833325876843</v>
       </c>
       <c r="H195">
         <v>2027</v>
       </c>
       <c r="I195">
-        <v>29.1529894507694</v>
+        <v>0.09443842131345215</v>
       </c>
       <c r="J195">
-        <v>0.3175577596677144</v>
+        <v>-0.005030083901930105</v>
       </c>
     </row>
     <row r="196" spans="1:10">
@@ -6890,25 +6890,25 @@
         <v>147</v>
       </c>
       <c r="D196">
-        <v>-101.2776982280453</v>
+        <v>-205.5345709264122</v>
       </c>
       <c r="E196">
-        <v>-98.65269822804527</v>
+        <v>-202.9095709264122</v>
       </c>
       <c r="F196">
-        <v>-94.62345164352668</v>
+        <v>-198.8803243418936</v>
       </c>
       <c r="G196">
-        <v>2.36687231170053</v>
+        <v>0.1633788140008679</v>
       </c>
       <c r="H196">
         <v>2027</v>
       </c>
       <c r="I196">
-        <v>15.56824786563642</v>
+        <v>5.638844024490888</v>
       </c>
       <c r="J196">
-        <v>-0.08604342676128418</v>
+        <v>0.04988080641592774</v>
       </c>
     </row>
     <row r="197" spans="1:10">
@@ -6920,25 +6920,25 @@
         <v>147</v>
       </c>
       <c r="D197">
-        <v>-99.76688614817016</v>
+        <v>-203.9002467462525</v>
       </c>
       <c r="E197">
-        <v>-96.15398292236371</v>
+        <v>-200.2873435204461</v>
       </c>
       <c r="F197">
-        <v>-91.44907791752192</v>
+        <v>-195.5824385156043</v>
       </c>
       <c r="G197">
-        <v>2.337369388095313</v>
+        <v>0.161854084060672</v>
       </c>
       <c r="H197">
         <v>2027</v>
       </c>
       <c r="I197">
-        <v>15.76803863739984</v>
+        <v>5.550934174902508</v>
       </c>
       <c r="J197">
-        <v>-0.06031781883318033</v>
+        <v>0.03693183124881738</v>
       </c>
     </row>
     <row r="198" spans="1:10">
@@ -6952,25 +6952,25 @@
         <v>147</v>
       </c>
       <c r="D198">
-        <v>-196.6685963582157</v>
+        <v>-348.8049225117717</v>
       </c>
       <c r="E198">
-        <v>-194.0435963582157</v>
+        <v>-346.1799225117717</v>
       </c>
       <c r="F198">
-        <v>-190.0143497736971</v>
+        <v>-342.1506759272531</v>
       </c>
       <c r="G198">
-        <v>0.2050808307935903</v>
+        <v>0.004147363197220963</v>
       </c>
       <c r="H198">
         <v>2027</v>
       </c>
       <c r="I198">
-        <v>9.924404030050681</v>
+        <v>0.3588054759416401</v>
       </c>
       <c r="J198">
-        <v>0.156246611223942</v>
+        <v>0.01640266083912995</v>
       </c>
     </row>
     <row r="199" spans="1:10">
@@ -6982,25 +6982,25 @@
         <v>147</v>
       </c>
       <c r="D199">
-        <v>-194.5389503469851</v>
+        <v>-346.8328656595658</v>
       </c>
       <c r="E199">
-        <v>-190.9260471211786</v>
+        <v>-343.2199624337593</v>
       </c>
       <c r="F199">
-        <v>-186.2211421163369</v>
+        <v>-338.5150574289175</v>
       </c>
       <c r="G199">
-        <v>0.205763706517278</v>
+        <v>0.004144392713234217</v>
       </c>
       <c r="H199">
         <v>2027</v>
       </c>
       <c r="I199">
-        <v>9.670553860135481</v>
+        <v>0.3374162270315181</v>
       </c>
       <c r="J199">
-        <v>0.1189505800772359</v>
+        <v>0.01303527772757218</v>
       </c>
     </row>
     <row r="200" spans="1:10">
@@ -7014,25 +7014,25 @@
         <v>147</v>
       </c>
       <c r="D200">
-        <v>-288.042107697309</v>
+        <v>-291.6659107185492</v>
       </c>
       <c r="E200">
-        <v>-285.417107697309</v>
+        <v>-289.0409107185492</v>
       </c>
       <c r="F200">
-        <v>-281.3878611127904</v>
+        <v>-285.0116641340306</v>
       </c>
       <c r="G200">
-        <v>0.01969753795089667</v>
+        <v>0.01794973990103309</v>
       </c>
       <c r="H200">
         <v>2027</v>
       </c>
       <c r="I200">
-        <v>0.1889543313145955</v>
+        <v>0.7623009593867732</v>
       </c>
       <c r="J200">
-        <v>0.0002462618213116552</v>
+        <v>0.009904655662763551</v>
       </c>
     </row>
     <row r="201" spans="1:10">
@@ -7044,25 +7044,25 @@
         <v>147</v>
       </c>
       <c r="D201">
-        <v>-286.6510759081715</v>
+        <v>-290.2439743781624</v>
       </c>
       <c r="E201">
-        <v>-283.038172682365</v>
+        <v>-286.631071152356</v>
       </c>
       <c r="F201">
-        <v>-278.3332676775233</v>
+        <v>-281.9261661475142</v>
       </c>
       <c r="G201">
-        <v>0.01939235820119369</v>
+        <v>0.01768564828845878</v>
       </c>
       <c r="H201">
         <v>2027</v>
       </c>
       <c r="I201">
-        <v>0.1909109724439622</v>
+        <v>0.7474696726480602</v>
       </c>
       <c r="J201">
-        <v>0.0004058390534056044</v>
+        <v>0.007692335264811612</v>
       </c>
     </row>
     <row r="202" spans="1:10">
@@ -7076,25 +7076,25 @@
         <v>147</v>
       </c>
       <c r="D202">
-        <v>-251.3935520688026</v>
+        <v>-25.6049942661639</v>
       </c>
       <c r="E202">
-        <v>-248.7685520688026</v>
+        <v>-22.9799942661639</v>
       </c>
       <c r="F202">
-        <v>-244.739305484284</v>
+        <v>-18.95074768164531</v>
       </c>
       <c r="G202">
-        <v>0.05041053622936467</v>
+        <v>16.47584100589394</v>
       </c>
       <c r="H202">
         <v>2027</v>
       </c>
       <c r="I202">
-        <v>1.25498224778209</v>
+        <v>20.90509464091665</v>
       </c>
       <c r="J202">
-        <v>-0.00398362038635991</v>
+        <v>0.1362858340721438</v>
       </c>
     </row>
     <row r="203" spans="1:10">
@@ -7106,25 +7106,25 @@
         <v>147</v>
       </c>
       <c r="D203">
-        <v>-250.092794535302</v>
+        <v>-24.26378318750761</v>
       </c>
       <c r="E203">
-        <v>-246.4798913094955</v>
+        <v>-20.65087996170115</v>
       </c>
       <c r="F203">
-        <v>-241.7749863046538</v>
+        <v>-15.94597495685937</v>
       </c>
       <c r="G203">
-        <v>0.0495147651713529</v>
+        <v>16.19986814261111</v>
       </c>
       <c r="H203">
         <v>2027</v>
       </c>
       <c r="I203">
-        <v>1.259554099998114</v>
+        <v>20.74369266976727</v>
       </c>
       <c r="J203">
-        <v>-0.003217969794820474</v>
+        <v>0.1096610270592002</v>
       </c>
     </row>
     <row r="204" spans="1:10">
@@ -7138,25 +7138,25 @@
         <v>147</v>
       </c>
       <c r="D204">
-        <v>-176.7277634096624</v>
+        <v>-136.3800788685717</v>
       </c>
       <c r="E204">
-        <v>-174.1027634096624</v>
+        <v>-133.7550788685717</v>
       </c>
       <c r="F204">
-        <v>-170.0735168251438</v>
+        <v>-129.7258322840531</v>
       </c>
       <c r="G204">
-        <v>0.3419647313082896</v>
+        <v>0.9622397315247507</v>
       </c>
       <c r="H204">
         <v>2027</v>
       </c>
       <c r="I204">
-        <v>6.622818709331266</v>
+        <v>8.658453615958839</v>
       </c>
       <c r="J204">
-        <v>0.423738775011878</v>
+        <v>0.149428553500579</v>
       </c>
     </row>
     <row r="205" spans="1:10">
@@ -7168,25 +7168,25 @@
         <v>147</v>
       </c>
       <c r="D205">
-        <v>-174.3915910058338</v>
+        <v>-134.2534539857723</v>
       </c>
       <c r="E205">
-        <v>-170.7786877800273</v>
+        <v>-130.6405507599658</v>
       </c>
       <c r="F205">
-        <v>-166.0737827751855</v>
+        <v>-125.935645755124</v>
       </c>
       <c r="G205">
-        <v>0.3449251414356938</v>
+        <v>0.9653690009531258</v>
       </c>
       <c r="H205">
         <v>2027</v>
       </c>
       <c r="I205">
-        <v>6.159777708525354</v>
+        <v>8.431739505279982</v>
       </c>
       <c r="J205">
-        <v>0.3442596757693721</v>
+        <v>0.1158959602184115</v>
       </c>
     </row>
     <row r="206" spans="1:10">
@@ -7200,25 +7200,25 @@
         <v>147</v>
       </c>
       <c r="D206">
-        <v>-383.1456535863544</v>
+        <v>172.1120274770746</v>
       </c>
       <c r="E206">
-        <v>-380.5206535863544</v>
+        <v>174.7370274770746</v>
       </c>
       <c r="F206">
-        <v>-376.4914070018358</v>
+        <v>178.7662740615932</v>
       </c>
       <c r="G206">
-        <v>0.001719341196442568</v>
+        <v>2621.658339862175</v>
       </c>
       <c r="H206">
         <v>2027</v>
       </c>
       <c r="I206">
-        <v>0.04326729262355094</v>
+        <v>23.47724753057124</v>
       </c>
       <c r="J206">
-        <v>-0.0007941234130424274</v>
+        <v>0</v>
       </c>
     </row>
     <row r="207" spans="1:10">
@@ -7230,25 +7230,25 @@
         <v>147</v>
       </c>
       <c r="D207">
-        <v>-381.3143892332599</v>
+        <v>173.9954680701173</v>
       </c>
       <c r="E207">
-        <v>-377.7014860074535</v>
+        <v>177.6083712959237</v>
       </c>
       <c r="F207">
-        <v>-372.9965810026117</v>
+        <v>182.3132763007655</v>
       </c>
       <c r="G207">
-        <v>0.001711918441166968</v>
+        <v>2613.834679513143</v>
       </c>
       <c r="H207">
         <v>2027</v>
       </c>
       <c r="I207">
-        <v>0.04594905828516959</v>
+        <v>23.46406092320964</v>
       </c>
       <c r="J207">
-        <v>-0.0004850827174488273</v>
+        <v>0</v>
       </c>
     </row>
     <row r="208" spans="1:10">
@@ -7262,25 +7262,25 @@
         <v>147</v>
       </c>
       <c r="D208">
-        <v>-228.1390000225711</v>
+        <v>-136.6149058389189</v>
       </c>
       <c r="E208">
-        <v>-225.5140000225711</v>
+        <v>-133.9899058389189</v>
       </c>
       <c r="F208">
-        <v>-221.4847534380526</v>
+        <v>-129.9606592544004</v>
       </c>
       <c r="G208">
-        <v>0.09151206034884468</v>
+        <v>0.9564632974473909</v>
       </c>
       <c r="H208">
         <v>2027</v>
       </c>
       <c r="I208">
-        <v>4.937470488247384</v>
+        <v>2.692965167160714</v>
       </c>
       <c r="J208">
-        <v>0.01788243351356211</v>
+        <v>-0.03555645848370048</v>
       </c>
     </row>
     <row r="209" spans="1:10">
@@ -7292,25 +7292,25 @@
         <v>147</v>
       </c>
       <c r="D209">
-        <v>-226.9557079937972</v>
+        <v>-135.2407358856567</v>
       </c>
       <c r="E209">
-        <v>-223.3428047679907</v>
+        <v>-131.6278326598503</v>
       </c>
       <c r="F209">
-        <v>-218.637899763149</v>
+        <v>-126.9229276550085</v>
       </c>
       <c r="G209">
-        <v>0.08961561153232693</v>
+        <v>0.9412374937245708</v>
       </c>
       <c r="H209">
         <v>2027</v>
       </c>
       <c r="I209">
-        <v>4.908734381851013</v>
+        <v>2.761320426268107</v>
       </c>
       <c r="J209">
-        <v>0.01393542034831974</v>
+        <v>-0.02623272233092244</v>
       </c>
     </row>
     <row r="210" spans="1:10">
@@ -7324,25 +7324,25 @@
         <v>147</v>
       </c>
       <c r="D210">
-        <v>-182.6230589503971</v>
+        <v>-69.68113390057738</v>
       </c>
       <c r="E210">
-        <v>-179.9980589503971</v>
+        <v>-67.05613390057738</v>
       </c>
       <c r="F210">
-        <v>-175.9688123658786</v>
+        <v>-63.02688731605879</v>
       </c>
       <c r="G210">
-        <v>0.2939901263096393</v>
+        <v>5.32140677591679</v>
       </c>
       <c r="H210">
         <v>2027</v>
       </c>
       <c r="I210">
-        <v>3.127528147219756</v>
+        <v>3.092531344111023</v>
       </c>
       <c r="J210">
-        <v>-0.03342867261193661</v>
+        <v>0.1607752668281353</v>
       </c>
     </row>
     <row r="211" spans="1:10">
@@ -7354,25 +7354,25 @@
         <v>147</v>
       </c>
       <c r="D211">
-        <v>-181.1404900781677</v>
+        <v>-65.47245778499095</v>
       </c>
       <c r="E211">
-        <v>-177.5275868523612</v>
+        <v>-61.8595545591845</v>
       </c>
       <c r="F211">
-        <v>-172.8226818475194</v>
+        <v>-57.15464955434272</v>
       </c>
       <c r="G211">
-        <v>0.2901153834976077</v>
+        <v>5.631469501950153</v>
       </c>
       <c r="H211">
         <v>2027</v>
       </c>
       <c r="I211">
-        <v>3.17089340544981</v>
+        <v>1.534558834254129</v>
       </c>
       <c r="J211">
-        <v>-0.02665876490268593</v>
+        <v>0.006520957872289568</v>
       </c>
     </row>
     <row r="212" spans="1:10">
@@ -7386,25 +7386,25 @@
         <v>147</v>
       </c>
       <c r="D212">
-        <v>127.1981385876571</v>
+        <v>-115.5855618628595</v>
       </c>
       <c r="E212">
-        <v>129.8231385876571</v>
+        <v>-112.9605618628595</v>
       </c>
       <c r="F212">
-        <v>133.8523851721757</v>
+        <v>-108.9313152783409</v>
       </c>
       <c r="G212">
-        <v>828.7546679626192</v>
+        <v>1.640007943699372</v>
       </c>
       <c r="H212">
         <v>2027</v>
       </c>
       <c r="I212">
-        <v>216.2973027717823</v>
+        <v>1.238308578605818</v>
       </c>
       <c r="J212">
-        <v>1.700243996296905</v>
+        <v>-0.08881286406252609</v>
       </c>
     </row>
     <row r="213" spans="1:10">
@@ -7416,25 +7416,25 @@
         <v>147</v>
       </c>
       <c r="D213">
-        <v>128.5134791700149</v>
+        <v>-114.2131356946675</v>
       </c>
       <c r="E213">
-        <v>132.1263823958214</v>
+        <v>-110.6002324688611</v>
       </c>
       <c r="F213">
-        <v>136.8312874006632</v>
+        <v>-105.8953274640193</v>
       </c>
       <c r="G213">
-        <v>814.3325367084973</v>
+        <v>1.613828729765961</v>
       </c>
       <c r="H213">
         <v>2027</v>
       </c>
       <c r="I213">
-        <v>214.3107371528675</v>
+        <v>1.390512008997109</v>
       </c>
       <c r="J213">
-        <v>1.370756398878683</v>
+        <v>-0.06722566697937427</v>
       </c>
     </row>
     <row r="214" spans="1:10">
@@ -7448,25 +7448,25 @@
         <v>147</v>
       </c>
       <c r="D214">
-        <v>-34.49846174723722</v>
+        <v>-190.1068391050794</v>
       </c>
       <c r="E214">
-        <v>-31.87346174723722</v>
+        <v>-187.4818391050794</v>
       </c>
       <c r="F214">
-        <v>-27.84421516271864</v>
+        <v>-183.4525925205608</v>
       </c>
       <c r="G214">
-        <v>13.11632317936469</v>
+        <v>0.2426583250044063</v>
       </c>
       <c r="H214">
         <v>2027</v>
       </c>
       <c r="I214">
-        <v>30.40679253999536</v>
+        <v>3.956030836912825</v>
       </c>
       <c r="J214">
-        <v>-1.454593629647711</v>
+        <v>-0.04027721230782921</v>
       </c>
     </row>
     <row r="215" spans="1:10">
@@ -7478,25 +7478,25 @@
         <v>147</v>
       </c>
       <c r="D215">
-        <v>-37.20281359701251</v>
+        <v>-188.5293884109151</v>
       </c>
       <c r="E215">
-        <v>-33.58991037120607</v>
+        <v>-184.9164851851087</v>
       </c>
       <c r="F215">
-        <v>-28.88500536636428</v>
+        <v>-180.2115801802669</v>
       </c>
       <c r="G215">
-        <v>11.62587354562668</v>
+        <v>0.2400434110524198</v>
       </c>
       <c r="H215">
         <v>2027</v>
       </c>
       <c r="I215">
-        <v>32.17315547919556</v>
+        <v>4.031599163076515</v>
       </c>
       <c r="J215">
-        <v>-1.16820091798094</v>
+        <v>-0.02993161157979785</v>
       </c>
     </row>
     <row r="216" spans="1:10">
@@ -7510,25 +7510,25 @@
         <v>147</v>
       </c>
       <c r="D216">
-        <v>-405.5837913524658</v>
+        <v>-516.8605858316959</v>
       </c>
       <c r="E216">
-        <v>-402.9587913524658</v>
+        <v>-514.2355858316959</v>
       </c>
       <c r="F216">
-        <v>-398.9295447679472</v>
+        <v>-510.2063392471773</v>
       </c>
       <c r="G216">
-        <v>0.0009671558057846758</v>
+        <v>5.576288277548297e-05</v>
       </c>
       <c r="H216">
         <v>2027</v>
       </c>
       <c r="I216">
-        <v>0.01410017330652021</v>
+        <v>0.001752236074471707</v>
       </c>
       <c r="J216">
-        <v>-2.89595558013063e-05</v>
+        <v>-3.465386795337318e-08</v>
       </c>
     </row>
     <row r="217" spans="1:10">
@@ -7540,25 +7540,25 @@
         <v>147</v>
       </c>
       <c r="D217">
-        <v>-402.1064099547721</v>
+        <v>-514.5152475683547</v>
       </c>
       <c r="E217">
-        <v>-398.4935067289657</v>
+        <v>-510.9023443425482</v>
       </c>
       <c r="F217">
-        <v>-393.7886017241239</v>
+        <v>-506.1974393377064</v>
       </c>
       <c r="G217">
-        <v>0.001004495977344759</v>
+        <v>5.62588460642748e-05</v>
       </c>
       <c r="H217">
         <v>2027</v>
       </c>
       <c r="I217">
-        <v>0.01801406485950467</v>
+        <v>0.001748220495152877</v>
       </c>
       <c r="J217">
-        <v>0.0002876971129835218</v>
+        <v>-6.654310914593585e-07</v>
       </c>
     </row>
     <row r="218" spans="1:10">
@@ -7572,25 +7572,25 @@
         <v>147</v>
       </c>
       <c r="D218">
-        <v>27.59868060024046</v>
+        <v>-84.41573886274541</v>
       </c>
       <c r="E218">
-        <v>31.09868060024046</v>
+        <v>-81.79073886274541</v>
       </c>
       <c r="F218">
-        <v>33.33462941818105</v>
+        <v>-77.76149227822683</v>
       </c>
       <c r="G218">
-        <v>58.33502633492689</v>
+        <v>3.647081710087147</v>
       </c>
       <c r="H218">
         <v>2027</v>
       </c>
       <c r="I218">
-        <v>0.2032320112954928</v>
+        <v>0.7239160032710112</v>
       </c>
       <c r="J218">
-        <v>-0.1558715208158685</v>
+        <v>-0.09756286794362246</v>
       </c>
     </row>
     <row r="219" spans="1:10">
@@ -7602,25 +7602,25 @@
         <v>147</v>
       </c>
       <c r="D219">
-        <v>28.98116899417743</v>
+        <v>-83.02486836818721</v>
       </c>
       <c r="E219">
-        <v>33.85073421156874</v>
+        <v>-79.41196514238077</v>
       </c>
       <c r="F219">
-        <v>36.15110501660315</v>
+        <v>-74.70706013753897</v>
       </c>
       <c r="G219">
-        <v>57.18450548099423</v>
+        <v>3.590561550600882</v>
       </c>
       <c r="H219">
         <v>2027</v>
       </c>
       <c r="I219">
-        <v>0.3648033698762638</v>
+        <v>0.8596358469202547</v>
       </c>
       <c r="J219">
-        <v>-0.1273583810192065</v>
+        <v>-0.07662456593689149</v>
       </c>
     </row>
     <row r="220" spans="1:10">
@@ -7634,25 +7634,25 @@
         <v>147</v>
       </c>
       <c r="D220">
-        <v>22.90367377229853</v>
+        <v>-228.1390000225711</v>
       </c>
       <c r="E220">
-        <v>25.52867377229853</v>
+        <v>-225.5140000225711</v>
       </c>
       <c r="F220">
-        <v>29.55792035681711</v>
+        <v>-221.4847534380526</v>
       </c>
       <c r="G220">
-        <v>57.1515852046684</v>
+        <v>0.09151206034884468</v>
       </c>
       <c r="H220">
         <v>2027</v>
       </c>
       <c r="I220">
-        <v>53.73584965096184</v>
+        <v>4.937470488247384</v>
       </c>
       <c r="J220">
-        <v>0.8702578690171165</v>
+        <v>0.01788243351356211</v>
       </c>
     </row>
     <row r="221" spans="1:10">
@@ -7664,25 +7664,25 @@
         <v>147</v>
       </c>
       <c r="D221">
-        <v>24.20581044651083</v>
+        <v>-226.9557079937972</v>
       </c>
       <c r="E221">
-        <v>27.81871367231728</v>
+        <v>-223.3428047679907</v>
       </c>
       <c r="F221">
-        <v>32.52361867715906</v>
+        <v>-218.637899763149</v>
       </c>
       <c r="G221">
-        <v>56.13801408860168</v>
+        <v>0.08961561153232693</v>
       </c>
       <c r="H221">
         <v>2027</v>
       </c>
       <c r="I221">
-        <v>52.73574664580636</v>
+        <v>4.908734381851013</v>
       </c>
       <c r="J221">
-        <v>0.7021287273889243</v>
+        <v>0.01393542034831974</v>
       </c>
     </row>
     <row r="222" spans="1:10">
@@ -7696,25 +7696,25 @@
         <v>147</v>
       </c>
       <c r="D222">
-        <v>-218.5986751133437</v>
+        <v>-134.301458698212</v>
       </c>
       <c r="E222">
-        <v>-215.9736751133437</v>
+        <v>-131.676458698212</v>
       </c>
       <c r="F222">
-        <v>-211.9444285288251</v>
+        <v>-127.6472121136934</v>
       </c>
       <c r="G222">
-        <v>0.1168737726669189</v>
+        <v>1.014916451074507</v>
       </c>
       <c r="H222">
         <v>2027</v>
       </c>
       <c r="I222">
-        <v>4.522147503338784</v>
+        <v>9.176802021522509</v>
       </c>
       <c r="J222">
-        <v>0.1123838568974005</v>
+        <v>0.1866537873021912</v>
       </c>
     </row>
     <row r="223" spans="1:10">
@@ -7726,25 +7726,25 @@
         <v>147</v>
       </c>
       <c r="D223">
-        <v>-216.9001172481607</v>
+        <v>-132.7814464913113</v>
       </c>
       <c r="E223">
-        <v>-213.2872140223542</v>
+        <v>-129.1685432655048</v>
       </c>
       <c r="F223">
-        <v>-208.5823090175125</v>
+        <v>-124.463638260663</v>
       </c>
       <c r="G223">
-        <v>0.1159739040602351</v>
+        <v>1.002502040475154</v>
       </c>
       <c r="H223">
         <v>2027</v>
       </c>
       <c r="I223">
-        <v>4.390142564894566</v>
+        <v>8.943072277851767</v>
       </c>
       <c r="J223">
-        <v>0.09059818962693544</v>
+        <v>0.1490950696722262</v>
       </c>
     </row>
     <row r="224" spans="1:10">
@@ -7758,25 +7758,25 @@
         <v>147</v>
       </c>
       <c r="D224">
-        <v>-145.1545717471863</v>
+        <v>-189.5190405860501</v>
       </c>
       <c r="E224">
-        <v>-142.5295717471863</v>
+        <v>-186.8940405860501</v>
       </c>
       <c r="F224">
-        <v>-138.5003251626677</v>
+        <v>-182.8647940015315</v>
       </c>
       <c r="G224">
-        <v>0.7683740231460482</v>
+        <v>0.246343312147507</v>
       </c>
       <c r="H224">
         <v>2027</v>
       </c>
       <c r="I224">
-        <v>-0.4439823836446388</v>
+        <v>4.358367409788924</v>
       </c>
       <c r="J224">
-        <v>-0.2173693245189303</v>
+        <v>-0.001726542017491894</v>
       </c>
     </row>
     <row r="225" spans="1:10">
@@ -7788,25 +7788,25 @@
         <v>147</v>
       </c>
       <c r="D225">
-        <v>-143.6017665396888</v>
+        <v>-189.4849574344491</v>
       </c>
       <c r="E225">
-        <v>-139.9888633138823</v>
+        <v>-185.8720542086426</v>
       </c>
       <c r="F225">
-        <v>-135.2839583090405</v>
+        <v>-181.1671492038008</v>
       </c>
       <c r="G225">
-        <v>0.7596137578650816</v>
+        <v>0.2342333911904082</v>
       </c>
       <c r="H225">
         <v>2027</v>
       </c>
       <c r="I225">
-        <v>-0.2091017890740361</v>
+        <v>4.390759085554014</v>
       </c>
       <c r="J225">
-        <v>-0.1767348726166968</v>
+        <v>0.002689600727933339</v>
       </c>
     </row>
     <row r="226" spans="1:10">
@@ -7820,25 +7820,25 @@
         <v>147</v>
       </c>
       <c r="D226">
-        <v>86.41175769024214</v>
+        <v>-132.1634026493849</v>
       </c>
       <c r="E226">
-        <v>89.03675769024214</v>
+        <v>-129.5384026493849</v>
       </c>
       <c r="F226">
-        <v>93.06600427476073</v>
+        <v>-125.5091560648663</v>
       </c>
       <c r="G226">
-        <v>291.2318063972113</v>
+        <v>1.072109544930895</v>
       </c>
       <c r="H226">
         <v>2027</v>
       </c>
       <c r="I226">
-        <v>77.58889780583266</v>
+        <v>0.9816315130114979</v>
       </c>
       <c r="J226">
-        <v>0.0500082990752162</v>
+        <v>-0.1734635714014543</v>
       </c>
     </row>
     <row r="227" spans="1:10">
@@ -7850,25 +7850,25 @@
         <v>147</v>
       </c>
       <c r="D227">
-        <v>78.76875363033651</v>
+        <v>-130.7930004944513</v>
       </c>
       <c r="E227">
-        <v>82.38165685614295</v>
+        <v>-127.1800972686448</v>
       </c>
       <c r="F227">
-        <v>87.08656186098474</v>
+        <v>-122.4751922638031</v>
       </c>
       <c r="G227">
-        <v>227.434667486928</v>
+        <v>1.054940861993563</v>
       </c>
       <c r="H227">
         <v>2027</v>
       </c>
       <c r="I227">
-        <v>75.53363976396678</v>
+        <v>1.181384621961399</v>
       </c>
       <c r="J227">
-        <v>-0.1286916690712019</v>
+        <v>-0.1400211329717003</v>
       </c>
     </row>
     <row r="228" spans="1:10">
@@ -7882,25 +7882,25 @@
         <v>147</v>
       </c>
       <c r="D228">
-        <v>-290.3067340150936</v>
+        <v>-288.1104802833643</v>
       </c>
       <c r="E228">
-        <v>-287.6817340150936</v>
+        <v>-285.4854802833643</v>
       </c>
       <c r="F228">
-        <v>-283.652487430575</v>
+        <v>-281.4562336988457</v>
       </c>
       <c r="G228">
-        <v>0.01858632897892171</v>
+        <v>0.01966303559816734</v>
       </c>
       <c r="H228">
         <v>2027</v>
       </c>
       <c r="I228">
-        <v>0.4831042860690656</v>
+        <v>0.6945157573150801</v>
       </c>
       <c r="J228">
-        <v>0.01062030046903983</v>
+        <v>0.02247366876170842</v>
       </c>
     </row>
     <row r="229" spans="1:10">
@@ -7912,25 +7912,25 @@
         <v>147</v>
       </c>
       <c r="D229">
-        <v>-288.4106885264794</v>
+        <v>-286.6282067393085</v>
       </c>
       <c r="E229">
-        <v>-284.7977853006729</v>
+        <v>-283.015303513502</v>
       </c>
       <c r="F229">
-        <v>-280.0928802958312</v>
+        <v>-278.3103985086603</v>
       </c>
       <c r="G229">
-        <v>0.01853685308190462</v>
+        <v>0.01940373300036662</v>
       </c>
       <c r="H229">
         <v>2027</v>
       </c>
       <c r="I229">
-        <v>0.4619237478653373</v>
+        <v>0.6673381317225821</v>
       </c>
       <c r="J229">
-        <v>0.007769323237858783</v>
+        <v>0.01804886795549132</v>
       </c>
     </row>
     <row r="230" spans="1:10">
@@ -7944,25 +7944,25 @@
         <v>147</v>
       </c>
       <c r="D230">
-        <v>-290.0626893108088</v>
+        <v>-331.6252608682446</v>
       </c>
       <c r="E230">
-        <v>-287.4376893108088</v>
+        <v>-329.0002608682446</v>
       </c>
       <c r="F230">
-        <v>-283.4084427262902</v>
+        <v>-324.971014283726</v>
       </c>
       <c r="G230">
-        <v>0.01870299863579224</v>
+        <v>0.006442888103410073</v>
       </c>
       <c r="H230">
         <v>2027</v>
       </c>
       <c r="I230">
-        <v>0.2800940546138853</v>
+        <v>0.2337896737372797</v>
       </c>
       <c r="J230">
-        <v>-0.0007391547917512953</v>
+        <v>0.004006081634179787</v>
       </c>
     </row>
     <row r="231" spans="1:10">
@@ -7974,25 +7974,25 @@
         <v>147</v>
       </c>
       <c r="D231">
-        <v>-288.1639375733822</v>
+        <v>-330.3450328544968</v>
       </c>
       <c r="E231">
-        <v>-284.5510343475757</v>
+        <v>-326.7321296286903</v>
       </c>
       <c r="F231">
-        <v>-279.8461293427339</v>
+        <v>-322.0272246238486</v>
       </c>
       <c r="G231">
-        <v>0.01865450657973099</v>
+        <v>0.006325070690368137</v>
       </c>
       <c r="H231">
         <v>2027</v>
       </c>
       <c r="I231">
-        <v>0.2802829947174547</v>
+        <v>0.2290930020063885</v>
       </c>
       <c r="J231">
-        <v>-0.0006086243972948657</v>
+        <v>0.003219190311743059</v>
       </c>
     </row>
     <row r="232" spans="1:10">
@@ -8006,25 +8006,25 @@
         <v>147</v>
       </c>
       <c r="D232">
-        <v>-113.7680393429361</v>
+        <v>-189.6189595389816</v>
       </c>
       <c r="E232">
-        <v>-111.1430393429361</v>
+        <v>-186.9939595389816</v>
       </c>
       <c r="F232">
-        <v>-107.1137927584175</v>
+        <v>-182.964712954463</v>
       </c>
       <c r="G232">
-        <v>1.71824638490963</v>
+        <v>0.2457129823675354</v>
       </c>
       <c r="H232">
         <v>2027</v>
       </c>
       <c r="I232">
-        <v>23.17662150140979</v>
+        <v>5.918380471781903</v>
       </c>
       <c r="J232">
-        <v>0.8546561913915447</v>
+        <v>0.06852344809081146</v>
       </c>
     </row>
     <row r="233" spans="1:10">
@@ -8036,25 +8036,25 @@
         <v>147</v>
       </c>
       <c r="D233">
-        <v>-111.3693992065123</v>
+        <v>-188.1739086883367</v>
       </c>
       <c r="E233">
-        <v>-107.7564959807058</v>
+        <v>-184.5610054625303</v>
       </c>
       <c r="F233">
-        <v>-103.0515909758641</v>
+        <v>-179.8561004576885</v>
       </c>
       <c r="G233">
-        <v>1.735899580167812</v>
+        <v>0.242241376121575</v>
       </c>
       <c r="H233">
         <v>2027</v>
       </c>
       <c r="I233">
-        <v>22.4348368472234</v>
+        <v>5.826929267927079</v>
       </c>
       <c r="J233">
-        <v>0.7122934846907114</v>
+        <v>0.05445496929963056</v>
       </c>
     </row>
     <row r="234" spans="1:10">
@@ -8068,25 +8068,25 @@
         <v>147</v>
       </c>
       <c r="D234">
-        <v>-189.5190405860501</v>
+        <v>-171.663676250543</v>
       </c>
       <c r="E234">
-        <v>-186.8940405860501</v>
+        <v>-169.038676250543</v>
       </c>
       <c r="F234">
-        <v>-182.8647940015315</v>
+        <v>-165.0094296660245</v>
       </c>
       <c r="G234">
-        <v>0.246343312147507</v>
+        <v>0.3893801032090438</v>
       </c>
       <c r="H234">
         <v>2027</v>
       </c>
       <c r="I234">
-        <v>4.358367409788924</v>
+        <v>5.211875870290824</v>
       </c>
       <c r="J234">
-        <v>-0.001726542017491894</v>
+        <v>0.3042614485920465</v>
       </c>
     </row>
     <row r="235" spans="1:10">
@@ -8098,25 +8098,25 @@
         <v>147</v>
       </c>
       <c r="D235">
-        <v>-189.4849574344491</v>
+        <v>-169.4272239490542</v>
       </c>
       <c r="E235">
-        <v>-185.8720542086426</v>
+        <v>-165.8143207232478</v>
       </c>
       <c r="F235">
-        <v>-181.1671492038008</v>
+        <v>-161.109415718406</v>
       </c>
       <c r="G235">
-        <v>0.2342333911904082</v>
+        <v>0.3917480388651964</v>
       </c>
       <c r="H235">
         <v>2027</v>
       </c>
       <c r="I235">
-        <v>4.390759085554014</v>
+        <v>4.918115774110999</v>
       </c>
       <c r="J235">
-        <v>0.002689600727933339</v>
+        <v>0.2506651439468923</v>
       </c>
     </row>
     <row r="236" spans="1:10">
@@ -8130,25 +8130,25 @@
         <v>147</v>
       </c>
       <c r="D236">
-        <v>-203.0499542633734</v>
+        <v>-290.3067340150936</v>
       </c>
       <c r="E236">
-        <v>-200.4249542633734</v>
+        <v>-287.6817340150936</v>
       </c>
       <c r="F236">
-        <v>-196.3957076788548</v>
+        <v>-283.652487430575</v>
       </c>
       <c r="G236">
-        <v>0.1741260803109589</v>
+        <v>0.01858632897892171</v>
       </c>
       <c r="H236">
         <v>2027</v>
       </c>
       <c r="I236">
-        <v>1.630113616175875</v>
+        <v>0.4831042860690656</v>
       </c>
       <c r="J236">
-        <v>-0.08449568166402832</v>
+        <v>0.01062030046903983</v>
       </c>
     </row>
     <row r="237" spans="1:10">
@@ -8160,25 +8160,25 @@
         <v>147</v>
       </c>
       <c r="D237">
-        <v>-201.381248950442</v>
+        <v>-288.4106885264794</v>
       </c>
       <c r="E237">
-        <v>-197.7683457246356</v>
+        <v>-284.7977853006729</v>
       </c>
       <c r="F237">
-        <v>-193.0634407197938</v>
+        <v>-280.0928802958312</v>
       </c>
       <c r="G237">
-        <v>0.1726531900672012</v>
+        <v>0.01853685308190462</v>
       </c>
       <c r="H237">
         <v>2027</v>
       </c>
       <c r="I237">
-        <v>1.752903975164403</v>
+        <v>0.4619237478653373</v>
       </c>
       <c r="J237">
-        <v>-0.06583616244164836</v>
+        <v>0.007769323237858783</v>
       </c>
     </row>
     <row r="238" spans="1:10">
@@ -8192,25 +8192,25 @@
         <v>147</v>
       </c>
       <c r="D238">
-        <v>-335.1433574308651</v>
+        <v>-75.12847302142045</v>
       </c>
       <c r="E238">
-        <v>-332.5183574308651</v>
+        <v>-72.50347302142045</v>
       </c>
       <c r="F238">
-        <v>-328.4891108463465</v>
+        <v>-68.47422643690186</v>
       </c>
       <c r="G238">
-        <v>0.005887134040469722</v>
+        <v>4.627710891190867</v>
       </c>
       <c r="H238">
         <v>2027</v>
       </c>
       <c r="I238">
-        <v>-0.02143838715459477</v>
+        <v>5.295023925988888</v>
       </c>
       <c r="J238">
-        <v>-0.003087415037987096</v>
+        <v>-0.0475385950034628</v>
       </c>
     </row>
     <row r="239" spans="1:10">
@@ -8222,25 +8222,25 @@
         <v>147</v>
       </c>
       <c r="D239">
-        <v>-332.9952621382188</v>
+        <v>-73.34928634665506</v>
       </c>
       <c r="E239">
-        <v>-329.3823589124123</v>
+        <v>-69.73638312084861</v>
       </c>
       <c r="F239">
-        <v>-324.6774539075706</v>
+        <v>-65.03147811600684</v>
       </c>
       <c r="G239">
-        <v>0.005909531842866597</v>
+        <v>4.601583382038809</v>
       </c>
       <c r="H239">
         <v>2027</v>
       </c>
       <c r="I239">
-        <v>-0.01221384330228332</v>
+        <v>5.543633647269537</v>
       </c>
       <c r="J239">
-        <v>-0.001977492046632737</v>
+        <v>-0.02091630474795103</v>
       </c>
     </row>
     <row r="240" spans="1:10">
@@ -8254,25 +8254,25 @@
         <v>147</v>
       </c>
       <c r="D240">
-        <v>-73.36726678147234</v>
+        <v>-101.2776982280453</v>
       </c>
       <c r="E240">
-        <v>-70.74226678147234</v>
+        <v>-98.65269822804527</v>
       </c>
       <c r="F240">
-        <v>-66.71302019695375</v>
+        <v>-94.62345164352668</v>
       </c>
       <c r="G240">
-        <v>4.841484905080047</v>
+        <v>2.36687231170053</v>
       </c>
       <c r="H240">
         <v>2027</v>
       </c>
       <c r="I240">
-        <v>5.895030727536012</v>
+        <v>15.56824786563642</v>
       </c>
       <c r="J240">
-        <v>0.1414791003978806</v>
+        <v>-0.08604342676128418</v>
       </c>
     </row>
     <row r="241" spans="1:10">
@@ -8284,25 +8284,25 @@
         <v>147</v>
       </c>
       <c r="D241">
-        <v>-72.12664423084458</v>
+        <v>-99.76688614817016</v>
       </c>
       <c r="E241">
-        <v>-68.51374100503813</v>
+        <v>-96.15398292236371</v>
       </c>
       <c r="F241">
-        <v>-63.80883600019634</v>
+        <v>-91.44907791752192</v>
       </c>
       <c r="G241">
-        <v>4.748127147671536</v>
+        <v>2.337369388095313</v>
       </c>
       <c r="H241">
         <v>2027</v>
       </c>
       <c r="I241">
-        <v>5.72601895657041</v>
+        <v>15.76803863739984</v>
       </c>
       <c r="J241">
-        <v>0.1135605516009264</v>
+        <v>-0.06031781883318033</v>
       </c>
     </row>
     <row r="242" spans="1:10">
@@ -8316,25 +8316,25 @@
         <v>147</v>
       </c>
       <c r="D242">
-        <v>-209.6132909088456</v>
+        <v>-138.3606199292285</v>
       </c>
       <c r="E242">
-        <v>-206.9882909088456</v>
+        <v>-135.7356199292285</v>
       </c>
       <c r="F242">
-        <v>-202.959044324327</v>
+        <v>-131.70637334471</v>
       </c>
       <c r="G242">
-        <v>0.1471553678960284</v>
+        <v>0.9145942430190953</v>
       </c>
       <c r="H242">
         <v>2027</v>
       </c>
       <c r="I242">
-        <v>0.5893670580692508</v>
+        <v>15.13179317727526</v>
       </c>
       <c r="J242">
-        <v>0.006838110528406882</v>
+        <v>0.5370321627523875</v>
       </c>
     </row>
     <row r="243" spans="1:10">
@@ -8346,25 +8346,25 @@
         <v>147</v>
       </c>
       <c r="D243">
-        <v>-208.2928934857198</v>
+        <v>-135.6910555999905</v>
       </c>
       <c r="E243">
-        <v>-204.6799902599133</v>
+        <v>-132.078152374184</v>
       </c>
       <c r="F243">
-        <v>-199.9750852550715</v>
+        <v>-127.3732473693422</v>
       </c>
       <c r="G243">
-        <v>0.1446132945951963</v>
+        <v>0.9304318496256579</v>
       </c>
       <c r="H243">
         <v>2027</v>
       </c>
       <c r="I243">
-        <v>0.5825029051596698</v>
+        <v>14.63266001139257</v>
       </c>
       <c r="J243">
-        <v>0.005563327769142812</v>
+        <v>0.4444031381862121</v>
       </c>
     </row>
     <row r="244" spans="1:10">
@@ -8378,25 +8378,25 @@
         <v>147</v>
       </c>
       <c r="D244">
-        <v>-262.1322019757918</v>
+        <v>-459.8771940989059</v>
       </c>
       <c r="E244">
-        <v>-259.5072019757918</v>
+        <v>-457.2521940989059</v>
       </c>
       <c r="F244">
-        <v>-255.4779553912732</v>
+        <v>-453.2229475143873</v>
       </c>
       <c r="G244">
-        <v>0.03827703881963724</v>
+        <v>0.0002403800165448996</v>
       </c>
       <c r="H244">
         <v>2027</v>
       </c>
       <c r="I244">
-        <v>0.07601276546367954</v>
+        <v>-0.001241967541438773</v>
       </c>
       <c r="J244">
-        <v>-0.007361001701008243</v>
+        <v>-0.0004152467510212489</v>
       </c>
     </row>
     <row r="245" spans="1:10">
@@ -8408,25 +8408,25 @@
         <v>147</v>
       </c>
       <c r="D245">
-        <v>-260.633344048906</v>
+        <v>-458.3932191739594</v>
       </c>
       <c r="E245">
-        <v>-257.0204408230995</v>
+        <v>-454.780315948153</v>
       </c>
       <c r="F245">
-        <v>-252.3155358182578</v>
+        <v>-450.0754109433112</v>
       </c>
       <c r="G245">
-        <v>0.03778833325876843</v>
+        <v>0.0002372203986653292</v>
       </c>
       <c r="H245">
         <v>2027</v>
       </c>
       <c r="I245">
-        <v>0.09443842131345215</v>
+        <v>-0.0005791968200650334</v>
       </c>
       <c r="J245">
-        <v>-0.005030083901930105</v>
+        <v>-0.0003214432612008481</v>
       </c>
     </row>
     <row r="246" spans="1:10">
@@ -8440,25 +8440,25 @@
         <v>147</v>
       </c>
       <c r="D246">
-        <v>-200.240166536423</v>
+        <v>-97.9349041130186</v>
       </c>
       <c r="E246">
-        <v>-197.615166536423</v>
+        <v>-95.3099041130186</v>
       </c>
       <c r="F246">
-        <v>-193.5859199519044</v>
+        <v>-91.28065752850002</v>
       </c>
       <c r="G246">
-        <v>0.1871341006190446</v>
+        <v>2.578691380739994</v>
       </c>
       <c r="H246">
         <v>2027</v>
       </c>
       <c r="I246">
-        <v>3.817623214219951</v>
+        <v>17.85363582793767</v>
       </c>
       <c r="J246">
-        <v>0.066246744320277</v>
+        <v>0.3347613780857941</v>
       </c>
     </row>
     <row r="247" spans="1:10">
@@ -8470,25 +8470,25 @@
         <v>147</v>
       </c>
       <c r="D247">
-        <v>-198.5634799238366</v>
+        <v>-96.13001672489389</v>
       </c>
       <c r="E247">
-        <v>-194.9505766980301</v>
+        <v>-92.51711349908744</v>
       </c>
       <c r="F247">
-        <v>-190.2456716931883</v>
+        <v>-87.81220849424565</v>
       </c>
       <c r="G247">
-        <v>0.1855891553842335</v>
+        <v>2.565822695040275</v>
       </c>
       <c r="H247">
         <v>2027</v>
       </c>
       <c r="I247">
-        <v>3.730493334934882</v>
+        <v>17.41260954177899</v>
       </c>
       <c r="J247">
-        <v>0.05259350079558534</v>
+        <v>0.2653715137887538</v>
       </c>
     </row>
     <row r="248" spans="1:10">
@@ -8502,25 +8502,25 @@
         <v>147</v>
       </c>
       <c r="D248">
-        <v>-348.8049225117717</v>
+        <v>-294.0435402235603</v>
       </c>
       <c r="E248">
-        <v>-346.1799225117717</v>
+        <v>-291.4185402235603</v>
       </c>
       <c r="F248">
-        <v>-342.1506759272531</v>
+        <v>-287.3892936390417</v>
       </c>
       <c r="G248">
-        <v>0.004147363197220963</v>
+        <v>0.01688812590029473</v>
       </c>
       <c r="H248">
         <v>2027</v>
       </c>
       <c r="I248">
-        <v>0.3588054759416401</v>
+        <v>0.4827213654824625</v>
       </c>
       <c r="J248">
-        <v>0.01640266083912995</v>
+        <v>0.01116840007514153</v>
       </c>
     </row>
     <row r="249" spans="1:10">
@@ -8532,25 +8532,25 @@
         <v>147</v>
       </c>
       <c r="D249">
-        <v>-346.8328656595658</v>
+        <v>-292.0808017184618</v>
       </c>
       <c r="E249">
-        <v>-343.2199624337593</v>
+        <v>-288.4678984926554</v>
       </c>
       <c r="F249">
-        <v>-338.5150574289175</v>
+        <v>-283.7629934878136</v>
       </c>
       <c r="G249">
-        <v>0.004144392713234217</v>
+        <v>0.01687199830285653</v>
       </c>
       <c r="H249">
         <v>2027</v>
       </c>
       <c r="I249">
-        <v>0.3374162270315181</v>
+        <v>0.4603743645482466</v>
       </c>
       <c r="J249">
-        <v>0.01303527772757218</v>
+        <v>0.008165910837834134</v>
       </c>
     </row>
     <row r="250" spans="1:10">
@@ -8564,25 +8564,25 @@
         <v>147</v>
       </c>
       <c r="D250">
-        <v>10.78163530983877</v>
+        <v>20.991649574355</v>
       </c>
       <c r="E250">
-        <v>13.40663530983877</v>
+        <v>23.616649574355</v>
       </c>
       <c r="F250">
-        <v>17.43588189435736</v>
+        <v>27.64589615887359</v>
       </c>
       <c r="G250">
-        <v>41.88323503794427</v>
+        <v>54.41723186811825</v>
       </c>
       <c r="H250">
         <v>2027</v>
       </c>
       <c r="I250">
-        <v>46.84741845057013</v>
+        <v>54.93271874769841</v>
       </c>
       <c r="J250">
-        <v>0.9560697801901412</v>
+        <v>0.6058847712069451</v>
       </c>
     </row>
     <row r="251" spans="1:10">
@@ -8594,25 +8594,25 @@
         <v>147</v>
       </c>
       <c r="D251">
-        <v>16.15939036575836</v>
+        <v>21.33289379910041</v>
       </c>
       <c r="E251">
-        <v>19.77229359156481</v>
+        <v>24.94579702490687</v>
       </c>
       <c r="F251">
-        <v>24.47719859640659</v>
+        <v>29.65070202974865</v>
       </c>
       <c r="G251">
-        <v>45.67242538044716</v>
+        <v>52.1512769173848</v>
       </c>
       <c r="H251">
         <v>2027</v>
       </c>
       <c r="I251">
-        <v>48.30807261328297</v>
+        <v>53.77077281741617</v>
       </c>
       <c r="J251">
-        <v>1.004665012325091</v>
+        <v>0.4525537828376969</v>
       </c>
     </row>
     <row r="252" spans="1:10">
@@ -8626,25 +8626,25 @@
         <v>147</v>
       </c>
       <c r="D252">
-        <v>-190.1068391050794</v>
+        <v>10.78163530983877</v>
       </c>
       <c r="E252">
-        <v>-187.4818391050794</v>
+        <v>13.40663530983877</v>
       </c>
       <c r="F252">
-        <v>-183.4525925205608</v>
+        <v>17.43588189435736</v>
       </c>
       <c r="G252">
-        <v>0.2426583250044063</v>
+        <v>41.88323503794427</v>
       </c>
       <c r="H252">
         <v>2027</v>
       </c>
       <c r="I252">
-        <v>3.956030836912825</v>
+        <v>46.84741845057013</v>
       </c>
       <c r="J252">
-        <v>-0.04027721230782921</v>
+        <v>0.9560697801901412</v>
       </c>
     </row>
     <row r="253" spans="1:10">
@@ -8656,25 +8656,25 @@
         <v>147</v>
       </c>
       <c r="D253">
-        <v>-188.5293884109151</v>
+        <v>16.15939036575836</v>
       </c>
       <c r="E253">
-        <v>-184.9164851851087</v>
+        <v>19.77229359156481</v>
       </c>
       <c r="F253">
-        <v>-180.2115801802669</v>
+        <v>24.47719859640659</v>
       </c>
       <c r="G253">
-        <v>0.2400434110524198</v>
+        <v>45.67242538044716</v>
       </c>
       <c r="H253">
         <v>2027</v>
       </c>
       <c r="I253">
-        <v>4.031599163076515</v>
+        <v>48.30807261328297</v>
       </c>
       <c r="J253">
-        <v>-0.02993161157979785</v>
+        <v>1.004665012325091</v>
       </c>
     </row>
     <row r="254" spans="1:10">
@@ -8688,25 +8688,25 @@
         <v>147</v>
       </c>
       <c r="D254">
-        <v>-63.37888109965539</v>
+        <v>-173.1883665242121</v>
       </c>
       <c r="E254">
-        <v>-60.75388109965539</v>
+        <v>-170.5633665242121</v>
       </c>
       <c r="F254">
-        <v>-56.7246345151368</v>
+        <v>-166.5341199396935</v>
       </c>
       <c r="G254">
-        <v>6.254704656548817</v>
+        <v>0.3744511572445807</v>
       </c>
       <c r="H254">
         <v>2027</v>
       </c>
       <c r="I254">
-        <v>24.65799565571785</v>
+        <v>1.826314452880044</v>
       </c>
       <c r="J254">
-        <v>0.2297375216333748</v>
+        <v>0.002568360393445213</v>
       </c>
     </row>
     <row r="255" spans="1:10">
@@ -8718,25 +8718,25 @@
         <v>147</v>
       </c>
       <c r="D255">
-        <v>-62.19169347650902</v>
+        <v>-171.1622676770859</v>
       </c>
       <c r="E255">
-        <v>-58.57879025070257</v>
+        <v>-167.5493644512795</v>
       </c>
       <c r="F255">
-        <v>-53.87388524586078</v>
+        <v>-162.8444594464377</v>
       </c>
       <c r="G255">
-        <v>6.125697225147068</v>
+        <v>0.3747018242754668</v>
       </c>
       <c r="H255">
         <v>2027</v>
       </c>
       <c r="I255">
-        <v>24.3264030947379</v>
+        <v>1.800630848945591</v>
       </c>
       <c r="J255">
-        <v>0.1793824187840052</v>
+        <v>0</v>
       </c>
     </row>
     <row r="256" spans="1:10">
@@ -8750,25 +8750,25 @@
         <v>147</v>
       </c>
       <c r="D256">
-        <v>-132.6860002789392</v>
+        <v>37.31833912746674</v>
       </c>
       <c r="E256">
-        <v>-130.0610002789392</v>
+        <v>39.94333912746674</v>
       </c>
       <c r="F256">
-        <v>-126.0317536944206</v>
+        <v>43.97258571198532</v>
       </c>
       <c r="G256">
-        <v>1.057839166821844</v>
+        <v>82.70780141095145</v>
       </c>
       <c r="H256">
         <v>2027</v>
       </c>
       <c r="I256">
-        <v>8.991048468130606</v>
+        <v>48.2394531049619</v>
       </c>
       <c r="J256">
-        <v>0.2134835660176133</v>
+        <v>0.5016330394023498</v>
       </c>
     </row>
     <row r="257" spans="1:10">
@@ -8780,25 +8780,25 @@
         <v>147</v>
       </c>
       <c r="D257">
-        <v>-130.8687585324573</v>
+        <v>37.94939514258284</v>
       </c>
       <c r="E257">
-        <v>-127.2558553066508</v>
+        <v>41.56229836838929</v>
       </c>
       <c r="F257">
-        <v>-122.550950301809</v>
+        <v>46.26720337323107</v>
       </c>
       <c r="G257">
-        <v>1.052893613863821</v>
+        <v>79.85502503642284</v>
       </c>
       <c r="H257">
         <v>2027</v>
       </c>
       <c r="I257">
-        <v>8.676235957940081</v>
+        <v>47.00957252960937</v>
       </c>
       <c r="J257">
-        <v>0.1659064683065186</v>
+        <v>0.3451585310002869</v>
       </c>
     </row>
     <row r="258" spans="1:10">
@@ -8812,25 +8812,25 @@
         <v>147</v>
       </c>
       <c r="D258">
-        <v>-176.590563692964</v>
+        <v>-297.5888505396713</v>
       </c>
       <c r="E258">
-        <v>-173.965563692964</v>
+        <v>-294.9638505396713</v>
       </c>
       <c r="F258">
-        <v>-169.9363171084455</v>
+        <v>-290.9346039551527</v>
       </c>
       <c r="G258">
-        <v>0.3431698617586003</v>
+        <v>0.01542061688446357</v>
       </c>
       <c r="H258">
         <v>2027</v>
       </c>
       <c r="I258">
-        <v>7.184656203271588</v>
+        <v>0.08616715344620654</v>
       </c>
       <c r="J258">
-        <v>0</v>
+        <v>-0.00178088380214797</v>
       </c>
     </row>
     <row r="259" spans="1:10">
@@ -8842,25 +8842,25 @@
         <v>147</v>
       </c>
       <c r="D259">
-        <v>-174.6413829207823</v>
+        <v>-295.7022065551022</v>
       </c>
       <c r="E259">
-        <v>-171.0284796949759</v>
+        <v>-292.0893033292958</v>
       </c>
       <c r="F259">
-        <v>-166.3235746901341</v>
+        <v>-287.384398324454</v>
       </c>
       <c r="G259">
-        <v>0.3427229830431279</v>
+        <v>0.01537586094141259</v>
       </c>
       <c r="H259">
         <v>2027</v>
       </c>
       <c r="I259">
-        <v>7.201699075891063</v>
+        <v>0.09430049542491656</v>
       </c>
       <c r="J259">
-        <v>0.001519146829511264</v>
+        <v>-0.0008678941505800009</v>
       </c>
     </row>
     <row r="260" spans="1:10">
@@ -8874,25 +8874,25 @@
         <v>147</v>
       </c>
       <c r="D260">
-        <v>-136.6149058389189</v>
+        <v>-218.5584385277367</v>
       </c>
       <c r="E260">
-        <v>-133.9899058389189</v>
+        <v>-215.9334385277367</v>
       </c>
       <c r="F260">
-        <v>-129.9606592544004</v>
+        <v>-211.9041919432182</v>
       </c>
       <c r="G260">
-        <v>0.9564632974473909</v>
+        <v>0.1169944144168632</v>
       </c>
       <c r="H260">
         <v>2027</v>
       </c>
       <c r="I260">
-        <v>2.692965167160714</v>
+        <v>0.9666037483398722</v>
       </c>
       <c r="J260">
-        <v>-0.03555645848370048</v>
+        <v>-0.01267817749560995</v>
       </c>
     </row>
     <row r="261" spans="1:10">
@@ -8904,25 +8904,25 @@
         <v>147</v>
       </c>
       <c r="D261">
-        <v>-135.2407358856567</v>
+        <v>-217.5039430711842</v>
       </c>
       <c r="E261">
-        <v>-131.6278326598503</v>
+        <v>-213.8910398453777</v>
       </c>
       <c r="F261">
-        <v>-126.9229276550085</v>
+        <v>-209.1861348405359</v>
       </c>
       <c r="G261">
-        <v>0.9412374937245708</v>
+        <v>0.114192142187445</v>
       </c>
       <c r="H261">
         <v>2027</v>
       </c>
       <c r="I261">
-        <v>2.761320426268107</v>
+        <v>0.9851732512002278</v>
       </c>
       <c r="J261">
-        <v>-0.02623272233092244</v>
+        <v>-0.009888115215605064</v>
       </c>
     </row>
     <row r="262" spans="1:10">
@@ -8936,25 +8936,25 @@
         <v>147</v>
       </c>
       <c r="D262">
-        <v>-109.4280723564588</v>
+        <v>150.542355694689</v>
       </c>
       <c r="E262">
-        <v>-106.8030723564588</v>
+        <v>153.167355694689</v>
       </c>
       <c r="F262">
-        <v>-102.7738257719402</v>
+        <v>157.1966022792076</v>
       </c>
       <c r="G262">
-        <v>1.920499737002233</v>
+        <v>1507.931078226136</v>
       </c>
       <c r="H262">
         <v>2027</v>
       </c>
       <c r="I262">
-        <v>2.226735570323438</v>
+        <v>291.2050423524466</v>
       </c>
       <c r="J262">
-        <v>-0.1197072652599194</v>
+        <v>2.82862265453997</v>
       </c>
     </row>
     <row r="263" spans="1:10">
@@ -8966,25 +8966,25 @@
         <v>147</v>
       </c>
       <c r="D263">
-        <v>143.2548241565362</v>
+        <v>151.728662385993</v>
       </c>
       <c r="E263">
-        <v>146.8677273823427</v>
+        <v>155.3415656117994</v>
       </c>
       <c r="F263">
-        <v>151.5726323871844</v>
+        <v>160.0464706166412</v>
       </c>
       <c r="G263">
-        <v>1188.386767868688</v>
+        <v>1476.795641509713</v>
       </c>
       <c r="H263">
         <v>2027</v>
       </c>
       <c r="I263">
-        <v>11.20339732419869</v>
+        <v>288.0020987631889</v>
       </c>
       <c r="J263">
-        <v>0</v>
+        <v>2.289537658437837</v>
       </c>
     </row>
     <row r="264" spans="1:10">
@@ -8998,25 +8998,25 @@
         <v>147</v>
       </c>
       <c r="D264">
-        <v>19.68054389054392</v>
+        <v>27.59868060024046</v>
       </c>
       <c r="E264">
-        <v>22.30554389054392</v>
+        <v>31.09868060024046</v>
       </c>
       <c r="F264">
-        <v>26.33479047506251</v>
+        <v>33.33462941818105</v>
       </c>
       <c r="G264">
-        <v>52.61823704463644</v>
+        <v>58.33502633492689</v>
       </c>
       <c r="H264">
         <v>2027</v>
       </c>
       <c r="I264">
-        <v>78.49501225102382</v>
+        <v>0.2032320112954928</v>
       </c>
       <c r="J264">
-        <v>2.596295041461573</v>
+        <v>-0.1558715208158685</v>
       </c>
     </row>
     <row r="265" spans="1:10">
@@ -9028,25 +9028,25 @@
         <v>147</v>
       </c>
       <c r="D265">
-        <v>21.06705207556324</v>
+        <v>28.98116899417743</v>
       </c>
       <c r="E265">
-        <v>24.67995530136969</v>
+        <v>33.85073421156874</v>
       </c>
       <c r="F265">
-        <v>29.38486030621147</v>
+        <v>36.15110501660315</v>
       </c>
       <c r="G265">
-        <v>51.79699894537936</v>
+        <v>57.18450548099423</v>
       </c>
       <c r="H265">
         <v>2027</v>
       </c>
       <c r="I265">
-        <v>75.38393657593832</v>
+        <v>0.3648033698762638</v>
       </c>
       <c r="J265">
-        <v>2.08309099378674</v>
+        <v>-0.1273583810192065</v>
       </c>
     </row>
     <row r="266" spans="1:10">
@@ -9060,25 +9060,25 @@
         <v>147</v>
       </c>
       <c r="D266">
-        <v>-521.7485841581572</v>
+        <v>-200.8011454485549</v>
       </c>
       <c r="E266">
-        <v>-519.1235841581572</v>
+        <v>-198.1761454485549</v>
       </c>
       <c r="F266">
-        <v>-515.0943375736387</v>
+        <v>-194.1468988640363</v>
       </c>
       <c r="G266">
-        <v>4.919417264937551e-05</v>
+        <v>0.1844616164267957</v>
       </c>
       <c r="H266">
         <v>2027</v>
       </c>
       <c r="I266">
-        <v>0.002504900861622398</v>
+        <v>0.9962179821214735</v>
       </c>
       <c r="J266">
-        <v>7.831434895300138e-07</v>
+        <v>-0.004035292068007013</v>
       </c>
     </row>
     <row r="267" spans="1:10">
@@ -9090,25 +9090,25 @@
         <v>147</v>
       </c>
       <c r="D267">
-        <v>-518.3087164504325</v>
+        <v>-199.3709481480304</v>
       </c>
       <c r="E267">
-        <v>-514.695813224626</v>
+        <v>-195.758044922224</v>
       </c>
       <c r="F267">
-        <v>-509.9909082197843</v>
+        <v>-191.0531399173822</v>
       </c>
       <c r="G267">
-        <v>5.104434982305036e-05</v>
+        <v>0.1817861643500559</v>
       </c>
       <c r="H267">
         <v>2027</v>
       </c>
       <c r="I267">
-        <v>0.00254327404247276</v>
+        <v>1.002520180916543</v>
       </c>
       <c r="J267">
-        <v>4.181360482087993e-06</v>
+        <v>-0.003161956917617559</v>
       </c>
     </row>
     <row r="268" spans="1:10">
@@ -9122,25 +9122,25 @@
         <v>147</v>
       </c>
       <c r="D268">
-        <v>-44.53425247245763</v>
+        <v>-73.90510963222189</v>
       </c>
       <c r="E268">
-        <v>-41.90925247245763</v>
+        <v>-71.28010963222189</v>
       </c>
       <c r="F268">
-        <v>-37.88000588793905</v>
+        <v>-67.25086304770331</v>
       </c>
       <c r="G268">
-        <v>10.14042115628838</v>
+        <v>4.775175035541825</v>
       </c>
       <c r="H268">
         <v>2027</v>
       </c>
       <c r="I268">
-        <v>5.712874593831511</v>
+        <v>13.3713883565504</v>
       </c>
       <c r="J268">
-        <v>-0.03091840765977771</v>
+        <v>0.07810950088249591</v>
       </c>
     </row>
     <row r="269" spans="1:10">
@@ -9152,25 +9152,25 @@
         <v>147</v>
       </c>
       <c r="D269">
-        <v>-42.56279810750596</v>
+        <v>-73.01095315082287</v>
       </c>
       <c r="E269">
-        <v>-38.94989488169951</v>
+        <v>-69.39804992501642</v>
       </c>
       <c r="F269">
-        <v>-34.24498987685773</v>
+        <v>-64.69314492017463</v>
       </c>
       <c r="G269">
-        <v>10.13300169854276</v>
+        <v>4.641676742613493</v>
       </c>
       <c r="H269">
         <v>2027</v>
       </c>
       <c r="I269">
-        <v>5.794279078211016</v>
+        <v>13.3283689574098</v>
       </c>
       <c r="J269">
-        <v>-0.02076353133064845</v>
+        <v>0.06728019791774464</v>
       </c>
     </row>
     <row r="270" spans="1:10">
@@ -9184,25 +9184,25 @@
         <v>147</v>
       </c>
       <c r="D270">
-        <v>-200.8011454485549</v>
+        <v>-176.7277634096624</v>
       </c>
       <c r="E270">
-        <v>-198.1761454485549</v>
+        <v>-174.1027634096624</v>
       </c>
       <c r="F270">
-        <v>-194.1468988640363</v>
+        <v>-170.0735168251438</v>
       </c>
       <c r="G270">
-        <v>0.1844616164267957</v>
+        <v>0.3419647313082896</v>
       </c>
       <c r="H270">
         <v>2027</v>
       </c>
       <c r="I270">
-        <v>0.9962179821214735</v>
+        <v>6.622818709331266</v>
       </c>
       <c r="J270">
-        <v>-0.004035292068007013</v>
+        <v>0.423738775011878</v>
       </c>
     </row>
     <row r="271" spans="1:10">
@@ -9214,25 +9214,25 @@
         <v>147</v>
       </c>
       <c r="D271">
-        <v>-199.3709481480304</v>
+        <v>-174.3915910058338</v>
       </c>
       <c r="E271">
-        <v>-195.758044922224</v>
+        <v>-170.7786877800273</v>
       </c>
       <c r="F271">
-        <v>-191.0531399173822</v>
+        <v>-166.0737827751855</v>
       </c>
       <c r="G271">
-        <v>0.1817861643500559</v>
+        <v>0.3449251414356938</v>
       </c>
       <c r="H271">
         <v>2027</v>
       </c>
       <c r="I271">
-        <v>1.002520180916543</v>
+        <v>6.159777708525354</v>
       </c>
       <c r="J271">
-        <v>-0.003161956917617559</v>
+        <v>0.3442596757693721</v>
       </c>
     </row>
   </sheetData>
